--- a/Tennis/WTA Tour/Serena Williams.xlsx
+++ b/Tennis/WTA Tour/Serena Williams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="139" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AF7B8FE-2290-45D8-92A8-0A13E44818F8}"/>
+  <xr:revisionPtr revIDLastSave="151" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03B5A4E0-72E4-48FE-BC9A-92426191E84C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="3" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="19" activeTab="27" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1995" sheetId="29" r:id="rId1"/>
@@ -17840,8 +17840,8 @@
   </sheetPr>
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17933,7 +17933,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="11">
-        <f t="shared" ref="F4:F28" si="0">(D4-E4)/D4</f>
+        <f>(D4-E4)/D4</f>
         <v>0.44444444444444442</v>
       </c>
     </row>
@@ -17954,7 +17954,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="11">
-        <f t="shared" si="0"/>
+        <f>(D5-E5)/D5</f>
         <v>0.62068965517241381</v>
       </c>
     </row>
@@ -17975,7 +17975,7 @@
         <v>7</v>
       </c>
       <c r="F6" s="11">
-        <f t="shared" si="0"/>
+        <f>(D6-E6)/D6</f>
         <v>0.82926829268292679</v>
       </c>
     </row>
@@ -17996,7 +17996,7 @@
         <v>8</v>
       </c>
       <c r="F7" s="11">
-        <f t="shared" si="0"/>
+        <f>(D7-E7)/D7</f>
         <v>0.78378378378378377</v>
       </c>
     </row>
@@ -18017,7 +18017,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="11">
-        <f t="shared" si="0"/>
+        <f>(D8-E8)/D8</f>
         <v>0.81578947368421051</v>
       </c>
     </row>
@@ -18038,7 +18038,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="11">
-        <f t="shared" si="0"/>
+        <f>(D9-E9)/D9</f>
         <v>0.9107142857142857</v>
       </c>
     </row>
@@ -18059,7 +18059,7 @@
         <v>3</v>
       </c>
       <c r="F10" s="11">
-        <f t="shared" si="0"/>
+        <f>(D10-E10)/D10</f>
         <v>0.92105263157894735</v>
       </c>
     </row>
@@ -18080,7 +18080,7 @@
         <v>9</v>
       </c>
       <c r="F11" s="11">
-        <f t="shared" si="0"/>
+        <f>(D11-E11)/D11</f>
         <v>0.76923076923076927</v>
       </c>
     </row>
@@ -18101,7 +18101,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="11">
-        <f t="shared" si="0"/>
+        <f>(D12-E12)/D12</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="T12" s="12"/>
@@ -18123,7 +18123,7 @@
         <v>4</v>
       </c>
       <c r="F13" s="11">
-        <f t="shared" si="0"/>
+        <f>(D13-E13)/D13</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="T13" s="12"/>
@@ -18145,7 +18145,7 @@
         <v>10</v>
       </c>
       <c r="F14" s="11">
-        <f t="shared" si="0"/>
+        <f>(D14-E14)/D14</f>
         <v>0.7142857142857143</v>
       </c>
       <c r="T14" s="12"/>
@@ -18167,7 +18167,7 @@
         <v>8</v>
       </c>
       <c r="F15" s="11">
-        <f t="shared" si="0"/>
+        <f>(D15-E15)/D15</f>
         <v>0.81818181818181823</v>
       </c>
       <c r="T15" s="12"/>
@@ -18189,7 +18189,7 @@
         <v>12</v>
       </c>
       <c r="F16" s="11">
-        <f t="shared" si="0"/>
+        <f>(D16-E16)/D16</f>
         <v>0.76</v>
       </c>
       <c r="T16" s="12"/>
@@ -18211,7 +18211,7 @@
         <v>4</v>
       </c>
       <c r="F17" s="11">
-        <f t="shared" si="0"/>
+        <f>(D17-E17)/D17</f>
         <v>0.84</v>
       </c>
     </row>
@@ -18232,7 +18232,7 @@
         <v>3</v>
       </c>
       <c r="F18" s="11">
-        <f t="shared" si="0"/>
+        <f>(D18-E18)/D18</f>
         <v>0.86363636363636365</v>
       </c>
     </row>
@@ -18253,7 +18253,7 @@
         <v>4</v>
       </c>
       <c r="F19" s="11">
-        <f t="shared" si="0"/>
+        <f>(D19-E19)/D19</f>
         <v>0.93103448275862066</v>
       </c>
     </row>
@@ -18274,7 +18274,7 @@
         <v>4</v>
       </c>
       <c r="F20" s="11">
-        <f t="shared" si="0"/>
+        <f>(D20-E20)/D20</f>
         <v>0.94871794871794868</v>
       </c>
     </row>
@@ -18295,7 +18295,7 @@
         <v>8</v>
       </c>
       <c r="F21" s="11">
-        <f t="shared" si="0"/>
+        <f>(D21-E21)/D21</f>
         <v>0.84615384615384615</v>
       </c>
     </row>
@@ -18316,7 +18316,7 @@
         <v>3</v>
       </c>
       <c r="F22" s="11">
-        <f t="shared" si="0"/>
+        <f>(D22-E22)/D22</f>
         <v>0.94339622641509435</v>
       </c>
     </row>
@@ -18337,7 +18337,7 @@
         <v>6</v>
       </c>
       <c r="F23" s="11">
-        <f t="shared" si="0"/>
+        <f>(D23-E23)/D23</f>
         <v>0.84210526315789469</v>
       </c>
     </row>
@@ -18358,7 +18358,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="11">
-        <f t="shared" si="0"/>
+        <f>(D24-E24)/D24</f>
         <v>0.875</v>
       </c>
     </row>
@@ -18379,7 +18379,7 @@
         <v>6</v>
       </c>
       <c r="F25" s="11">
-        <f t="shared" si="0"/>
+        <f>(D25-E25)/D25</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -18400,7 +18400,7 @@
         <v>6</v>
       </c>
       <c r="F26" s="11">
-        <f t="shared" si="0"/>
+        <f>(D26-E26)/D26</f>
         <v>0.76</v>
       </c>
     </row>
@@ -18421,7 +18421,7 @@
         <v>5</v>
       </c>
       <c r="F27" s="11">
-        <f t="shared" si="0"/>
+        <f>(D27-E27)/D27</f>
         <v>0.70588235294117652</v>
       </c>
     </row>
@@ -18442,7 +18442,7 @@
         <v>5</v>
       </c>
       <c r="F28" s="11">
-        <f t="shared" si="0"/>
+        <f>(D28-E28)/D28</f>
         <v>0.58333333333333337</v>
       </c>
     </row>
@@ -18455,15 +18455,15 @@
         <v>248</v>
       </c>
       <c r="C29" s="7">
-        <f t="shared" ref="C29:E29" si="1">SUM(C2:C28)</f>
+        <f>SUM(C2:C28)</f>
         <v>73</v>
       </c>
       <c r="D29" s="7">
-        <f t="shared" si="1"/>
+        <f>SUM(D2:D28)</f>
         <v>855</v>
       </c>
       <c r="E29" s="7">
-        <f t="shared" si="1"/>
+        <f>SUM(E2:E28)</f>
         <v>152</v>
       </c>
       <c r="F29" s="8">
@@ -18480,15 +18480,15 @@
         <v>9.1851851851851851</v>
       </c>
       <c r="C30" s="7">
-        <f t="shared" ref="C30:E30" si="2">AVERAGE(C2:C28)</f>
+        <f>AVERAGE(C2:C28)</f>
         <v>2.7037037037037037</v>
       </c>
       <c r="D30" s="7">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(D2:D28)</f>
         <v>31.666666666666668</v>
       </c>
       <c r="E30" s="7">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(E2:E28)</f>
         <v>5.6296296296296298</v>
       </c>
       <c r="F30" s="8">
@@ -18792,7 +18792,7 @@
   </sheetPr>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/WTA Tour/Serena Williams.xlsx
+++ b/Tennis/WTA Tour/Serena Williams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="151" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03B5A4E0-72E4-48FE-BC9A-92426191E84C}"/>
+  <xr:revisionPtr revIDLastSave="161" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DBC4998-767B-4774-8907-00531FAD15E1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="19" activeTab="27" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="23" activeTab="27" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1995" sheetId="29" r:id="rId1"/>
@@ -17838,10 +17838,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T30"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H13" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17854,7 +17854,7 @@
     <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>727</v>
       </c>
@@ -17874,7 +17874,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1995</v>
       </c>
@@ -17891,11 +17891,11 @@
         <v>1</v>
       </c>
       <c r="F2" s="11" t="e">
-        <f>(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F30" si="0">(D2-E2)/D2</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1996</v>
       </c>
@@ -17912,11 +17912,11 @@
         <v>0</v>
       </c>
       <c r="F3" s="11" t="e">
-        <f>(D3-E3)/D3</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1997</v>
       </c>
@@ -17933,11 +17933,11 @@
         <v>5</v>
       </c>
       <c r="F4" s="11">
-        <f>(D4-E4)/D4</f>
+        <f t="shared" si="0"/>
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1998</v>
       </c>
@@ -17954,11 +17954,11 @@
         <v>11</v>
       </c>
       <c r="F5" s="11">
-        <f>(D5-E5)/D5</f>
+        <f t="shared" si="0"/>
         <v>0.62068965517241381</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1999</v>
       </c>
@@ -17975,11 +17975,11 @@
         <v>7</v>
       </c>
       <c r="F6" s="11">
-        <f>(D6-E6)/D6</f>
+        <f t="shared" si="0"/>
         <v>0.82926829268292679</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2000</v>
       </c>
@@ -17996,11 +17996,11 @@
         <v>8</v>
       </c>
       <c r="F7" s="11">
-        <f>(D7-E7)/D7</f>
+        <f t="shared" si="0"/>
         <v>0.78378378378378377</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2001</v>
       </c>
@@ -18017,11 +18017,11 @@
         <v>7</v>
       </c>
       <c r="F8" s="11">
-        <f>(D8-E8)/D8</f>
+        <f t="shared" si="0"/>
         <v>0.81578947368421051</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2002</v>
       </c>
@@ -18038,11 +18038,11 @@
         <v>5</v>
       </c>
       <c r="F9" s="11">
-        <f>(D9-E9)/D9</f>
+        <f t="shared" si="0"/>
         <v>0.9107142857142857</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2003</v>
       </c>
@@ -18059,11 +18059,11 @@
         <v>3</v>
       </c>
       <c r="F10" s="11">
-        <f>(D10-E10)/D10</f>
+        <f t="shared" si="0"/>
         <v>0.92105263157894735</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2004</v>
       </c>
@@ -18080,11 +18080,11 @@
         <v>9</v>
       </c>
       <c r="F11" s="11">
-        <f>(D11-E11)/D11</f>
+        <f t="shared" si="0"/>
         <v>0.76923076923076927</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2005</v>
       </c>
@@ -18101,12 +18101,12 @@
         <v>7</v>
       </c>
       <c r="F12" s="11">
-        <f>(D12-E12)/D12</f>
+        <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="T12" s="12"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S12" s="12"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2006</v>
       </c>
@@ -18123,12 +18123,12 @@
         <v>4</v>
       </c>
       <c r="F13" s="11">
-        <f>(D13-E13)/D13</f>
+        <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="T13" s="12"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S13" s="12"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2007</v>
       </c>
@@ -18145,12 +18145,12 @@
         <v>10</v>
       </c>
       <c r="F14" s="11">
-        <f>(D14-E14)/D14</f>
+        <f t="shared" si="0"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="T14" s="12"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S14" s="12"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2008</v>
       </c>
@@ -18167,12 +18167,12 @@
         <v>8</v>
       </c>
       <c r="F15" s="11">
-        <f>(D15-E15)/D15</f>
+        <f t="shared" si="0"/>
         <v>0.81818181818181823</v>
       </c>
-      <c r="T15" s="12"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S15" s="12"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2009</v>
       </c>
@@ -18189,10 +18189,10 @@
         <v>12</v>
       </c>
       <c r="F16" s="11">
-        <f>(D16-E16)/D16</f>
+        <f t="shared" si="0"/>
         <v>0.76</v>
       </c>
-      <c r="T16" s="12"/>
+      <c r="S16" s="12"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -18211,7 +18211,7 @@
         <v>4</v>
       </c>
       <c r="F17" s="11">
-        <f>(D17-E17)/D17</f>
+        <f t="shared" si="0"/>
         <v>0.84</v>
       </c>
     </row>
@@ -18232,7 +18232,7 @@
         <v>3</v>
       </c>
       <c r="F18" s="11">
-        <f>(D18-E18)/D18</f>
+        <f t="shared" si="0"/>
         <v>0.86363636363636365</v>
       </c>
     </row>
@@ -18253,7 +18253,7 @@
         <v>4</v>
       </c>
       <c r="F19" s="11">
-        <f>(D19-E19)/D19</f>
+        <f t="shared" si="0"/>
         <v>0.93103448275862066</v>
       </c>
     </row>
@@ -18274,7 +18274,7 @@
         <v>4</v>
       </c>
       <c r="F20" s="11">
-        <f>(D20-E20)/D20</f>
+        <f t="shared" si="0"/>
         <v>0.94871794871794868</v>
       </c>
     </row>
@@ -18295,7 +18295,7 @@
         <v>8</v>
       </c>
       <c r="F21" s="11">
-        <f>(D21-E21)/D21</f>
+        <f t="shared" si="0"/>
         <v>0.84615384615384615</v>
       </c>
     </row>
@@ -18316,7 +18316,7 @@
         <v>3</v>
       </c>
       <c r="F22" s="11">
-        <f>(D22-E22)/D22</f>
+        <f t="shared" si="0"/>
         <v>0.94339622641509435</v>
       </c>
     </row>
@@ -18337,7 +18337,7 @@
         <v>6</v>
       </c>
       <c r="F23" s="11">
-        <f>(D23-E23)/D23</f>
+        <f t="shared" si="0"/>
         <v>0.84210526315789469</v>
       </c>
     </row>
@@ -18358,7 +18358,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="11">
-        <f>(D24-E24)/D24</f>
+        <f t="shared" si="0"/>
         <v>0.875</v>
       </c>
     </row>
@@ -18379,7 +18379,7 @@
         <v>6</v>
       </c>
       <c r="F25" s="11">
-        <f>(D25-E25)/D25</f>
+        <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -18400,7 +18400,7 @@
         <v>6</v>
       </c>
       <c r="F26" s="11">
-        <f>(D26-E26)/D26</f>
+        <f t="shared" si="0"/>
         <v>0.76</v>
       </c>
     </row>
@@ -18421,7 +18421,7 @@
         <v>5</v>
       </c>
       <c r="F27" s="11">
-        <f>(D27-E27)/D27</f>
+        <f t="shared" si="0"/>
         <v>0.70588235294117652</v>
       </c>
     </row>
@@ -18442,7 +18442,7 @@
         <v>5</v>
       </c>
       <c r="F28" s="11">
-        <f>(D28-E28)/D28</f>
+        <f t="shared" si="0"/>
         <v>0.58333333333333337</v>
       </c>
     </row>
@@ -18467,7 +18467,7 @@
         <v>152</v>
       </c>
       <c r="F29" s="8">
-        <f>(D29-E29)/D29</f>
+        <f t="shared" si="0"/>
         <v>0.82222222222222219</v>
       </c>
     </row>
@@ -18492,13 +18492,13 @@
         <v>5.6296296296296298</v>
       </c>
       <c r="F30" s="8">
-        <f>(D30-E30)/D30</f>
+        <f t="shared" si="0"/>
         <v>0.82222222222222219</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F28">
-    <cfRule type="iconSet" priority="1">
+    <cfRule type="iconSet" priority="2">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>

--- a/Tennis/WTA Tour/Serena Williams.xlsx
+++ b/Tennis/WTA Tour/Serena Williams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="161" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DBC4998-767B-4774-8907-00531FAD15E1}"/>
+  <xr:revisionPtr revIDLastSave="165" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{027D162F-93BE-452E-A50D-D62A28E45EA7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="23" activeTab="27" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="18" activeTab="26" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1995" sheetId="29" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4778" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4778" uniqueCount="805">
   <si>
     <t>Semifinal</t>
   </si>
@@ -1759,9 +1759,6 @@
     <t>3-6 6-3 7-5</t>
   </si>
   <si>
-    <t>Daria Gavrilova (AUSTRALIA)</t>
-  </si>
-  <si>
     <t>4-6 6-3 6-0</t>
   </si>
   <si>
@@ -2086,9 +2083,6 @@
     <t>7-6(7) 6-4</t>
   </si>
   <si>
-    <t>Daria Gavrilova (AUSTRALIA)</t>
-  </si>
-  <si>
     <t>Alizé Cornet (FRANCE)</t>
   </si>
   <si>
@@ -2480,6 +2474,9 @@
   </si>
   <si>
     <t>IGA TENNIS CLASSIC</t>
+  </si>
+  <si>
+    <t>Dasha Saville (AUSTRALIA)</t>
   </si>
 </sst>
 </file>
@@ -5547,7 +5544,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B2" t="s">
         <v>33</v>
@@ -5556,7 +5553,7 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>27</v>
@@ -5752,7 +5749,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B13" t="s">
         <v>77</v>
@@ -5781,7 +5778,7 @@
         <v>303</v>
       </c>
       <c r="F14" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -6147,7 +6144,7 @@
         <v>303</v>
       </c>
       <c r="F43" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -6290,7 +6287,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B56" t="s">
         <v>26</v>
@@ -6310,7 +6307,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B58" t="s">
         <v>26</v>
@@ -6547,7 +6544,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>32</v>
@@ -6567,12 +6564,12 @@
         <v>303</v>
       </c>
       <c r="F11" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -6629,7 +6626,7 @@
         <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>32</v>
@@ -6643,7 +6640,7 @@
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>32</v>
@@ -6677,7 +6674,7 @@
         <v>27</v>
       </c>
       <c r="F20" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -6798,7 +6795,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B32" t="s">
         <v>26</v>
@@ -6827,7 +6824,7 @@
         <v>303</v>
       </c>
       <c r="F33" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -7009,7 +7006,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -7256,7 +7253,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -7498,7 +7495,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B21" t="s">
         <v>77</v>
@@ -7518,7 +7515,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -7811,7 +7808,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B47" t="s">
         <v>26</v>
@@ -7941,7 +7938,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B58" t="s">
         <v>26</v>
@@ -8017,7 +8014,7 @@
         <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -8155,7 +8152,7 @@
         <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>32</v>
@@ -8236,7 +8233,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B20" t="s">
         <v>77</v>
@@ -8403,7 +8400,7 @@
         <v>303</v>
       </c>
       <c r="F32" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -8456,7 +8453,7 @@
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B38" t="s">
         <v>90</v>
@@ -8608,7 +8605,7 @@
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B50" t="s">
         <v>26</v>
@@ -8721,7 +8718,7 @@
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>32</v>
@@ -8774,7 +8771,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B63" t="s">
         <v>26</v>
@@ -8794,7 +8791,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B65" t="s">
         <v>26</v>
@@ -8876,7 +8873,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -9099,12 +9096,12 @@
         <v>303</v>
       </c>
       <c r="F18" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -9415,7 +9412,7 @@
         <v>57</v>
       </c>
       <c r="D45" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>32</v>
@@ -9544,7 +9541,7 @@
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B56" t="s">
         <v>26</v>
@@ -9578,7 +9575,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B59" t="s">
         <v>26</v>
@@ -9778,7 +9775,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B75" t="s">
         <v>26</v>
@@ -9902,7 +9899,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -10201,7 +10198,7 @@
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>32</v>
@@ -10249,7 +10246,7 @@
         <v>56</v>
       </c>
       <c r="D29" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>32</v>
@@ -10391,7 +10388,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B2" t="s">
         <v>90</v>
@@ -10563,7 +10560,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -10653,7 +10650,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -10682,7 +10679,7 @@
         <v>303</v>
       </c>
       <c r="F24" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -10696,7 +10693,7 @@
         <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>32</v>
@@ -10752,7 +10749,7 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>32</v>
@@ -10861,7 +10858,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
@@ -10881,7 +10878,7 @@
         <v>303</v>
       </c>
       <c r="F4" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -10937,7 +10934,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>27</v>
@@ -10948,7 +10945,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -11038,7 +11035,7 @@
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B19" t="s">
         <v>77</v>
@@ -11115,7 +11112,7 @@
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B25" t="s">
         <v>77</v>
@@ -11166,7 +11163,7 @@
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>32</v>
@@ -11305,7 +11302,7 @@
         <v>303</v>
       </c>
       <c r="F39" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11367,7 +11364,7 @@
         <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>32</v>
@@ -11496,7 +11493,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B56" t="s">
         <v>90</v>
@@ -11586,7 +11583,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B63" t="s">
         <v>26</v>
@@ -11671,7 +11668,7 @@
         <v>6</v>
       </c>
       <c r="D69" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>32</v>
@@ -11685,7 +11682,7 @@
         <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>32</v>
@@ -11738,7 +11735,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B75" t="s">
         <v>26</v>
@@ -11826,8 +11823,8 @@
   </sheetPr>
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11919,7 +11916,7 @@
         <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -11927,7 +11924,7 @@
         <v>121</v>
       </c>
       <c r="D6" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>32</v>
@@ -11947,7 +11944,7 @@
         <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>32</v>
@@ -12023,7 +12020,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>565</v>
+        <v>804</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>32</v>
@@ -12133,7 +12130,7 @@
         <v>32</v>
       </c>
       <c r="F22" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -12175,12 +12172,12 @@
         <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B27" t="s">
         <v>77</v>
@@ -12189,7 +12186,7 @@
         <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>32</v>
@@ -12203,7 +12200,7 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>32</v>
@@ -12251,18 +12248,18 @@
         <v>32</v>
       </c>
       <c r="F31" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B33" t="s">
         <v>26</v>
       </c>
       <c r="D33" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>32</v>
@@ -12293,7 +12290,7 @@
         <v>57</v>
       </c>
       <c r="D36" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>32</v>
@@ -12335,7 +12332,7 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>32</v>
@@ -12349,7 +12346,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>32</v>
@@ -12383,7 +12380,7 @@
         <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>32</v>
@@ -12411,7 +12408,7 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>32</v>
@@ -12425,7 +12422,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>32</v>
@@ -12459,7 +12456,7 @@
         <v>56</v>
       </c>
       <c r="D49" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>32</v>
@@ -12473,7 +12470,7 @@
         <v>57</v>
       </c>
       <c r="D50" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>32</v>
@@ -12529,7 +12526,7 @@
         <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>32</v>
@@ -12563,7 +12560,7 @@
         <v>56</v>
       </c>
       <c r="D57" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>32</v>
@@ -12577,7 +12574,7 @@
         <v>57</v>
       </c>
       <c r="D58" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>32</v>
@@ -12591,7 +12588,7 @@
         <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>32</v>
@@ -12616,7 +12613,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B62" t="s">
         <v>77</v>
@@ -12625,7 +12622,7 @@
         <v>6</v>
       </c>
       <c r="D62" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>32</v>
@@ -12639,7 +12636,7 @@
         <v>4</v>
       </c>
       <c r="D63" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>32</v>
@@ -12681,7 +12678,7 @@
         <v>121</v>
       </c>
       <c r="D66" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>32</v>
@@ -12692,7 +12689,7 @@
     </row>
     <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B68" t="s">
         <v>26</v>
@@ -12715,7 +12712,7 @@
         <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>32</v>
@@ -12729,7 +12726,7 @@
         <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>32</v>
@@ -12749,7 +12746,7 @@
         <v>32</v>
       </c>
       <c r="F71" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -12768,7 +12765,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B74" t="s">
         <v>26</v>
@@ -12777,7 +12774,7 @@
         <v>6</v>
       </c>
       <c r="D74" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>32</v>
@@ -12791,7 +12788,7 @@
         <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>32</v>
@@ -12805,7 +12802,7 @@
         <v>2</v>
       </c>
       <c r="D76" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>32</v>
@@ -12825,7 +12822,7 @@
         <v>32</v>
       </c>
       <c r="F77" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -12839,7 +12836,7 @@
         <v>27</v>
       </c>
       <c r="F78" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -12881,7 +12878,7 @@
         <v>6</v>
       </c>
       <c r="D82" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>32</v>
@@ -12895,7 +12892,7 @@
         <v>4</v>
       </c>
       <c r="D83" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>32</v>
@@ -12909,7 +12906,7 @@
         <v>2</v>
       </c>
       <c r="D84" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>32</v>
@@ -12943,7 +12940,7 @@
         <v>32</v>
       </c>
       <c r="F86" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -12991,7 +12988,7 @@
         <v>32</v>
       </c>
       <c r="F90" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -13038,7 +13035,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B95" t="s">
         <v>26</v>
@@ -13095,7 +13092,7 @@
         <v>32</v>
       </c>
       <c r="F98" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="99" spans="3:6" x14ac:dyDescent="0.25">
@@ -13162,22 +13159,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B2" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C2" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D2" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E2" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
   </sheetData>
@@ -13193,8 +13190,8 @@
   </sheetPr>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13300,7 +13297,7 @@
         <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>32</v>
@@ -13314,7 +13311,7 @@
         <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>32</v>
@@ -13353,7 +13350,7 @@
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -13368,7 +13365,7 @@
         <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -13416,7 +13413,7 @@
         <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -13424,7 +13421,7 @@
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>32</v>
@@ -13491,7 +13488,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B23" t="s">
         <v>77</v>
@@ -13500,7 +13497,7 @@
         <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>27</v>
@@ -13520,7 +13517,7 @@
         <v>57</v>
       </c>
       <c r="D25" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>32</v>
@@ -13548,7 +13545,7 @@
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>32</v>
@@ -13568,7 +13565,7 @@
         <v>303</v>
       </c>
       <c r="F28" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13630,7 +13627,7 @@
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -13638,7 +13635,7 @@
         <v>121</v>
       </c>
       <c r="D34" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>32</v>
@@ -13658,7 +13655,7 @@
         <v>56</v>
       </c>
       <c r="D36" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>32</v>
@@ -13692,7 +13689,7 @@
         <v>56</v>
       </c>
       <c r="D39" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>32</v>
@@ -13740,7 +13737,7 @@
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>32</v>
@@ -13760,7 +13757,7 @@
         <v>32</v>
       </c>
       <c r="F44" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -13788,12 +13785,12 @@
         <v>32</v>
       </c>
       <c r="F46" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B48" t="s">
         <v>26</v>
@@ -13836,7 +13833,7 @@
         <v>32</v>
       </c>
       <c r="F50" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -13850,12 +13847,12 @@
         <v>27</v>
       </c>
       <c r="F51" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B53" t="s">
         <v>26</v>
@@ -13870,7 +13867,7 @@
         <v>32</v>
       </c>
       <c r="F53" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -13912,7 +13909,7 @@
         <v>32</v>
       </c>
       <c r="F56" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -13940,7 +13937,7 @@
         <v>56</v>
       </c>
       <c r="D59" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>32</v>
@@ -13954,7 +13951,7 @@
         <v>57</v>
       </c>
       <c r="D60" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>32</v>
@@ -13968,7 +13965,7 @@
         <v>6</v>
       </c>
       <c r="D61" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>32</v>
@@ -13982,7 +13979,7 @@
         <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>32</v>
@@ -14010,7 +14007,7 @@
         <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>32</v>
@@ -14035,7 +14032,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B67" t="s">
         <v>26</v>
@@ -14050,7 +14047,7 @@
         <v>27</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -14064,7 +14061,7 @@
         <v>57</v>
       </c>
       <c r="D69" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>32</v>
@@ -14112,12 +14109,12 @@
         <v>303</v>
       </c>
       <c r="F72" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B74" t="s">
         <v>26</v>
@@ -14154,7 +14151,7 @@
         <v>238</v>
       </c>
       <c r="D76" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>32</v>
@@ -14174,7 +14171,7 @@
         <v>32</v>
       </c>
       <c r="F77" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -14204,8 +14201,8 @@
   </sheetPr>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14249,7 +14246,7 @@
         <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -14319,7 +14316,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>32</v>
@@ -14333,7 +14330,7 @@
         <v>121</v>
       </c>
       <c r="D8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>32</v>
@@ -14344,13 +14341,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B10" t="s">
         <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>32</v>
@@ -14361,7 +14358,7 @@
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -14370,13 +14367,13 @@
         <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -14384,7 +14381,7 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>32</v>
@@ -14404,7 +14401,7 @@
         <v>32</v>
       </c>
       <c r="F14" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -14426,13 +14423,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>303</v>
       </c>
       <c r="F16" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -14446,7 +14443,7 @@
         <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>32</v>
@@ -14460,7 +14457,7 @@
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>32</v>
@@ -14474,7 +14471,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>32</v>
@@ -14494,7 +14491,7 @@
         <v>32</v>
       </c>
       <c r="F21" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -14502,7 +14499,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>32</v>
@@ -14516,7 +14513,7 @@
         <v>121</v>
       </c>
       <c r="D23" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>32</v>
@@ -14527,7 +14524,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B25" t="s">
         <v>77</v>
@@ -14539,12 +14536,12 @@
         <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>32</v>
@@ -14564,7 +14561,7 @@
         <v>57</v>
       </c>
       <c r="D28" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>32</v>
@@ -14598,7 +14595,7 @@
         <v>32</v>
       </c>
       <c r="F30" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -14606,7 +14603,7 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>32</v>
@@ -14640,7 +14637,7 @@
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>32</v>
@@ -14654,18 +14651,18 @@
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>303</v>
       </c>
       <c r="F35" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B37" t="s">
         <v>77</v>
@@ -14674,7 +14671,7 @@
         <v>56</v>
       </c>
       <c r="D37" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>32</v>
@@ -14688,13 +14685,13 @@
         <v>57</v>
       </c>
       <c r="D38" t="s">
+        <v>635</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" t="s">
         <v>636</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F38" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -14750,7 +14747,7 @@
         <v>32</v>
       </c>
       <c r="F42" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -14764,7 +14761,7 @@
         <v>32</v>
       </c>
       <c r="F43" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -14778,7 +14775,7 @@
         <v>56</v>
       </c>
       <c r="D45" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>32</v>
@@ -14792,7 +14789,7 @@
         <v>57</v>
       </c>
       <c r="D46" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>32</v>
@@ -14806,7 +14803,7 @@
         <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>32</v>
@@ -14848,7 +14845,7 @@
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>32</v>
@@ -14873,7 +14870,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B53" t="s">
         <v>77</v>
@@ -14882,7 +14879,7 @@
         <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>32</v>
@@ -14899,12 +14896,12 @@
         <v>303</v>
       </c>
       <c r="F54" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B56" t="s">
         <v>26</v>
@@ -14927,7 +14924,7 @@
         <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>32</v>
@@ -14955,7 +14952,7 @@
         <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>27</v>
@@ -14966,7 +14963,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B61" t="s">
         <v>26</v>
@@ -14989,7 +14986,7 @@
         <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>32</v>
@@ -15051,13 +15048,13 @@
         <v>56</v>
       </c>
       <c r="D67" t="s">
+        <v>644</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F67" t="s">
         <v>645</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F67" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -15065,13 +15062,13 @@
         <v>57</v>
       </c>
       <c r="D68" t="s">
+        <v>646</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F68" t="s">
         <v>647</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F68" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -15085,7 +15082,7 @@
         <v>32</v>
       </c>
       <c r="F69" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -15093,7 +15090,7 @@
         <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>32</v>
@@ -15113,7 +15110,7 @@
         <v>32</v>
       </c>
       <c r="F71" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -15143,8 +15140,8 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15188,7 +15185,7 @@
         <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -15202,7 +15199,7 @@
         <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
@@ -15216,7 +15213,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>32</v>
@@ -15230,7 +15227,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>32</v>
@@ -15278,12 +15275,12 @@
         <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -15292,7 +15289,7 @@
         <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>32</v>
@@ -15306,13 +15303,13 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
+        <v>654</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
         <v>655</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -15320,7 +15317,7 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>32</v>
@@ -15334,7 +15331,7 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>32</v>
@@ -15354,7 +15351,7 @@
         <v>32</v>
       </c>
       <c r="F14" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -15382,13 +15379,13 @@
         <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -15396,7 +15393,7 @@
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>32</v>
@@ -15410,13 +15407,13 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F19" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -15430,7 +15427,7 @@
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>32</v>
@@ -15444,13 +15441,13 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F22" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -15458,7 +15455,7 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>32</v>
@@ -15472,7 +15469,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>32</v>
@@ -15486,13 +15483,13 @@
         <v>121</v>
       </c>
       <c r="D25" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -15506,7 +15503,7 @@
         <v>56</v>
       </c>
       <c r="D27" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>32</v>
@@ -15520,7 +15517,7 @@
         <v>57</v>
       </c>
       <c r="D28" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>32</v>
@@ -15534,13 +15531,13 @@
         <v>6</v>
       </c>
       <c r="D29" t="s">
+        <v>667</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" t="s">
         <v>668</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F29" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -15548,7 +15545,7 @@
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>32</v>
@@ -15562,13 +15559,13 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F31" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -15576,13 +15573,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="s">
+        <v>671</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" t="s">
         <v>672</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F32" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -15610,7 +15607,7 @@
         <v>56</v>
       </c>
       <c r="D35" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>32</v>
@@ -15624,13 +15621,13 @@
         <v>57</v>
       </c>
       <c r="D36" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F36" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -15638,7 +15635,7 @@
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>32</v>
@@ -15652,7 +15649,7 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>32</v>
@@ -15666,7 +15663,7 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>32</v>
@@ -15705,7 +15702,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B43" t="s">
         <v>26</v>
@@ -15714,7 +15711,7 @@
         <v>57</v>
       </c>
       <c r="D43" t="s">
-        <v>674</v>
+        <v>804</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>32</v>
@@ -15728,7 +15725,7 @@
         <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>32</v>
@@ -15742,7 +15739,7 @@
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>27</v>
@@ -15762,7 +15759,7 @@
         <v>56</v>
       </c>
       <c r="D47" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>32</v>
@@ -15776,7 +15773,7 @@
         <v>57</v>
       </c>
       <c r="D48" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>32</v>
@@ -15790,7 +15787,7 @@
         <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>32</v>
@@ -15818,7 +15815,7 @@
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>32</v>
@@ -15832,7 +15829,7 @@
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>27</v>
@@ -15890,7 +15887,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>26</v>
@@ -15899,7 +15896,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -15915,13 +15912,13 @@
         <v>4</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -15943,7 +15940,7 @@
         <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>32</v>
@@ -15999,7 +15996,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>32</v>
@@ -16049,8 +16046,8 @@
   </sheetPr>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16085,7 +16082,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>26</v>
@@ -16094,7 +16091,7 @@
         <v>56</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -16110,13 +16107,13 @@
         <v>57</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -16149,7 +16146,7 @@
         <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>27</v>
@@ -16169,13 +16166,13 @@
         <v>56</v>
       </c>
       <c r="D8" t="s">
+        <v>683</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
         <v>685</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -16183,7 +16180,7 @@
         <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>32</v>
@@ -16217,7 +16214,7 @@
         <v>303</v>
       </c>
       <c r="F11" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -16228,7 +16225,7 @@
         <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>32</v>
@@ -16242,7 +16239,7 @@
         <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>32</v>
@@ -16256,13 +16253,13 @@
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -16270,7 +16267,7 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>32</v>
@@ -16284,7 +16281,7 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>32</v>
@@ -16323,7 +16320,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -16332,7 +16329,7 @@
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>27</v>
@@ -16343,7 +16340,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -16352,7 +16349,7 @@
         <v>57</v>
       </c>
       <c r="D23" t="s">
-        <v>674</v>
+        <v>804</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>32</v>
@@ -16386,7 +16383,7 @@
         <v>56</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>32</v>
@@ -16400,7 +16397,7 @@
         <v>57</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>32</v>
@@ -16428,7 +16425,7 @@
         <v>4</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>32</v>
@@ -16442,7 +16439,7 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>32</v>
@@ -16456,7 +16453,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>32</v>
@@ -16470,7 +16467,7 @@
         <v>121</v>
       </c>
       <c r="D32" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>27</v>
@@ -16492,8 +16489,8 @@
   </sheetPr>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16537,7 +16534,7 @@
         <v>56</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -16553,7 +16550,7 @@
         <v>57</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
@@ -16569,7 +16566,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>32</v>
@@ -16601,13 +16598,13 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -16618,7 +16615,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>26</v>
@@ -16643,13 +16640,13 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -16666,7 +16663,7 @@
         <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>32</v>
@@ -16680,13 +16677,13 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>303</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -16703,7 +16700,7 @@
         <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>32</v>
@@ -16723,12 +16720,12 @@
         <v>303</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B17" t="s">
         <v>77</v>
@@ -16737,13 +16734,13 @@
         <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -16751,7 +16748,7 @@
         <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>32</v>
@@ -16765,7 +16762,7 @@
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>27</v>
@@ -16782,7 +16779,7 @@
         <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>32</v>
@@ -16796,13 +16793,13 @@
         <v>57</v>
       </c>
       <c r="D22" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F22" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -16838,13 +16835,13 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -16877,7 +16874,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -16886,7 +16883,7 @@
         <v>6</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>32</v>
@@ -16900,7 +16897,7 @@
         <v>4</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>32</v>
@@ -16914,7 +16911,7 @@
         <v>2</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>32</v>
@@ -16928,7 +16925,7 @@
         <v>0</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>32</v>
@@ -16942,13 +16939,13 @@
         <v>121</v>
       </c>
       <c r="D33" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F33" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -16976,13 +16973,13 @@
         <v>57</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -16990,7 +16987,7 @@
         <v>6</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>32</v>
@@ -17004,7 +17001,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>32</v>
@@ -17018,7 +17015,7 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>32</v>
@@ -17032,7 +17029,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>32</v>
@@ -17046,7 +17043,7 @@
         <v>121</v>
       </c>
       <c r="D41" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>27</v>
@@ -17069,7 +17066,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17104,7 +17101,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>26</v>
@@ -17113,7 +17110,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -17129,7 +17126,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
@@ -17145,7 +17142,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>32</v>
@@ -17161,7 +17158,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>32</v>
@@ -17177,7 +17174,7 @@
         <v>121</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>32</v>
@@ -17205,7 +17202,7 @@
         <v>56</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>32</v>
@@ -17221,7 +17218,7 @@
         <v>57</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>32</v>
@@ -17237,13 +17234,13 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -17254,32 +17251,32 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D12" t="s">
+        <v>719</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>721</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="D13" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -17287,16 +17284,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D15" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>32</v>
@@ -17307,7 +17304,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D16" t="s">
         <v>60</v>
@@ -17324,18 +17321,18 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -17344,13 +17341,13 @@
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -17358,13 +17355,13 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F20" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -17378,7 +17375,7 @@
         <v>56</v>
       </c>
       <c r="D22" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>32</v>
@@ -17392,7 +17389,7 @@
         <v>57</v>
       </c>
       <c r="D23" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>32</v>
@@ -17406,13 +17403,13 @@
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -17420,13 +17417,13 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -17459,7 +17456,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B29" t="s">
         <v>77</v>
@@ -17468,13 +17465,13 @@
         <v>56</v>
       </c>
       <c r="D29" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F29" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -17488,7 +17485,7 @@
         <v>303</v>
       </c>
       <c r="F30" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
   </sheetData>
@@ -17504,8 +17501,8 @@
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17540,16 +17537,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D2" t="s">
-        <v>674</v>
+        <v>804</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -17560,7 +17557,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D3" t="s">
         <v>521</v>
@@ -17577,13 +17574,13 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -17591,13 +17588,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>303</v>
       </c>
       <c r="F5" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -17611,7 +17608,7 @@
         <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>32</v>
@@ -17625,7 +17622,7 @@
         <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>32</v>
@@ -17639,7 +17636,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>32</v>
@@ -17653,13 +17650,13 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -17681,7 +17678,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>27</v>
@@ -17701,7 +17698,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>27</v>
@@ -17712,7 +17709,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B16" t="s">
         <v>77</v>
@@ -17721,7 +17718,7 @@
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>32</v>
@@ -17735,7 +17732,7 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>27</v>
@@ -17755,13 +17752,13 @@
         <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -17769,13 +17766,13 @@
         <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F20" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -17783,7 +17780,7 @@
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>32</v>
@@ -17797,7 +17794,7 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>27</v>
@@ -17817,13 +17814,13 @@
         <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F24" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
   </sheetData>
@@ -17840,8 +17837,8 @@
   </sheetPr>
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H13" sqref="H1:H1048576"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17856,22 +17853,22 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>728</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -18473,7 +18470,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B30" s="7">
         <f>AVERAGE(B2:B28)</f>
@@ -18554,7 +18551,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -18622,7 +18619,7 @@
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
@@ -18718,7 +18715,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B16" t="s">
         <v>33</v>
@@ -18828,7 +18825,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -18966,7 +18963,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -19214,7 +19211,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B33" t="s">
         <v>90</v>
@@ -19285,7 +19282,7 @@
         <v>57</v>
       </c>
       <c r="D38" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>32</v>
@@ -19406,7 +19403,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B49" t="s">
         <v>26</v>
@@ -19502,7 +19499,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -19660,7 +19657,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -19984,7 +19981,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B41" t="s">
         <v>77</v>
@@ -20181,7 +20178,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B57" t="s">
         <v>26</v>
@@ -20229,7 +20226,7 @@
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B61" t="s">
         <v>26</v>
@@ -20482,7 +20479,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -20587,12 +20584,12 @@
         <v>27</v>
       </c>
       <c r="F24" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B26" t="s">
         <v>77</v>
@@ -20702,7 +20699,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B35" t="s">
         <v>26</v>
@@ -20778,7 +20775,7 @@
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B41" t="s">
         <v>26</v>
@@ -21039,7 +21036,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -21163,7 +21160,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -21234,7 +21231,7 @@
         <v>230</v>
       </c>
       <c r="F16" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -21515,7 +21512,7 @@
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B40" t="s">
         <v>26</v>
@@ -21752,7 +21749,7 @@
         <v>230</v>
       </c>
       <c r="F57" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
   </sheetData>
@@ -21804,7 +21801,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -22004,7 +22001,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B18" t="s">
         <v>77</v>
@@ -22095,7 +22092,7 @@
         <v>230</v>
       </c>
       <c r="F24" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -22626,7 +22623,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B67" t="s">
         <v>33</v>
@@ -22641,7 +22638,7 @@
         <v>32</v>
       </c>
       <c r="F67" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -22688,7 +22685,7 @@
     </row>
     <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B72" t="s">
         <v>26</v>
@@ -23057,7 +23054,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B22" t="s">
         <v>77</v>
@@ -23133,7 +23130,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>

--- a/Tennis/WTA Tour/Serena Williams.xlsx
+++ b/Tennis/WTA Tour/Serena Williams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="165" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{027D162F-93BE-452E-A50D-D62A28E45EA7}"/>
+  <xr:revisionPtr revIDLastSave="191" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10A1787C-97E5-45BE-AD72-DCC938E2803E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="18" activeTab="26" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="19" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1995" sheetId="29" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4778" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4778" uniqueCount="806">
   <si>
     <t>Semifinal</t>
   </si>
@@ -2317,9 +2317,6 @@
     <t>Aryna Sabalenka (BELARUS)</t>
   </si>
   <si>
-    <t>VOLVO CAR OPEN</t>
-  </si>
-  <si>
     <t>WTA FINALS</t>
   </si>
   <si>
@@ -2477,6 +2474,12 @@
   </si>
   <si>
     <t>Dasha Saville (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>CHARLESTON OPEN</t>
+  </si>
+  <si>
+    <t>Katya Makarova (RUSSIA)</t>
   </si>
 </sst>
 </file>
@@ -5544,7 +5547,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B2" t="s">
         <v>33</v>
@@ -5553,7 +5556,7 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>27</v>
@@ -5749,7 +5752,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>751</v>
+        <v>804</v>
       </c>
       <c r="B13" t="s">
         <v>77</v>
@@ -5778,7 +5781,7 @@
         <v>303</v>
       </c>
       <c r="F14" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -6144,7 +6147,7 @@
         <v>303</v>
       </c>
       <c r="F43" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -6287,7 +6290,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B56" t="s">
         <v>26</v>
@@ -6307,7 +6310,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B58" t="s">
         <v>26</v>
@@ -6564,12 +6567,12 @@
         <v>303</v>
       </c>
       <c r="F11" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -6795,7 +6798,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B32" t="s">
         <v>26</v>
@@ -6824,7 +6827,7 @@
         <v>303</v>
       </c>
       <c r="F33" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -7006,7 +7009,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -7253,7 +7256,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -7495,7 +7498,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>751</v>
+        <v>804</v>
       </c>
       <c r="B21" t="s">
         <v>77</v>
@@ -7515,7 +7518,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -7808,7 +7811,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B47" t="s">
         <v>26</v>
@@ -7938,7 +7941,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B58" t="s">
         <v>26</v>
@@ -8014,7 +8017,7 @@
         <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -8233,7 +8236,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>751</v>
+        <v>804</v>
       </c>
       <c r="B20" t="s">
         <v>77</v>
@@ -8400,7 +8403,7 @@
         <v>303</v>
       </c>
       <c r="F32" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -8453,7 +8456,7 @@
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B38" t="s">
         <v>90</v>
@@ -8605,7 +8608,7 @@
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B50" t="s">
         <v>26</v>
@@ -8718,7 +8721,7 @@
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>32</v>
@@ -8771,7 +8774,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B63" t="s">
         <v>26</v>
@@ -8791,7 +8794,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B65" t="s">
         <v>26</v>
@@ -8873,7 +8876,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -9096,12 +9099,12 @@
         <v>303</v>
       </c>
       <c r="F18" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -9412,7 +9415,7 @@
         <v>57</v>
       </c>
       <c r="D45" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>32</v>
@@ -9541,7 +9544,7 @@
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B56" t="s">
         <v>26</v>
@@ -9575,7 +9578,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B59" t="s">
         <v>26</v>
@@ -9775,7 +9778,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B75" t="s">
         <v>26</v>
@@ -9899,7 +9902,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -10198,7 +10201,7 @@
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>32</v>
@@ -10246,7 +10249,7 @@
         <v>56</v>
       </c>
       <c r="D29" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>32</v>
@@ -10388,7 +10391,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B2" t="s">
         <v>90</v>
@@ -10560,7 +10563,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -10650,7 +10653,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -10679,7 +10682,7 @@
         <v>303</v>
       </c>
       <c r="F24" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -10693,7 +10696,7 @@
         <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>32</v>
@@ -10749,7 +10752,7 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>32</v>
@@ -10799,8 +10802,8 @@
   </sheetPr>
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10858,7 +10861,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
@@ -10878,7 +10881,7 @@
         <v>303</v>
       </c>
       <c r="F4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -10934,7 +10937,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>27</v>
@@ -10945,7 +10948,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -11035,7 +11038,7 @@
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>751</v>
+        <v>804</v>
       </c>
       <c r="B19" t="s">
         <v>77</v>
@@ -11112,7 +11115,7 @@
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B25" t="s">
         <v>77</v>
@@ -11163,7 +11166,7 @@
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>32</v>
@@ -11302,7 +11305,7 @@
         <v>303</v>
       </c>
       <c r="F39" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11364,7 +11367,7 @@
         <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>32</v>
@@ -11493,7 +11496,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B56" t="s">
         <v>90</v>
@@ -11583,7 +11586,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B63" t="s">
         <v>26</v>
@@ -11668,7 +11671,7 @@
         <v>6</v>
       </c>
       <c r="D69" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>32</v>
@@ -11682,7 +11685,7 @@
         <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>32</v>
@@ -11735,7 +11738,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B75" t="s">
         <v>26</v>
@@ -11916,7 +11919,7 @@
         <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -11924,7 +11927,7 @@
         <v>121</v>
       </c>
       <c r="D6" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>32</v>
@@ -11944,7 +11947,7 @@
         <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>32</v>
@@ -12020,7 +12023,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>32</v>
@@ -12177,7 +12180,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>751</v>
+        <v>804</v>
       </c>
       <c r="B27" t="s">
         <v>77</v>
@@ -12253,7 +12256,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B33" t="s">
         <v>26</v>
@@ -12689,7 +12692,7 @@
     </row>
     <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B68" t="s">
         <v>26</v>
@@ -12765,7 +12768,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B74" t="s">
         <v>26</v>
@@ -12774,7 +12777,7 @@
         <v>6</v>
       </c>
       <c r="D74" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>32</v>
@@ -13035,7 +13038,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B95" t="s">
         <v>26</v>
@@ -13159,22 +13162,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
   </sheetData>
@@ -13190,8 +13193,8 @@
   </sheetPr>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13350,7 +13353,7 @@
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -13359,7 +13362,7 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>488</v>
+        <v>805</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>32</v>
@@ -13488,7 +13491,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>751</v>
+        <v>804</v>
       </c>
       <c r="B23" t="s">
         <v>77</v>
@@ -13565,7 +13568,7 @@
         <v>303</v>
       </c>
       <c r="F28" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13790,7 +13793,7 @@
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B48" t="s">
         <v>26</v>
@@ -13852,7 +13855,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B53" t="s">
         <v>26</v>
@@ -14007,7 +14010,7 @@
         <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>32</v>
@@ -14032,7 +14035,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B67" t="s">
         <v>26</v>
@@ -14047,7 +14050,7 @@
         <v>27</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -14109,12 +14112,12 @@
         <v>303</v>
       </c>
       <c r="F72" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B74" t="s">
         <v>26</v>
@@ -14151,7 +14154,7 @@
         <v>238</v>
       </c>
       <c r="D76" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>32</v>
@@ -14341,7 +14344,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B10" t="s">
         <v>77</v>
@@ -14358,7 +14361,7 @@
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -14429,7 +14432,7 @@
         <v>303</v>
       </c>
       <c r="F16" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -14524,7 +14527,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B25" t="s">
         <v>77</v>
@@ -14637,7 +14640,7 @@
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>32</v>
@@ -14657,7 +14660,7 @@
         <v>303</v>
       </c>
       <c r="F35" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -14671,7 +14674,7 @@
         <v>56</v>
       </c>
       <c r="D37" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>32</v>
@@ -14896,12 +14899,12 @@
         <v>303</v>
       </c>
       <c r="F54" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B56" t="s">
         <v>26</v>
@@ -14963,7 +14966,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B61" t="s">
         <v>26</v>
@@ -15280,7 +15283,7 @@
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -15663,7 +15666,7 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>32</v>
@@ -15702,7 +15705,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B43" t="s">
         <v>26</v>
@@ -15711,7 +15714,7 @@
         <v>57</v>
       </c>
       <c r="D43" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>32</v>
@@ -15759,7 +15762,7 @@
         <v>56</v>
       </c>
       <c r="D47" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>32</v>
@@ -16082,7 +16085,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>26</v>
@@ -16214,7 +16217,7 @@
         <v>303</v>
       </c>
       <c r="F11" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -16340,7 +16343,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -16349,7 +16352,7 @@
         <v>57</v>
       </c>
       <c r="D23" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>32</v>
@@ -16615,7 +16618,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>26</v>
@@ -16683,7 +16686,7 @@
         <v>303</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -16720,7 +16723,7 @@
         <v>303</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -16874,7 +16877,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -17234,7 +17237,7 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>27</v>
@@ -17251,7 +17254,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>26</v>
@@ -17332,7 +17335,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -17361,7 +17364,7 @@
         <v>27</v>
       </c>
       <c r="F20" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -17423,7 +17426,7 @@
         <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -17485,7 +17488,7 @@
         <v>303</v>
       </c>
       <c r="F30" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
   </sheetData>
@@ -17501,7 +17504,7 @@
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -17546,7 +17549,7 @@
         <v>736</v>
       </c>
       <c r="D2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -17594,7 +17597,7 @@
         <v>303</v>
       </c>
       <c r="F5" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -17698,7 +17701,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>27</v>
@@ -17709,7 +17712,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B16" t="s">
         <v>77</v>
@@ -17718,7 +17721,7 @@
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>32</v>
@@ -17732,7 +17735,7 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>27</v>
@@ -17758,7 +17761,7 @@
         <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -17766,13 +17769,13 @@
         <v>57</v>
       </c>
       <c r="D20" t="s">
+        <v>773</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" t="s">
         <v>774</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -17794,7 +17797,7 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>27</v>
@@ -17814,13 +17817,13 @@
         <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F24" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
   </sheetData>
@@ -17835,10 +17838,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S30"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17849,17 +17852,18 @@
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>725</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>788</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>789</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>726</v>
@@ -17871,7 +17875,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1995</v>
       </c>
@@ -17892,7 +17896,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1996</v>
       </c>
@@ -17913,7 +17917,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1997</v>
       </c>
@@ -17934,7 +17938,7 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1998</v>
       </c>
@@ -17955,7 +17959,7 @@
         <v>0.62068965517241381</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1999</v>
       </c>
@@ -17976,7 +17980,7 @@
         <v>0.82926829268292679</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2000</v>
       </c>
@@ -17997,7 +18001,7 @@
         <v>0.78378378378378377</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2001</v>
       </c>
@@ -18018,7 +18022,7 @@
         <v>0.81578947368421051</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2002</v>
       </c>
@@ -18039,7 +18043,7 @@
         <v>0.9107142857142857</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2003</v>
       </c>
@@ -18060,7 +18064,7 @@
         <v>0.92105263157894735</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2004</v>
       </c>
@@ -18081,7 +18085,7 @@
         <v>0.76923076923076927</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2005</v>
       </c>
@@ -18101,9 +18105,9 @@
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="S12" s="12"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P12" s="12"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2006</v>
       </c>
@@ -18123,9 +18127,9 @@
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="S13" s="12"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P13" s="12"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2007</v>
       </c>
@@ -18145,9 +18149,9 @@
         <f t="shared" si="0"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="S14" s="12"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P14" s="12"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2008</v>
       </c>
@@ -18167,9 +18171,9 @@
         <f t="shared" si="0"/>
         <v>0.81818181818181823</v>
       </c>
-      <c r="S15" s="12"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P15" s="12"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2009</v>
       </c>
@@ -18189,7 +18193,7 @@
         <f t="shared" si="0"/>
         <v>0.76</v>
       </c>
-      <c r="S16" s="12"/>
+      <c r="P16" s="12"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -18470,7 +18474,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B30" s="7">
         <f>AVERAGE(B2:B28)</f>
@@ -18495,7 +18499,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F28">
-    <cfRule type="iconSet" priority="2">
+    <cfRule type="iconSet" priority="4">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -18551,7 +18555,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -18619,7 +18623,7 @@
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
@@ -18715,7 +18719,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B16" t="s">
         <v>33</v>
@@ -18825,7 +18829,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -18963,7 +18967,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -19211,7 +19215,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B33" t="s">
         <v>90</v>
@@ -19403,7 +19407,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B49" t="s">
         <v>26</v>
@@ -19499,7 +19503,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -19657,7 +19661,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -19981,7 +19985,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B41" t="s">
         <v>77</v>
@@ -20226,7 +20230,7 @@
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B61" t="s">
         <v>26</v>
@@ -20479,7 +20483,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -20589,7 +20593,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B26" t="s">
         <v>77</v>
@@ -20699,7 +20703,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B35" t="s">
         <v>26</v>
@@ -20775,7 +20779,7 @@
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B41" t="s">
         <v>26</v>
@@ -21036,7 +21040,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -21160,7 +21164,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -21231,7 +21235,7 @@
         <v>230</v>
       </c>
       <c r="F16" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -21512,7 +21516,7 @@
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B40" t="s">
         <v>26</v>
@@ -21749,7 +21753,7 @@
         <v>230</v>
       </c>
       <c r="F57" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
   </sheetData>
@@ -21801,7 +21805,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -22001,7 +22005,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>751</v>
+        <v>804</v>
       </c>
       <c r="B18" t="s">
         <v>77</v>
@@ -22092,7 +22096,7 @@
         <v>230</v>
       </c>
       <c r="F24" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -22623,7 +22627,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B67" t="s">
         <v>33</v>
@@ -23054,7 +23058,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>751</v>
+        <v>804</v>
       </c>
       <c r="B22" t="s">
         <v>77</v>
@@ -23130,7 +23134,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>

--- a/Tennis/WTA Tour/Serena Williams.xlsx
+++ b/Tennis/WTA Tour/Serena Williams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="191" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10A1787C-97E5-45BE-AD72-DCC938E2803E}"/>
+  <xr:revisionPtr revIDLastSave="197" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C15BD5EB-7096-46CB-AD0A-81DB34008959}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="19" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="17" activeTab="27" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1995" sheetId="29" r:id="rId1"/>
@@ -13193,7 +13193,7 @@
   </sheetPr>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -17840,8 +17840,8 @@
   </sheetPr>
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17895,6 +17895,7 @@
         <f t="shared" ref="F2:F30" si="0">(D2-E2)/D2</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
@@ -17916,6 +17917,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="H3" s="12"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -18499,7 +18501,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F28">
-    <cfRule type="iconSet" priority="4">
+    <cfRule type="iconSet" priority="5">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H3">
+    <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>

--- a/Tennis/WTA Tour/Serena Williams.xlsx
+++ b/Tennis/WTA Tour/Serena Williams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="197" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C15BD5EB-7096-46CB-AD0A-81DB34008959}"/>
+  <xr:revisionPtr revIDLastSave="234" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67F66673-DCD4-4AC0-8835-FB092B45CD36}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="17" activeTab="27" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="23" activeTab="28" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1995" sheetId="29" r:id="rId1"/>
@@ -39,10 +39,11 @@
     <sheet name="2018" sheetId="25" r:id="rId24"/>
     <sheet name="2019" sheetId="26" r:id="rId25"/>
     <sheet name="2020" sheetId="27" r:id="rId26"/>
-    <sheet name="2021" sheetId="28" r:id="rId27"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId28"/>
-    <sheet name="YTD Wins-Losses" sheetId="31" r:id="rId29"/>
-    <sheet name="Winning Percentile Range" sheetId="32" r:id="rId30"/>
+    <sheet name="2021" sheetId="33" r:id="rId27"/>
+    <sheet name="2022" sheetId="28" r:id="rId28"/>
+    <sheet name="YTD Stats" sheetId="1" r:id="rId29"/>
+    <sheet name="YTD Wins-Losses" sheetId="31" r:id="rId30"/>
+    <sheet name="Winning Percentile Range" sheetId="32" r:id="rId31"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4778" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4788" uniqueCount="807">
   <si>
     <t>Semifinal</t>
   </si>
@@ -2480,6 +2481,9 @@
   </si>
   <si>
     <t>Katya Makarova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>Harmony Tan (FRANCE)</t>
   </si>
 </sst>
 </file>
@@ -5578,13 +5582,13 @@
   </sheetPr>
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
@@ -5704,7 +5708,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>176</v>
+        <v>801</v>
       </c>
       <c r="B9" t="s">
         <v>77</v>
@@ -6925,7 +6929,7 @@
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -7220,7 +7224,7 @@
   </sheetPr>
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
@@ -7972,7 +7976,7 @@
   </sheetPr>
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
@@ -8840,7 +8844,7 @@
   </sheetPr>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
@@ -9866,7 +9870,7 @@
   </sheetPr>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -13193,7 +13197,7 @@
   </sheetPr>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -16049,7 +16053,7 @@
   </sheetPr>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -16492,7 +16496,7 @@
   </sheetPr>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -17498,14 +17502,14 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D022307E-B05E-47D2-A199-D5E975F1840F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022A3DD4-096E-49F4-B7C2-9A10DE4E1A4A}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17827,21 +17831,82 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D022307E-B05E-47D2-A199-D5E975F1840F}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>806</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17892,9 +17957,10 @@
         <v>1</v>
       </c>
       <c r="F2" s="11" t="e">
-        <f t="shared" ref="F2:F30" si="0">(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F31" si="0">(D2-E2)/D2</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="G2" s="12"/>
       <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -17917,6 +17983,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="G3" s="12"/>
       <c r="H3" s="12"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -17939,6 +18006,7 @@
         <f t="shared" si="0"/>
         <v>0.44444444444444442</v>
       </c>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -18450,57 +18518,66 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B29" s="7">
-        <f>SUM(B2:B28)</f>
-        <v>248</v>
-      </c>
-      <c r="C29" s="7">
-        <f>SUM(C2:C28)</f>
-        <v>73</v>
-      </c>
-      <c r="D29" s="7">
-        <f>SUM(D2:D28)</f>
-        <v>855</v>
-      </c>
-      <c r="E29" s="7">
-        <f>SUM(E2:E28)</f>
-        <v>152</v>
-      </c>
-      <c r="F29" s="8">
-        <f t="shared" si="0"/>
-        <v>0.82222222222222219</v>
-      </c>
+      <c r="A29">
+        <v>2022</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>786</v>
+        <v>265</v>
       </c>
       <c r="B30" s="7">
-        <f>AVERAGE(B2:B28)</f>
-        <v>9.1851851851851851</v>
+        <f>SUM(B2:B29)</f>
+        <v>249</v>
       </c>
       <c r="C30" s="7">
-        <f>AVERAGE(C2:C28)</f>
-        <v>2.7037037037037037</v>
+        <f t="shared" ref="C30:E30" si="1">SUM(C2:C29)</f>
+        <v>73</v>
       </c>
       <c r="D30" s="7">
-        <f>AVERAGE(D2:D28)</f>
-        <v>31.666666666666668</v>
+        <f t="shared" si="1"/>
+        <v>855</v>
       </c>
       <c r="E30" s="7">
-        <f>AVERAGE(E2:E28)</f>
-        <v>5.6296296296296298</v>
+        <f t="shared" si="1"/>
+        <v>152</v>
       </c>
       <c r="F30" s="8">
         <f t="shared" si="0"/>
         <v>0.82222222222222219</v>
       </c>
     </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B31" s="7">
+        <f>AVERAGE(B2:B29)</f>
+        <v>8.8928571428571423</v>
+      </c>
+      <c r="C31" s="7">
+        <f t="shared" ref="C31:E31" si="2">AVERAGE(C2:C29)</f>
+        <v>2.7037037037037037</v>
+      </c>
+      <c r="D31" s="7">
+        <f t="shared" si="2"/>
+        <v>31.666666666666668</v>
+      </c>
+      <c r="E31" s="7">
+        <f t="shared" si="2"/>
+        <v>5.6296296296296298</v>
+      </c>
+      <c r="F31" s="8">
+        <f t="shared" si="0"/>
+        <v>0.82222222222222219</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F28">
+  <conditionalFormatting sqref="F2:F29">
     <cfRule type="iconSet" priority="5">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -18530,8 +18607,8 @@
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18804,7 +18881,7 @@
   </sheetPr>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -19478,7 +19555,7 @@
   </sheetPr>
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -20272,8 +20349,8 @@
   </sheetPr>
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21015,8 +21092,8 @@
   </sheetPr>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A54" activeCellId="2" sqref="A12 A40 A54"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21780,8 +21857,8 @@
   </sheetPr>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22773,8 +22850,8 @@
   </sheetPr>
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Tennis/WTA Tour/Serena Williams.xlsx
+++ b/Tennis/WTA Tour/Serena Williams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="234" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67F66673-DCD4-4AC0-8835-FB092B45CD36}"/>
+  <xr:revisionPtr revIDLastSave="390" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCEAF176-7842-4A53-BCAE-F9EDB5F2AE08}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="23" activeTab="28" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="27" activeTab="27" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1995" sheetId="29" r:id="rId1"/>
@@ -42,8 +42,8 @@
     <sheet name="2021" sheetId="33" r:id="rId27"/>
     <sheet name="2022" sheetId="28" r:id="rId28"/>
     <sheet name="YTD Stats" sheetId="1" r:id="rId29"/>
-    <sheet name="YTD Wins-Losses" sheetId="31" r:id="rId30"/>
-    <sheet name="Winning Percentile Range" sheetId="32" r:id="rId31"/>
+    <sheet name="YTD Wins-Losses" sheetId="34" r:id="rId30"/>
+    <sheet name="Winning Percentile Range" sheetId="35" r:id="rId31"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4788" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4820" uniqueCount="817">
   <si>
     <t>Semifinal</t>
   </si>
@@ -2484,6 +2484,36 @@
   </si>
   <si>
     <t>Harmony Tan (FRANCE)</t>
+  </si>
+  <si>
+    <t>7-5 1-6 6-7(7-10)</t>
+  </si>
+  <si>
+    <t>CANADIAN OPEN</t>
+  </si>
+  <si>
+    <t>Nuria Parrizas-Diaz (SPAIN)</t>
+  </si>
+  <si>
+    <t>SWEDISH OPEN</t>
+  </si>
+  <si>
+    <t>Emma Raducanu (GREAT BRITAIN)</t>
+  </si>
+  <si>
+    <t>Danka Kovinic (MONTENEGRO)</t>
+  </si>
+  <si>
+    <t>Anett Kontaveit (ESTONIA)</t>
+  </si>
+  <si>
+    <t>7-6(4) 2-6 6-2</t>
+  </si>
+  <si>
+    <t>Ajla Tomljanović (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>7-5 6-7(4) 6-1</t>
   </si>
 </sst>
 </file>
@@ -2572,19 +2602,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
@@ -2641,8 +2668,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Serena Williams (USA): YTD Wins-Losses</a:t>
+              <a:t>Serena Williams</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> (USA): YTD Wins-Losses</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2701,19 +2733,17 @@
               <a:srgbClr val="00B050"/>
             </a:solidFill>
             <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$28</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1995</c:v>
                 </c:pt>
@@ -2795,15 +2825,18 @@
                 <c:pt idx="26">
                   <c:v>2021</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>2022</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$28</c:f>
+              <c:f>'YTD Stats'!$D$2:$D$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2885,12 +2918,15 @@
                 <c:pt idx="26">
                   <c:v>12</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8894-41A8-80D8-FA526D71311E}"/>
+              <c16:uniqueId val="{00000000-1D74-4F95-A0C1-CDAFF36A944F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2913,19 +2949,17 @@
               <a:srgbClr val="FF0000"/>
             </a:solidFill>
             <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$28</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1995</c:v>
                 </c:pt>
@@ -3007,15 +3041,18 @@
                 <c:pt idx="26">
                   <c:v>2021</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>2022</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$28</c:f>
+              <c:f>'YTD Stats'!$E$2:$E$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3097,12 +3134,15 @@
                 <c:pt idx="26">
                   <c:v>5</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8894-41A8-80D8-FA526D71311E}"/>
+              <c16:uniqueId val="{00000001-1D74-4F95-A0C1-CDAFF36A944F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3116,11 +3156,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="444451664"/>
-        <c:axId val="2058576256"/>
+        <c:axId val="1583806512"/>
+        <c:axId val="1583792784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="444451664"/>
+        <c:axId val="1583806512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3218,7 +3258,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2058576256"/>
+        <c:crossAx val="1583792784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3226,7 +3266,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2058576256"/>
+        <c:axId val="1583792784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3332,7 +3372,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444451664"/>
+        <c:crossAx val="1583806512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3441,8 +3481,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Serena Williams (USA): Winning</a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t>Serena Williams (USA): Winning Percentile Range</a:t>
+              <a:t> Percentile Range</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
@@ -3538,10 +3582,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$28</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1995</c:v>
                 </c:pt>
@@ -3623,15 +3667,18 @@
                 <c:pt idx="26">
                   <c:v>2021</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>2022</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$28</c:f>
+              <c:f>'YTD Stats'!$F$2:$F$29</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3713,13 +3760,16 @@
                 <c:pt idx="26">
                   <c:v>0.58333333333333337</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.33333333333333331</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1DDB-4FAB-ACD8-308EE386DA59}"/>
+              <c16:uniqueId val="{00000000-CBDB-46A5-AB80-E6A02F5F5F06}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3733,11 +3783,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="475401600"/>
-        <c:axId val="444259488"/>
+        <c:axId val="2060189120"/>
+        <c:axId val="2060177056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="475401600"/>
+        <c:axId val="2060189120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3835,7 +3885,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444259488"/>
+        <c:crossAx val="2060177056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3843,7 +3893,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="444259488"/>
+        <c:axId val="2060177056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3949,7 +3999,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475401600"/>
+        <c:crossAx val="2060189120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4608,7 +4658,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4716,11 +4766,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4731,11 +4776,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -4767,9 +4807,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5124,7 +5161,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{28C16F26-C91C-411B-9523-1E6284B00C96}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{207F744F-61CD-4575-A5D1-332BE404724A}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5136,14 +5173,13 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{DA95ADAE-7720-4774-B2A6-C4A35647DECC}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7394548D-F12D-4EC5-A523-6F2377EF6E3B}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </chartsheet>
 </file>
 
@@ -5157,7 +5193,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7C5DD02-12A0-4F60-8A7C-9F694821F5F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB59302D-F9D8-292E-7D59-1820824F1C6A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5184,13 +5220,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8667750" cy="6296025"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5792ABB6-AF66-4690-8A97-D88196E91DF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D16AF790-C235-C398-001B-86A588BA08FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7224,8 +7260,8 @@
   </sheetPr>
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51:F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7976,8 +8012,8 @@
   </sheetPr>
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8844,7 +8880,7 @@
   </sheetPr>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
@@ -9870,8 +9906,8 @@
   </sheetPr>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10359,7 +10395,7 @@
   </sheetPr>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -10806,8 +10842,8 @@
   </sheetPr>
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75:F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11268,7 +11304,7 @@
       <c r="F36" t="s">
         <v>185</v>
       </c>
-      <c r="G36" s="9"/>
+      <c r="G36" s="8"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
@@ -11830,13 +11866,13 @@
   </sheetPr>
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88:F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
@@ -12620,7 +12656,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>601</v>
+        <v>810</v>
       </c>
       <c r="B62" t="s">
         <v>77</v>
@@ -12696,7 +12732,7 @@
     </row>
     <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>783</v>
+        <v>808</v>
       </c>
       <c r="B68" t="s">
         <v>26</v>
@@ -13197,8 +13233,8 @@
   </sheetPr>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14208,8 +14244,8 @@
   </sheetPr>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15147,16 +15183,16 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -15604,7 +15640,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="A35" t="s">
         <v>96</v>
       </c>
       <c r="B35" t="s">
@@ -15893,22 +15929,22 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" t="s">
         <v>675</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" t="s">
         <v>676</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" t="s">
         <v>148</v>
       </c>
     </row>
@@ -15918,13 +15954,13 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" t="s">
         <v>678</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" t="s">
         <v>677</v>
       </c>
     </row>
@@ -16088,22 +16124,22 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" t="s">
         <v>800</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" t="s">
         <v>660</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" t="s">
         <v>222</v>
       </c>
     </row>
@@ -16113,29 +16149,29 @@
       <c r="C3" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" t="s">
         <v>671</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="6" t="s">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" t="s">
         <v>60</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" t="s">
         <v>148</v>
       </c>
     </row>
@@ -16158,7 +16194,7 @@
       <c r="E6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" t="s">
         <v>73</v>
       </c>
     </row>
@@ -16169,7 +16205,7 @@
       <c r="B8" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" t="s">
         <v>56</v>
       </c>
       <c r="D8" t="s">
@@ -16197,7 +16233,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="6" t="s">
+      <c r="C10" t="s">
         <v>6</v>
       </c>
       <c r="D10" t="s">
@@ -16211,7 +16247,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="6" t="s">
+      <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
@@ -16228,7 +16264,7 @@
       <c r="A13" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" t="s">
         <v>56</v>
       </c>
       <c r="D13" t="s">
@@ -16256,7 +16292,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="6" t="s">
+      <c r="C15" t="s">
         <v>6</v>
       </c>
       <c r="D15" t="s">
@@ -16270,7 +16306,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="6" t="s">
+      <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
@@ -16284,7 +16320,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="6" t="s">
+      <c r="C17" t="s">
         <v>2</v>
       </c>
       <c r="D17" t="s">
@@ -16298,7 +16334,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="6" t="s">
+      <c r="C18" t="s">
         <v>0</v>
       </c>
       <c r="D18" t="s">
@@ -16312,7 +16348,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="6" t="s">
+      <c r="C19" t="s">
         <v>121</v>
       </c>
       <c r="D19" t="s">
@@ -16366,7 +16402,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="6" t="s">
+      <c r="C24" t="s">
         <v>6</v>
       </c>
       <c r="D24" t="s">
@@ -16386,16 +16422,16 @@
       <c r="B26" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" t="s">
         <v>691</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" t="s">
         <v>19</v>
       </c>
     </row>
@@ -16403,46 +16439,46 @@
       <c r="C27" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" t="s">
         <v>692</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C28" s="6" t="s">
+      <c r="C28" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" t="s">
         <v>60</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="6" t="s">
+      <c r="C29" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" t="s">
         <v>615</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="6" t="s">
+      <c r="C30" t="s">
         <v>2</v>
       </c>
       <c r="D30" t="s">
@@ -16456,7 +16492,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C31" s="6" t="s">
+      <c r="C31" t="s">
         <v>0</v>
       </c>
       <c r="D31" t="s">
@@ -16470,7 +16506,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="6" t="s">
+      <c r="C32" t="s">
         <v>121</v>
       </c>
       <c r="D32" t="s">
@@ -16531,22 +16567,22 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" t="s">
         <v>697</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" t="s">
         <v>210</v>
       </c>
     </row>
@@ -16556,13 +16592,13 @@
       <c r="C3" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" t="s">
         <v>698</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" t="s">
         <v>84</v>
       </c>
     </row>
@@ -16572,36 +16608,36 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" t="s">
         <v>699</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="6" t="s">
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" t="s">
         <v>516</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="6" t="s">
+      <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="D6" t="s">
@@ -16610,21 +16646,19 @@
       <c r="E6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="6"/>
-      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" t="s">
         <v>800</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" t="s">
         <v>26</v>
       </c>
       <c r="C8" t="s">
@@ -16636,7 +16670,7 @@
       <c r="E8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" t="s">
         <v>222</v>
       </c>
     </row>
@@ -16652,7 +16686,7 @@
       <c r="E9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" t="s">
         <v>701</v>
       </c>
     </row>
@@ -16675,7 +16709,7 @@
       <c r="E11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" t="s">
         <v>114</v>
       </c>
     </row>
@@ -16689,12 +16723,9 @@
       <c r="E12" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -16712,7 +16743,7 @@
       <c r="E14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" t="s">
         <v>79</v>
       </c>
     </row>
@@ -16726,7 +16757,7 @@
       <c r="E15" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" t="s">
         <v>782</v>
       </c>
     </row>
@@ -16737,7 +16768,7 @@
       <c r="B17" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" t="s">
         <v>56</v>
       </c>
       <c r="D17" t="s">
@@ -16765,7 +16796,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="6" t="s">
+      <c r="C19" t="s">
         <v>6</v>
       </c>
       <c r="D19" t="s">
@@ -16782,7 +16813,7 @@
       <c r="A21" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" t="s">
         <v>56</v>
       </c>
       <c r="D21" t="s">
@@ -16810,7 +16841,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="6" t="s">
+      <c r="C23" t="s">
         <v>6</v>
       </c>
       <c r="D23" t="s">
@@ -16824,7 +16855,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="6" t="s">
+      <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
@@ -16838,7 +16869,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C25" s="6" t="s">
+      <c r="C25" t="s">
         <v>2</v>
       </c>
       <c r="D25" t="s">
@@ -16852,7 +16883,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C26" s="6" t="s">
+      <c r="C26" t="s">
         <v>0</v>
       </c>
       <c r="D26" t="s">
@@ -16866,7 +16897,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C27" s="6" t="s">
+      <c r="C27" t="s">
         <v>121</v>
       </c>
       <c r="D27" t="s">
@@ -16886,63 +16917,63 @@
       <c r="B29" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" t="s">
         <v>710</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="6" t="s">
+      <c r="C30" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" t="s">
         <v>711</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C31" s="6" t="s">
+      <c r="C31" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" t="s">
         <v>682</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="6" t="s">
+      <c r="C32" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" t="s">
         <v>712</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="6" t="s">
+      <c r="C33" t="s">
         <v>121</v>
       </c>
       <c r="D33" t="s">
@@ -16962,16 +16993,16 @@
       <c r="B35" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" t="s">
         <v>301</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F35" t="s">
         <v>65</v>
       </c>
     </row>
@@ -16979,46 +17010,46 @@
       <c r="C36" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" t="s">
         <v>713</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F36" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C37" s="6" t="s">
+      <c r="C37" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" t="s">
         <v>715</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="6" t="s">
+      <c r="C38" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" t="s">
         <v>716</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="F38" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="6" t="s">
+      <c r="C39" t="s">
         <v>2</v>
       </c>
       <c r="D39" t="s">
@@ -17032,7 +17063,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="6" t="s">
+      <c r="C40" t="s">
         <v>0</v>
       </c>
       <c r="D40" t="s">
@@ -17046,7 +17077,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C41" s="6" t="s">
+      <c r="C41" t="s">
         <v>121</v>
       </c>
       <c r="D41" t="s">
@@ -17107,86 +17138,86 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" t="s">
         <v>675</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" t="s">
         <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" t="s">
         <v>631</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="6" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" t="s">
         <v>634</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="6" t="s">
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" t="s">
         <v>653</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="6" t="s">
+      <c r="C5" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" t="s">
         <v>718</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="6" t="s">
+      <c r="C6" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" t="s">
         <v>717</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" t="s">
         <v>148</v>
       </c>
     </row>
@@ -17199,22 +17230,22 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" t="s">
         <v>722</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" t="s">
         <v>258</v>
       </c>
     </row>
@@ -17224,13 +17255,13 @@
       <c r="C9" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" t="s">
         <v>723</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -17246,21 +17277,19 @@
       <c r="E10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="6"/>
-      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" t="s">
         <v>758</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" t="s">
         <v>26</v>
       </c>
       <c r="D12" t="s">
@@ -17269,7 +17298,7 @@
       <c r="E12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" t="s">
         <v>721</v>
       </c>
     </row>
@@ -17282,7 +17311,7 @@
       <c r="E13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" t="s">
         <v>720</v>
       </c>
     </row>
@@ -17305,7 +17334,7 @@
       <c r="E15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" t="s">
         <v>290</v>
       </c>
     </row>
@@ -17319,7 +17348,7 @@
       <c r="E16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" t="s">
         <v>445</v>
       </c>
     </row>
@@ -17333,7 +17362,7 @@
       <c r="E17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" t="s">
         <v>738</v>
       </c>
     </row>
@@ -17508,7 +17537,7 @@
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -17543,10 +17572,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" t="s">
         <v>745</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" t="s">
         <v>26</v>
       </c>
       <c r="C2" t="s">
@@ -17841,20 +17870,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -17889,6 +17918,114 @@
       </c>
       <c r="D2" t="s">
         <v>806</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>808</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>809</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>679</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>789</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>811</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" t="s">
+        <v>812</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
+        <v>813</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>815</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>816</v>
       </c>
     </row>
   </sheetData>
@@ -17903,9 +18040,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -17920,7 +18057,7 @@
     <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>725</v>
       </c>
@@ -17940,53 +18077,51 @@
         <v>728</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1995</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="11" t="e">
+      <c r="F2" s="9" t="e">
         <f t="shared" ref="F2:F31" si="0">(D2-E2)/D2</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1996</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" s="11" t="e">
+      <c r="F3" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1997</v>
       </c>
@@ -18002,13 +18137,13 @@
       <c r="E4">
         <v>5</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="9">
         <f t="shared" si="0"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1998</v>
       </c>
@@ -18024,12 +18159,12 @@
       <c r="E5">
         <v>11</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="9">
         <f t="shared" si="0"/>
         <v>0.62068965517241381</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1999</v>
       </c>
@@ -18045,12 +18180,12 @@
       <c r="E6">
         <v>7</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="9">
         <f t="shared" si="0"/>
         <v>0.82926829268292679</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2000</v>
       </c>
@@ -18066,12 +18201,12 @@
       <c r="E7">
         <v>8</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="9">
         <f t="shared" si="0"/>
         <v>0.78378378378378377</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2001</v>
       </c>
@@ -18087,12 +18222,12 @@
       <c r="E8">
         <v>7</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="9">
         <f t="shared" si="0"/>
         <v>0.81578947368421051</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2002</v>
       </c>
@@ -18108,12 +18243,12 @@
       <c r="E9">
         <v>5</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="9">
         <f t="shared" si="0"/>
         <v>0.9107142857142857</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2003</v>
       </c>
@@ -18129,12 +18264,12 @@
       <c r="E10">
         <v>3</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="9">
         <f t="shared" si="0"/>
         <v>0.92105263157894735</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2004</v>
       </c>
@@ -18150,12 +18285,12 @@
       <c r="E11">
         <v>9</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="9">
         <f t="shared" si="0"/>
         <v>0.76923076923076927</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2005</v>
       </c>
@@ -18171,13 +18306,13 @@
       <c r="E12">
         <v>7</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="9">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="P12" s="12"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2006</v>
       </c>
@@ -18193,13 +18328,13 @@
       <c r="E13">
         <v>4</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="9">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="P13" s="12"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2007</v>
       </c>
@@ -18215,13 +18350,13 @@
       <c r="E14">
         <v>10</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="9">
         <f t="shared" si="0"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="P14" s="12"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2008</v>
       </c>
@@ -18237,13 +18372,13 @@
       <c r="E15">
         <v>8</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="9">
         <f t="shared" si="0"/>
         <v>0.81818181818181823</v>
       </c>
-      <c r="P15" s="12"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2009</v>
       </c>
@@ -18259,11 +18394,11 @@
       <c r="E16">
         <v>12</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="9">
         <f t="shared" si="0"/>
         <v>0.76</v>
       </c>
-      <c r="P16" s="12"/>
+      <c r="N16" s="9"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -18281,7 +18416,7 @@
       <c r="E17">
         <v>4</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="9">
         <f t="shared" si="0"/>
         <v>0.84</v>
       </c>
@@ -18302,7 +18437,7 @@
       <c r="E18">
         <v>3</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="9">
         <f t="shared" si="0"/>
         <v>0.86363636363636365</v>
       </c>
@@ -18323,7 +18458,7 @@
       <c r="E19">
         <v>4</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="9">
         <f t="shared" si="0"/>
         <v>0.93103448275862066</v>
       </c>
@@ -18344,7 +18479,7 @@
       <c r="E20">
         <v>4</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="9">
         <f t="shared" si="0"/>
         <v>0.94871794871794868</v>
       </c>
@@ -18365,7 +18500,7 @@
       <c r="E21">
         <v>8</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="9">
         <f t="shared" si="0"/>
         <v>0.84615384615384615</v>
       </c>
@@ -18386,7 +18521,7 @@
       <c r="E22">
         <v>3</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="9">
         <f t="shared" si="0"/>
         <v>0.94339622641509435</v>
       </c>
@@ -18407,7 +18542,7 @@
       <c r="E23">
         <v>6</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="9">
         <f t="shared" si="0"/>
         <v>0.84210526315789469</v>
       </c>
@@ -18428,7 +18563,7 @@
       <c r="E24">
         <v>1</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="9">
         <f t="shared" si="0"/>
         <v>0.875</v>
       </c>
@@ -18449,7 +18584,7 @@
       <c r="E25">
         <v>6</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="9">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
@@ -18470,7 +18605,7 @@
       <c r="E26">
         <v>6</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="9">
         <f t="shared" si="0"/>
         <v>0.76</v>
       </c>
@@ -18491,7 +18626,7 @@
       <c r="E27">
         <v>5</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="9">
         <f t="shared" si="0"/>
         <v>0.70588235294117652</v>
       </c>
@@ -18512,7 +18647,7 @@
       <c r="E28">
         <v>5</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="9">
         <f t="shared" si="0"/>
         <v>0.58333333333333337</v>
       </c>
@@ -18522,72 +18657,75 @@
         <v>2022</v>
       </c>
       <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="F29" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29" s="9">
+        <f t="shared" si="0"/>
+        <v>-0.33333333333333331</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="6">
         <f>SUM(B2:B29)</f>
-        <v>249</v>
-      </c>
-      <c r="C30" s="7">
+        <v>252</v>
+      </c>
+      <c r="C30" s="6">
         <f t="shared" ref="C30:E30" si="1">SUM(C2:C29)</f>
         <v>73</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="6">
         <f t="shared" si="1"/>
-        <v>855</v>
-      </c>
-      <c r="E30" s="7">
+        <v>858</v>
+      </c>
+      <c r="E30" s="6">
         <f t="shared" si="1"/>
-        <v>152</v>
-      </c>
-      <c r="F30" s="8">
+        <v>156</v>
+      </c>
+      <c r="F30" s="7">
         <f t="shared" si="0"/>
-        <v>0.82222222222222219</v>
+        <v>0.81818181818181823</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="6">
         <f>AVERAGE(B2:B29)</f>
-        <v>8.8928571428571423</v>
-      </c>
-      <c r="C31" s="7">
+        <v>9</v>
+      </c>
+      <c r="C31" s="6">
         <f t="shared" ref="C31:E31" si="2">AVERAGE(C2:C29)</f>
-        <v>2.7037037037037037</v>
-      </c>
-      <c r="D31" s="7">
+        <v>2.6071428571428572</v>
+      </c>
+      <c r="D31" s="6">
         <f t="shared" si="2"/>
-        <v>31.666666666666668</v>
-      </c>
-      <c r="E31" s="7">
+        <v>30.642857142857142</v>
+      </c>
+      <c r="E31" s="6">
         <f t="shared" si="2"/>
-        <v>5.6296296296296298</v>
-      </c>
-      <c r="F31" s="8">
+        <v>5.5714285714285712</v>
+      </c>
+      <c r="F31" s="7">
         <f t="shared" si="0"/>
-        <v>0.82222222222222219</v>
+        <v>0.81818181818181812</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F29">
     <cfRule type="iconSet" priority="5">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H3">
-    <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -18881,7 +19019,7 @@
   </sheetPr>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -19555,8 +19693,8 @@
   </sheetPr>
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57:F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20349,8 +20487,8 @@
   </sheetPr>
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21092,8 +21230,8 @@
   </sheetPr>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54:F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21295,7 +21433,7 @@
         <v>32</v>
       </c>
       <c r="F14" t="s">
-        <v>73</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -21790,7 +21928,7 @@
         <v>33</v>
       </c>
       <c r="C54" t="s">
-        <v>238</v>
+        <v>4</v>
       </c>
       <c r="D54" t="s">
         <v>239</v>
@@ -21857,8 +21995,8 @@
   </sheetPr>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62:F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22850,8 +22988,8 @@
   </sheetPr>
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22891,16 +23029,16 @@
       <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" t="s">
         <v>282</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" t="s">
         <v>284</v>
       </c>
     </row>
@@ -22908,13 +23046,13 @@
       <c r="C3" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" t="s">
         <v>268</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -22924,13 +23062,13 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" t="s">
         <v>65</v>
       </c>
     </row>
@@ -22946,7 +23084,7 @@
       <c r="E5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" t="s">
         <v>104</v>
       </c>
     </row>
@@ -22960,7 +23098,7 @@
       <c r="E6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" t="s">
         <v>84</v>
       </c>
     </row>
@@ -22997,7 +23135,7 @@
         <v>461</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>

--- a/Tennis/WTA Tour/Serena Williams.xlsx
+++ b/Tennis/WTA Tour/Serena Williams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="390" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCEAF176-7842-4A53-BCAE-F9EDB5F2AE08}"/>
+  <xr:revisionPtr revIDLastSave="396" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BF32AAF-5703-41D4-A67A-821641D17708}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="27" activeTab="27" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1995" sheetId="29" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <sheet name="2021" sheetId="33" r:id="rId27"/>
     <sheet name="2022" sheetId="28" r:id="rId28"/>
     <sheet name="YTD Stats" sheetId="1" r:id="rId29"/>
-    <sheet name="YTD Wins-Losses" sheetId="34" r:id="rId30"/>
+    <sheet name="Wins-Losses" sheetId="34" r:id="rId30"/>
     <sheet name="Winning Percentile Range" sheetId="35" r:id="rId31"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -2183,9 +2183,6 @@
     <t>Kaja Juvan (SLOVENIA)</t>
   </si>
   <si>
-    <t>Alison Riske (USA)</t>
-  </si>
-  <si>
     <t>6-4 4-6 6-3</t>
   </si>
   <si>
@@ -2514,6 +2511,9 @@
   </si>
   <si>
     <t>7-5 6-7(4) 6-1</t>
+  </si>
+  <si>
+    <t>Alison Riske-Amritraj (USA)</t>
   </si>
 </sst>
 </file>
@@ -2672,7 +2672,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> (USA): YTD Wins-Losses</a:t>
+              <a:t> (USA): Wins-Losses</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
@@ -3576,7 +3576,6 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="1"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -5249,6 +5248,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5587,7 +5590,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B2" t="s">
         <v>33</v>
@@ -5596,7 +5599,7 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>27</v>
@@ -5744,7 +5747,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B9" t="s">
         <v>77</v>
@@ -5792,7 +5795,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B13" t="s">
         <v>77</v>
@@ -5821,7 +5824,7 @@
         <v>303</v>
       </c>
       <c r="F14" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -6187,7 +6190,7 @@
         <v>303</v>
       </c>
       <c r="F43" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -6330,7 +6333,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B56" t="s">
         <v>26</v>
@@ -6350,7 +6353,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B58" t="s">
         <v>26</v>
@@ -6587,7 +6590,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>32</v>
@@ -6607,12 +6610,12 @@
         <v>303</v>
       </c>
       <c r="F11" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -6838,7 +6841,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B32" t="s">
         <v>26</v>
@@ -6867,7 +6870,7 @@
         <v>303</v>
       </c>
       <c r="F33" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -7049,7 +7052,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -7296,7 +7299,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -7538,7 +7541,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B21" t="s">
         <v>77</v>
@@ -7558,7 +7561,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -7851,7 +7854,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B47" t="s">
         <v>26</v>
@@ -7981,7 +7984,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B58" t="s">
         <v>26</v>
@@ -8057,7 +8060,7 @@
         <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -8195,7 +8198,7 @@
         <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>32</v>
@@ -8276,7 +8279,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B20" t="s">
         <v>77</v>
@@ -8443,7 +8446,7 @@
         <v>303</v>
       </c>
       <c r="F32" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -8496,7 +8499,7 @@
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B38" t="s">
         <v>90</v>
@@ -8648,7 +8651,7 @@
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B50" t="s">
         <v>26</v>
@@ -8761,7 +8764,7 @@
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>32</v>
@@ -8814,7 +8817,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B63" t="s">
         <v>26</v>
@@ -8834,7 +8837,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B65" t="s">
         <v>26</v>
@@ -8916,7 +8919,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -9139,12 +9142,12 @@
         <v>303</v>
       </c>
       <c r="F18" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -9455,7 +9458,7 @@
         <v>57</v>
       </c>
       <c r="D45" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>32</v>
@@ -9584,7 +9587,7 @@
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B56" t="s">
         <v>26</v>
@@ -9618,7 +9621,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B59" t="s">
         <v>26</v>
@@ -9818,7 +9821,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B75" t="s">
         <v>26</v>
@@ -9942,7 +9945,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -10241,7 +10244,7 @@
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>32</v>
@@ -10289,7 +10292,7 @@
         <v>56</v>
       </c>
       <c r="D29" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>32</v>
@@ -10431,7 +10434,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B2" t="s">
         <v>90</v>
@@ -10603,7 +10606,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -10693,7 +10696,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -10722,7 +10725,7 @@
         <v>303</v>
       </c>
       <c r="F24" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -10736,7 +10739,7 @@
         <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>32</v>
@@ -10792,7 +10795,7 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>32</v>
@@ -10842,7 +10845,7 @@
   </sheetPr>
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C75" sqref="C75:F79"/>
     </sheetView>
   </sheetViews>
@@ -10901,7 +10904,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
@@ -10921,7 +10924,7 @@
         <v>303</v>
       </c>
       <c r="F4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -10977,7 +10980,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>27</v>
@@ -10988,7 +10991,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -11078,7 +11081,7 @@
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B19" t="s">
         <v>77</v>
@@ -11155,7 +11158,7 @@
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B25" t="s">
         <v>77</v>
@@ -11206,7 +11209,7 @@
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>32</v>
@@ -11345,7 +11348,7 @@
         <v>303</v>
       </c>
       <c r="F39" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11407,7 +11410,7 @@
         <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>32</v>
@@ -11536,7 +11539,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B56" t="s">
         <v>90</v>
@@ -11626,7 +11629,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B63" t="s">
         <v>26</v>
@@ -11711,7 +11714,7 @@
         <v>6</v>
       </c>
       <c r="D69" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>32</v>
@@ -11725,7 +11728,7 @@
         <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>32</v>
@@ -11778,7 +11781,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B75" t="s">
         <v>26</v>
@@ -11959,7 +11962,7 @@
         <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -11967,7 +11970,7 @@
         <v>121</v>
       </c>
       <c r="D6" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>32</v>
@@ -11987,7 +11990,7 @@
         <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>32</v>
@@ -12063,7 +12066,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>32</v>
@@ -12220,7 +12223,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B27" t="s">
         <v>77</v>
@@ -12296,7 +12299,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B33" t="s">
         <v>26</v>
@@ -12656,7 +12659,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B62" t="s">
         <v>77</v>
@@ -12732,7 +12735,7 @@
     </row>
     <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B68" t="s">
         <v>26</v>
@@ -12808,7 +12811,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B74" t="s">
         <v>26</v>
@@ -12817,7 +12820,7 @@
         <v>6</v>
       </c>
       <c r="D74" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>32</v>
@@ -13078,7 +13081,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B95" t="s">
         <v>26</v>
@@ -13166,18 +13169,18 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -13202,22 +13205,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
   </sheetData>
@@ -13393,7 +13396,7 @@
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -13402,7 +13405,7 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>32</v>
@@ -13531,7 +13534,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B23" t="s">
         <v>77</v>
@@ -13608,7 +13611,7 @@
         <v>303</v>
       </c>
       <c r="F28" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13833,7 +13836,7 @@
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B48" t="s">
         <v>26</v>
@@ -13895,7 +13898,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B53" t="s">
         <v>26</v>
@@ -14050,7 +14053,7 @@
         <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>32</v>
@@ -14075,7 +14078,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B67" t="s">
         <v>26</v>
@@ -14090,7 +14093,7 @@
         <v>27</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -14152,12 +14155,12 @@
         <v>303</v>
       </c>
       <c r="F72" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B74" t="s">
         <v>26</v>
@@ -14194,7 +14197,7 @@
         <v>238</v>
       </c>
       <c r="D76" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>32</v>
@@ -14384,7 +14387,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B10" t="s">
         <v>77</v>
@@ -14401,7 +14404,7 @@
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -14472,7 +14475,7 @@
         <v>303</v>
       </c>
       <c r="F16" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -14567,7 +14570,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B25" t="s">
         <v>77</v>
@@ -14680,7 +14683,7 @@
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>32</v>
@@ -14700,12 +14703,12 @@
         <v>303</v>
       </c>
       <c r="F35" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B37" t="s">
         <v>77</v>
@@ -14714,7 +14717,7 @@
         <v>56</v>
       </c>
       <c r="D37" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>32</v>
@@ -14939,12 +14942,12 @@
         <v>303</v>
       </c>
       <c r="F54" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B56" t="s">
         <v>26</v>
@@ -15006,7 +15009,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B61" t="s">
         <v>26</v>
@@ -15323,7 +15326,7 @@
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -15706,7 +15709,7 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>32</v>
@@ -15745,7 +15748,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B43" t="s">
         <v>26</v>
@@ -15754,7 +15757,7 @@
         <v>57</v>
       </c>
       <c r="D43" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>32</v>
@@ -15802,7 +15805,7 @@
         <v>56</v>
       </c>
       <c r="D47" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>32</v>
@@ -16125,7 +16128,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -16257,7 +16260,7 @@
         <v>303</v>
       </c>
       <c r="F11" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -16383,7 +16386,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -16392,7 +16395,7 @@
         <v>57</v>
       </c>
       <c r="D23" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>32</v>
@@ -16647,7 +16650,7 @@
         <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -16656,7 +16659,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -16724,7 +16727,7 @@
         <v>303</v>
       </c>
       <c r="F12" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -16758,12 +16761,12 @@
         <v>303</v>
       </c>
       <c r="F15" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B17" t="s">
         <v>77</v>
@@ -16873,13 +16876,13 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
+        <v>816</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" t="s">
         <v>706</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -16912,7 +16915,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -16921,7 +16924,7 @@
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>32</v>
@@ -16935,7 +16938,7 @@
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>32</v>
@@ -16963,7 +16966,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>32</v>
@@ -16977,13 +16980,13 @@
         <v>121</v>
       </c>
       <c r="D33" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F33" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -17011,13 +17014,13 @@
         <v>57</v>
       </c>
       <c r="D36" t="s">
+        <v>712</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" t="s">
         <v>713</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F36" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -17025,7 +17028,7 @@
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>32</v>
@@ -17039,7 +17042,7 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>32</v>
@@ -17081,7 +17084,7 @@
         <v>121</v>
       </c>
       <c r="D41" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>27</v>
@@ -17196,7 +17199,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>32</v>
@@ -17212,7 +17215,7 @@
         <v>121</v>
       </c>
       <c r="D6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>32</v>
@@ -17240,7 +17243,7 @@
         <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>32</v>
@@ -17256,7 +17259,7 @@
         <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>32</v>
@@ -17272,13 +17275,13 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -17287,19 +17290,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -17312,7 +17315,7 @@
         <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -17320,16 +17323,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D15" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>32</v>
@@ -17340,7 +17343,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D16" t="s">
         <v>60</v>
@@ -17357,18 +17360,18 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F17" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -17383,7 +17386,7 @@
         <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -17391,13 +17394,13 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F20" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -17411,7 +17414,7 @@
         <v>56</v>
       </c>
       <c r="D22" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>32</v>
@@ -17425,7 +17428,7 @@
         <v>57</v>
       </c>
       <c r="D23" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>32</v>
@@ -17445,7 +17448,7 @@
         <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -17453,13 +17456,13 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -17492,7 +17495,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B29" t="s">
         <v>77</v>
@@ -17501,7 +17504,7 @@
         <v>56</v>
       </c>
       <c r="D29" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>32</v>
@@ -17521,7 +17524,7 @@
         <v>303</v>
       </c>
       <c r="F30" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
   </sheetData>
@@ -17573,16 +17576,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -17593,7 +17596,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D3" t="s">
         <v>521</v>
@@ -17610,13 +17613,13 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
+        <v>746</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
         <v>747</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -17630,7 +17633,7 @@
         <v>303</v>
       </c>
       <c r="F5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -17658,7 +17661,7 @@
         <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>32</v>
@@ -17672,7 +17675,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>32</v>
@@ -17686,7 +17689,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>32</v>
@@ -17734,7 +17737,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>27</v>
@@ -17745,7 +17748,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B16" t="s">
         <v>77</v>
@@ -17754,7 +17757,7 @@
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>32</v>
@@ -17768,7 +17771,7 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>27</v>
@@ -17794,7 +17797,7 @@
         <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -17802,13 +17805,13 @@
         <v>57</v>
       </c>
       <c r="D20" t="s">
+        <v>772</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" t="s">
         <v>773</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -17816,7 +17819,7 @@
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>32</v>
@@ -17830,7 +17833,7 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>27</v>
@@ -17850,13 +17853,13 @@
         <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F24" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
   </sheetData>
@@ -17872,8 +17875,8 @@
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17917,18 +17920,18 @@
         <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -17937,7 +17940,7 @@
         <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>32</v>
@@ -17962,7 +17965,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -17971,7 +17974,7 @@
         <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>27</v>
@@ -17991,7 +17994,7 @@
         <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>32</v>
@@ -18005,13 +18008,13 @@
         <v>57</v>
       </c>
       <c r="D10" t="s">
+        <v>812</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
         <v>813</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -18019,13 +18022,13 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
   </sheetData>
@@ -18042,7 +18045,7 @@
   </sheetPr>
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -18059,22 +18062,22 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>727</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -18700,7 +18703,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B31" s="6">
         <f>AVERAGE(B2:B29)</f>
@@ -18781,7 +18784,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -18849,7 +18852,7 @@
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
@@ -18945,7 +18948,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B16" t="s">
         <v>33</v>
@@ -19055,7 +19058,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -19193,7 +19196,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -19441,7 +19444,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B33" t="s">
         <v>90</v>
@@ -19512,7 +19515,7 @@
         <v>57</v>
       </c>
       <c r="D38" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>32</v>
@@ -19633,7 +19636,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B49" t="s">
         <v>26</v>
@@ -19729,7 +19732,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -19887,7 +19890,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -20211,7 +20214,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B41" t="s">
         <v>77</v>
@@ -20456,7 +20459,7 @@
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B61" t="s">
         <v>26</v>
@@ -20709,7 +20712,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -20819,7 +20822,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B26" t="s">
         <v>77</v>
@@ -20929,7 +20932,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B35" t="s">
         <v>26</v>
@@ -21005,7 +21008,7 @@
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B41" t="s">
         <v>26</v>
@@ -21266,7 +21269,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -21390,7 +21393,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -21461,7 +21464,7 @@
         <v>230</v>
       </c>
       <c r="F16" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -21742,7 +21745,7 @@
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B40" t="s">
         <v>26</v>
@@ -21979,7 +21982,7 @@
         <v>230</v>
       </c>
       <c r="F57" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
   </sheetData>
@@ -22031,7 +22034,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -22231,7 +22234,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B18" t="s">
         <v>77</v>
@@ -22322,7 +22325,7 @@
         <v>230</v>
       </c>
       <c r="F24" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -22853,7 +22856,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B67" t="s">
         <v>33</v>
@@ -23284,7 +23287,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B22" t="s">
         <v>77</v>
@@ -23360,7 +23363,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>

--- a/Tennis/WTA Tour/Serena Williams.xlsx
+++ b/Tennis/WTA Tour/Serena Williams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="396" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BF32AAF-5703-41D4-A67A-821641D17708}"/>
+  <xr:revisionPtr revIDLastSave="423" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85D61B75-0512-4220-87DF-D209D710BC70}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="22" activeTab="30" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1995" sheetId="29" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4820" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4820" uniqueCount="816">
   <si>
     <t>Semifinal</t>
   </si>
@@ -1646,9 +1646,6 @@
     <t>Gréta Arn (HUNGARY)</t>
   </si>
   <si>
-    <t>MUTUA MADRID OPEN</t>
-  </si>
-  <si>
     <t>Anastasiya Yakimova (BELARUS)</t>
   </si>
   <si>
@@ -2135,9 +2132,6 @@
     <t>Evgeniya Rodina (RUSSIA)</t>
   </si>
   <si>
-    <t>MUBADALA SILICON VALLEY CLASSIC</t>
-  </si>
-  <si>
     <t>Magda Linette (POLAND)</t>
   </si>
   <si>
@@ -2300,9 +2294,6 @@
     <t>YARRA VALLEY CLASSIC</t>
   </si>
   <si>
-    <t>Third Round</t>
-  </si>
-  <si>
     <t>Danielle Collins (USA)</t>
   </si>
   <si>
@@ -2514,6 +2505,12 @@
   </si>
   <si>
     <t>Alison Riske-Amritraj (USA)</t>
+  </si>
+  <si>
+    <t>MADRID OPEN</t>
+  </si>
+  <si>
+    <t>SILICON VALLEY CLASSIC</t>
   </si>
 </sst>
 </file>
@@ -5175,7 +5172,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7394548D-F12D-4EC5-A523-6F2377EF6E3B}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5186,7 +5183,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8564880" cy="5821680"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5219,7 +5216,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6296025"/>
+    <xdr:ext cx="8656320" cy="6278880"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5551,17 +5548,17 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -5586,7 +5583,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B2" t="s">
         <v>33</v>
@@ -5595,7 +5592,7 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>27</v>
@@ -5618,17 +5615,17 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:XFD1048576"/>
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -5653,7 +5650,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -5743,7 +5740,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B9" t="s">
         <v>77</v>
@@ -5791,7 +5788,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B13" t="s">
         <v>77</v>
@@ -5820,7 +5817,7 @@
         <v>303</v>
       </c>
       <c r="F14" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -6186,7 +6183,7 @@
         <v>303</v>
       </c>
       <c r="F43" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -6329,7 +6326,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B56" t="s">
         <v>26</v>
@@ -6349,7 +6346,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B58" t="s">
         <v>26</v>
@@ -6438,17 +6435,17 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -6586,7 +6583,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>32</v>
@@ -6606,12 +6603,12 @@
         <v>303</v>
       </c>
       <c r="F11" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -6659,7 +6656,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -6668,7 +6665,7 @@
         <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>32</v>
@@ -6682,7 +6679,7 @@
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>32</v>
@@ -6716,7 +6713,7 @@
         <v>27</v>
       </c>
       <c r="F20" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -6837,7 +6834,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B32" t="s">
         <v>26</v>
@@ -6866,7 +6863,7 @@
         <v>303</v>
       </c>
       <c r="F33" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -6965,17 +6962,17 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -7048,7 +7045,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -7260,17 +7257,17 @@
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51:F54"/>
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -7295,7 +7292,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -7447,7 +7444,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -7537,7 +7534,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B21" t="s">
         <v>77</v>
@@ -7557,7 +7554,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -7850,7 +7847,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B47" t="s">
         <v>26</v>
@@ -7980,7 +7977,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B58" t="s">
         <v>26</v>
@@ -8011,18 +8008,18 @@
   </sheetPr>
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A51" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -8056,7 +8053,7 @@
         <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -8185,7 +8182,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -8194,7 +8191,7 @@
         <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>32</v>
@@ -8275,7 +8272,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B20" t="s">
         <v>77</v>
@@ -8442,7 +8439,7 @@
         <v>303</v>
       </c>
       <c r="F32" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -8495,7 +8492,7 @@
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="B38" t="s">
         <v>90</v>
@@ -8647,7 +8644,7 @@
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="B50" t="s">
         <v>26</v>
@@ -8760,7 +8757,7 @@
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>32</v>
@@ -8813,7 +8810,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B63" t="s">
         <v>26</v>
@@ -8833,13 +8830,13 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B65" t="s">
         <v>26</v>
       </c>
       <c r="C65" t="s">
-        <v>334</v>
+        <v>238</v>
       </c>
       <c r="D65" t="s">
         <v>78</v>
@@ -8853,7 +8850,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
-        <v>335</v>
+        <v>238</v>
       </c>
       <c r="D66" t="s">
         <v>329</v>
@@ -8880,17 +8877,17 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -8915,7 +8912,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -9138,12 +9135,12 @@
         <v>303</v>
       </c>
       <c r="F18" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -9205,7 +9202,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -9335,7 +9332,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>527</v>
+        <v>814</v>
       </c>
       <c r="B36" t="s">
         <v>77</v>
@@ -9454,7 +9451,7 @@
         <v>57</v>
       </c>
       <c r="D45" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>32</v>
@@ -9583,7 +9580,7 @@
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B56" t="s">
         <v>26</v>
@@ -9617,7 +9614,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B59" t="s">
         <v>26</v>
@@ -9817,13 +9814,13 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B75" t="s">
         <v>26</v>
       </c>
       <c r="C75" t="s">
-        <v>334</v>
+        <v>238</v>
       </c>
       <c r="D75" t="s">
         <v>78</v>
@@ -9837,7 +9834,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
-        <v>335</v>
+        <v>238</v>
       </c>
       <c r="D76" t="s">
         <v>337</v>
@@ -9851,7 +9848,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
-        <v>336</v>
+        <v>238</v>
       </c>
       <c r="D77" t="s">
         <v>308</v>
@@ -9905,18 +9902,18 @@
   </sheetPr>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:F35"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -9941,7 +9938,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -10169,7 +10166,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>527</v>
+        <v>814</v>
       </c>
       <c r="B20" t="s">
         <v>77</v>
@@ -10240,7 +10237,7 @@
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>32</v>
@@ -10288,7 +10285,7 @@
         <v>56</v>
       </c>
       <c r="D29" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>32</v>
@@ -10394,18 +10391,18 @@
   </sheetPr>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -10430,7 +10427,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B2" t="s">
         <v>90</v>
@@ -10602,7 +10599,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -10692,7 +10689,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -10701,7 +10698,7 @@
         <v>57</v>
       </c>
       <c r="D23" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>32</v>
@@ -10721,7 +10718,7 @@
         <v>303</v>
       </c>
       <c r="F24" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -10735,7 +10732,7 @@
         <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>32</v>
@@ -10791,7 +10788,7 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>32</v>
@@ -10841,18 +10838,18 @@
   </sheetPr>
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C75" sqref="C75:F79"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75:C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -10900,7 +10897,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
@@ -10920,7 +10917,7 @@
         <v>303</v>
       </c>
       <c r="F4" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -10976,7 +10973,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>27</v>
@@ -10987,13 +10984,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>32</v>
@@ -11015,7 +11012,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -11024,7 +11021,7 @@
         <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>32</v>
@@ -11038,7 +11035,7 @@
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>32</v>
@@ -11066,7 +11063,7 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>27</v>
@@ -11077,7 +11074,7 @@
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B19" t="s">
         <v>77</v>
@@ -11086,7 +11083,7 @@
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>32</v>
@@ -11100,7 +11097,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>32</v>
@@ -11129,13 +11126,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F22" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -11143,7 +11140,7 @@
         <v>121</v>
       </c>
       <c r="D23" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>32</v>
@@ -11154,13 +11151,13 @@
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="B25" t="s">
         <v>77</v>
       </c>
       <c r="D25" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>32</v>
@@ -11171,7 +11168,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>32</v>
@@ -11182,7 +11179,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>527</v>
+        <v>814</v>
       </c>
       <c r="B28" t="s">
         <v>77</v>
@@ -11191,7 +11188,7 @@
         <v>57</v>
       </c>
       <c r="D28" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>32</v>
@@ -11205,7 +11202,7 @@
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>32</v>
@@ -11219,13 +11216,13 @@
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F30" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -11247,13 +11244,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="s">
+        <v>540</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" t="s">
         <v>541</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F32" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -11281,7 +11278,7 @@
         <v>57</v>
       </c>
       <c r="D35" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>32</v>
@@ -11310,7 +11307,7 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>32</v>
@@ -11330,7 +11327,7 @@
         <v>32</v>
       </c>
       <c r="F38" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -11344,7 +11341,7 @@
         <v>303</v>
       </c>
       <c r="F39" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11358,13 +11355,13 @@
         <v>56</v>
       </c>
       <c r="D41" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F41" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -11406,13 +11403,13 @@
         <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F45" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -11426,7 +11423,7 @@
         <v>32</v>
       </c>
       <c r="F46" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -11468,7 +11465,7 @@
         <v>32</v>
       </c>
       <c r="F49" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -11482,7 +11479,7 @@
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>32</v>
@@ -11510,7 +11507,7 @@
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>32</v>
@@ -11524,7 +11521,7 @@
         <v>121</v>
       </c>
       <c r="D54" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>32</v>
@@ -11535,7 +11532,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="B56" t="s">
         <v>90</v>
@@ -11586,7 +11583,7 @@
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>32</v>
@@ -11625,7 +11622,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B63" t="s">
         <v>26</v>
@@ -11634,7 +11631,7 @@
         <v>6</v>
       </c>
       <c r="D63" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>32</v>
@@ -11662,7 +11659,7 @@
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>27</v>
@@ -11682,7 +11679,7 @@
         <v>56</v>
       </c>
       <c r="D67" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>32</v>
@@ -11710,7 +11707,7 @@
         <v>6</v>
       </c>
       <c r="D69" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>32</v>
@@ -11724,7 +11721,7 @@
         <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>32</v>
@@ -11772,18 +11769,18 @@
         <v>32</v>
       </c>
       <c r="F73" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B75" t="s">
         <v>26</v>
       </c>
       <c r="C75" t="s">
-        <v>334</v>
+        <v>238</v>
       </c>
       <c r="D75" t="s">
         <v>413</v>
@@ -11797,7 +11794,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
-        <v>335</v>
+        <v>238</v>
       </c>
       <c r="D76" t="s">
         <v>451</v>
@@ -11806,15 +11803,15 @@
         <v>32</v>
       </c>
       <c r="F76" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
-        <v>336</v>
+        <v>238</v>
       </c>
       <c r="D77" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>32</v>
@@ -11866,17 +11863,17 @@
   <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88:F93"/>
+      <selection activeCell="C95" sqref="C95:C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -11910,7 +11907,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -11938,7 +11935,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>32</v>
@@ -11958,7 +11955,7 @@
         <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -11966,7 +11963,7 @@
         <v>121</v>
       </c>
       <c r="D6" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>32</v>
@@ -11986,7 +11983,7 @@
         <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>32</v>
@@ -12000,7 +11997,7 @@
         <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>32</v>
@@ -12014,7 +12011,7 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>32</v>
@@ -12042,7 +12039,7 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>27</v>
@@ -12053,7 +12050,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -12062,7 +12059,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>32</v>
@@ -12096,7 +12093,7 @@
         <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -12124,12 +12121,12 @@
         <v>27</v>
       </c>
       <c r="F18" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -12152,7 +12149,7 @@
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>32</v>
@@ -12172,7 +12169,7 @@
         <v>32</v>
       </c>
       <c r="F22" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -12214,12 +12211,12 @@
         <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B27" t="s">
         <v>77</v>
@@ -12228,7 +12225,7 @@
         <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>32</v>
@@ -12242,7 +12239,7 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>32</v>
@@ -12290,18 +12287,18 @@
         <v>32</v>
       </c>
       <c r="F31" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="B33" t="s">
         <v>26</v>
       </c>
       <c r="D33" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>32</v>
@@ -12323,7 +12320,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>527</v>
+        <v>814</v>
       </c>
       <c r="B36" t="s">
         <v>77</v>
@@ -12332,7 +12329,7 @@
         <v>57</v>
       </c>
       <c r="D36" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>32</v>
@@ -12374,7 +12371,7 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>32</v>
@@ -12388,7 +12385,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>32</v>
@@ -12422,7 +12419,7 @@
         <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>32</v>
@@ -12450,7 +12447,7 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>32</v>
@@ -12464,7 +12461,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>32</v>
@@ -12498,7 +12495,7 @@
         <v>56</v>
       </c>
       <c r="D49" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>32</v>
@@ -12512,7 +12509,7 @@
         <v>57</v>
       </c>
       <c r="D50" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>32</v>
@@ -12526,7 +12523,7 @@
         <v>6</v>
       </c>
       <c r="D51" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>32</v>
@@ -12540,7 +12537,7 @@
         <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>32</v>
@@ -12568,7 +12565,7 @@
         <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>32</v>
@@ -12602,7 +12599,7 @@
         <v>56</v>
       </c>
       <c r="D57" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>32</v>
@@ -12616,7 +12613,7 @@
         <v>57</v>
       </c>
       <c r="D58" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>32</v>
@@ -12630,7 +12627,7 @@
         <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>32</v>
@@ -12655,7 +12652,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B62" t="s">
         <v>77</v>
@@ -12664,7 +12661,7 @@
         <v>6</v>
       </c>
       <c r="D62" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>32</v>
@@ -12678,7 +12675,7 @@
         <v>4</v>
       </c>
       <c r="D63" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>32</v>
@@ -12720,7 +12717,7 @@
         <v>121</v>
       </c>
       <c r="D66" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>32</v>
@@ -12731,7 +12728,7 @@
     </row>
     <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="B68" t="s">
         <v>26</v>
@@ -12754,7 +12751,7 @@
         <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>32</v>
@@ -12768,7 +12765,7 @@
         <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>32</v>
@@ -12788,7 +12785,7 @@
         <v>32</v>
       </c>
       <c r="F71" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -12796,7 +12793,7 @@
         <v>121</v>
       </c>
       <c r="D72" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>32</v>
@@ -12807,7 +12804,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B74" t="s">
         <v>26</v>
@@ -12816,7 +12813,7 @@
         <v>6</v>
       </c>
       <c r="D74" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>32</v>
@@ -12830,7 +12827,7 @@
         <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>32</v>
@@ -12844,7 +12841,7 @@
         <v>2</v>
       </c>
       <c r="D76" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>32</v>
@@ -12864,7 +12861,7 @@
         <v>32</v>
       </c>
       <c r="F77" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -12878,7 +12875,7 @@
         <v>27</v>
       </c>
       <c r="F78" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -12906,7 +12903,7 @@
         <v>57</v>
       </c>
       <c r="D81" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>32</v>
@@ -12920,7 +12917,7 @@
         <v>6</v>
       </c>
       <c r="D82" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>32</v>
@@ -12934,7 +12931,7 @@
         <v>4</v>
       </c>
       <c r="D83" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>32</v>
@@ -12948,7 +12945,7 @@
         <v>2</v>
       </c>
       <c r="D84" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>32</v>
@@ -12982,7 +12979,7 @@
         <v>32</v>
       </c>
       <c r="F86" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -12996,7 +12993,7 @@
         <v>57</v>
       </c>
       <c r="D88" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>32</v>
@@ -13030,7 +13027,7 @@
         <v>32</v>
       </c>
       <c r="F90" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -13077,13 +13074,13 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B95" t="s">
         <v>26</v>
       </c>
       <c r="C95" t="s">
-        <v>334</v>
+        <v>238</v>
       </c>
       <c r="D95" t="s">
         <v>497</v>
@@ -13097,7 +13094,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
-        <v>335</v>
+        <v>238</v>
       </c>
       <c r="D96" t="s">
         <v>429</v>
@@ -13111,10 +13108,10 @@
     </row>
     <row r="97" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
-        <v>336</v>
+        <v>238</v>
       </c>
       <c r="D97" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>32</v>
@@ -13134,7 +13131,7 @@
         <v>32</v>
       </c>
       <c r="F98" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="99" spans="3:6" x14ac:dyDescent="0.3">
@@ -13165,18 +13162,18 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -13201,22 +13198,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B2" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C2" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="D2" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="E2" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
   </sheetData>
@@ -13232,18 +13229,18 @@
   </sheetPr>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F5"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="A60" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -13339,7 +13336,7 @@
         <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>32</v>
@@ -13353,7 +13350,7 @@
         <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>32</v>
@@ -13392,7 +13389,7 @@
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -13401,13 +13398,13 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -13440,7 +13437,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -13455,7 +13452,7 @@
         <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -13463,7 +13460,7 @@
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>32</v>
@@ -13477,7 +13474,7 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>32</v>
@@ -13491,7 +13488,7 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>32</v>
@@ -13530,7 +13527,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B23" t="s">
         <v>77</v>
@@ -13539,7 +13536,7 @@
         <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>27</v>
@@ -13550,7 +13547,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>527</v>
+        <v>814</v>
       </c>
       <c r="B25" t="s">
         <v>77</v>
@@ -13559,7 +13556,7 @@
         <v>57</v>
       </c>
       <c r="D25" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>32</v>
@@ -13587,7 +13584,7 @@
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>32</v>
@@ -13607,7 +13604,7 @@
         <v>303</v>
       </c>
       <c r="F28" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13635,7 +13632,7 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>32</v>
@@ -13649,7 +13646,7 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>32</v>
@@ -13669,7 +13666,7 @@
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -13677,7 +13674,7 @@
         <v>121</v>
       </c>
       <c r="D34" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>32</v>
@@ -13697,7 +13694,7 @@
         <v>56</v>
       </c>
       <c r="D36" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>32</v>
@@ -13711,7 +13708,7 @@
         <v>57</v>
       </c>
       <c r="D37" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>27</v>
@@ -13731,7 +13728,7 @@
         <v>56</v>
       </c>
       <c r="D39" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>32</v>
@@ -13779,7 +13776,7 @@
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>32</v>
@@ -13799,7 +13796,7 @@
         <v>32</v>
       </c>
       <c r="F44" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -13821,18 +13818,18 @@
         <v>121</v>
       </c>
       <c r="D46" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F46" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B48" t="s">
         <v>26</v>
@@ -13869,13 +13866,13 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F50" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -13889,12 +13886,12 @@
         <v>27</v>
       </c>
       <c r="F51" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B53" t="s">
         <v>26</v>
@@ -13909,7 +13906,7 @@
         <v>32</v>
       </c>
       <c r="F53" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -13945,13 +13942,13 @@
         <v>0</v>
       </c>
       <c r="D56" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F56" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -13979,7 +13976,7 @@
         <v>56</v>
       </c>
       <c r="D59" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>32</v>
@@ -13993,7 +13990,7 @@
         <v>57</v>
       </c>
       <c r="D60" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>32</v>
@@ -14007,7 +14004,7 @@
         <v>6</v>
       </c>
       <c r="D61" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>32</v>
@@ -14021,7 +14018,7 @@
         <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>32</v>
@@ -14049,7 +14046,7 @@
         <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>32</v>
@@ -14063,7 +14060,7 @@
         <v>121</v>
       </c>
       <c r="D65" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>32</v>
@@ -14074,7 +14071,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="B67" t="s">
         <v>26</v>
@@ -14089,7 +14086,7 @@
         <v>27</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -14103,7 +14100,7 @@
         <v>57</v>
       </c>
       <c r="D69" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>32</v>
@@ -14151,12 +14148,12 @@
         <v>303</v>
       </c>
       <c r="F72" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B74" t="s">
         <v>26</v>
@@ -14193,7 +14190,7 @@
         <v>238</v>
       </c>
       <c r="D76" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>32</v>
@@ -14207,13 +14204,13 @@
         <v>0</v>
       </c>
       <c r="D77" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F77" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -14244,17 +14241,17 @@
   <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A19" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -14288,7 +14285,7 @@
         <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -14316,7 +14313,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>32</v>
@@ -14330,7 +14327,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>32</v>
@@ -14358,7 +14355,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>32</v>
@@ -14372,7 +14369,7 @@
         <v>121</v>
       </c>
       <c r="D8" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>32</v>
@@ -14383,13 +14380,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="B10" t="s">
         <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>32</v>
@@ -14400,7 +14397,7 @@
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -14409,13 +14406,13 @@
         <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -14423,7 +14420,7 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>32</v>
@@ -14437,13 +14434,13 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F14" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -14465,18 +14462,18 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>303</v>
       </c>
       <c r="F16" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -14485,7 +14482,7 @@
         <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>32</v>
@@ -14499,7 +14496,7 @@
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>32</v>
@@ -14513,7 +14510,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>32</v>
@@ -14533,7 +14530,7 @@
         <v>32</v>
       </c>
       <c r="F21" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -14541,7 +14538,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>32</v>
@@ -14555,7 +14552,7 @@
         <v>121</v>
       </c>
       <c r="D23" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>32</v>
@@ -14566,7 +14563,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="B25" t="s">
         <v>77</v>
@@ -14578,12 +14575,12 @@
         <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>32</v>
@@ -14594,7 +14591,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>527</v>
+        <v>814</v>
       </c>
       <c r="B28" t="s">
         <v>77</v>
@@ -14603,7 +14600,7 @@
         <v>57</v>
       </c>
       <c r="D28" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>32</v>
@@ -14617,7 +14614,7 @@
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>32</v>
@@ -14637,7 +14634,7 @@
         <v>32</v>
       </c>
       <c r="F30" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -14645,7 +14642,7 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>32</v>
@@ -14679,7 +14676,7 @@
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>32</v>
@@ -14693,18 +14690,18 @@
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>303</v>
       </c>
       <c r="F35" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B37" t="s">
         <v>77</v>
@@ -14713,7 +14710,7 @@
         <v>56</v>
       </c>
       <c r="D37" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>32</v>
@@ -14727,13 +14724,13 @@
         <v>57</v>
       </c>
       <c r="D38" t="s">
+        <v>634</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" t="s">
         <v>635</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F38" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -14755,7 +14752,7 @@
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>32</v>
@@ -14789,7 +14786,7 @@
         <v>32</v>
       </c>
       <c r="F42" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -14803,7 +14800,7 @@
         <v>32</v>
       </c>
       <c r="F43" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -14817,7 +14814,7 @@
         <v>56</v>
       </c>
       <c r="D45" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>32</v>
@@ -14831,7 +14828,7 @@
         <v>57</v>
       </c>
       <c r="D46" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>32</v>
@@ -14845,7 +14842,7 @@
         <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>32</v>
@@ -14887,7 +14884,7 @@
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>32</v>
@@ -14901,7 +14898,7 @@
         <v>121</v>
       </c>
       <c r="D51" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>32</v>
@@ -14912,7 +14909,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B53" t="s">
         <v>77</v>
@@ -14921,7 +14918,7 @@
         <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>32</v>
@@ -14938,12 +14935,12 @@
         <v>303</v>
       </c>
       <c r="F54" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B56" t="s">
         <v>26</v>
@@ -14966,7 +14963,7 @@
         <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>32</v>
@@ -14980,7 +14977,7 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>32</v>
@@ -14994,7 +14991,7 @@
         <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>27</v>
@@ -15005,7 +15002,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B61" t="s">
         <v>26</v>
@@ -15028,7 +15025,7 @@
         <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>32</v>
@@ -15056,7 +15053,7 @@
         <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>32</v>
@@ -15090,13 +15087,13 @@
         <v>56</v>
       </c>
       <c r="D67" t="s">
+        <v>643</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F67" t="s">
         <v>644</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F67" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -15104,13 +15101,13 @@
         <v>57</v>
       </c>
       <c r="D68" t="s">
+        <v>645</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F68" t="s">
         <v>646</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F68" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -15124,7 +15121,7 @@
         <v>32</v>
       </c>
       <c r="F69" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -15132,7 +15129,7 @@
         <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>32</v>
@@ -15152,7 +15149,7 @@
         <v>32</v>
       </c>
       <c r="F71" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -15160,7 +15157,7 @@
         <v>0</v>
       </c>
       <c r="D72" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>27</v>
@@ -15182,18 +15179,18 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:F15"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -15227,7 +15224,7 @@
         <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -15241,7 +15238,7 @@
         <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
@@ -15255,7 +15252,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>32</v>
@@ -15269,7 +15266,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>32</v>
@@ -15311,18 +15308,18 @@
         <v>121</v>
       </c>
       <c r="D8" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -15331,7 +15328,7 @@
         <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>32</v>
@@ -15345,13 +15342,13 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
+        <v>653</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
         <v>654</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -15359,7 +15356,7 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>32</v>
@@ -15373,7 +15370,7 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>32</v>
@@ -15393,7 +15390,7 @@
         <v>32</v>
       </c>
       <c r="F14" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -15412,7 +15409,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -15421,13 +15418,13 @@
         <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -15435,7 +15432,7 @@
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>32</v>
@@ -15449,13 +15446,13 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F19" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -15469,7 +15466,7 @@
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>32</v>
@@ -15483,13 +15480,13 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F22" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -15497,7 +15494,7 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>32</v>
@@ -15511,7 +15508,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>32</v>
@@ -15525,13 +15522,13 @@
         <v>121</v>
       </c>
       <c r="D25" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -15545,7 +15542,7 @@
         <v>56</v>
       </c>
       <c r="D27" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>32</v>
@@ -15559,7 +15556,7 @@
         <v>57</v>
       </c>
       <c r="D28" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>32</v>
@@ -15573,13 +15570,13 @@
         <v>6</v>
       </c>
       <c r="D29" t="s">
+        <v>666</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" t="s">
         <v>667</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F29" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -15587,7 +15584,7 @@
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>32</v>
@@ -15601,13 +15598,13 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F31" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -15615,13 +15612,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="s">
+        <v>670</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" t="s">
         <v>671</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F32" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -15629,7 +15626,7 @@
         <v>121</v>
       </c>
       <c r="D33" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>27</v>
@@ -15649,7 +15646,7 @@
         <v>56</v>
       </c>
       <c r="D35" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>32</v>
@@ -15663,13 +15660,13 @@
         <v>57</v>
       </c>
       <c r="D36" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F36" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -15677,7 +15674,7 @@
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>32</v>
@@ -15691,7 +15688,7 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>32</v>
@@ -15705,7 +15702,7 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>32</v>
@@ -15733,7 +15730,7 @@
         <v>121</v>
       </c>
       <c r="D41" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>32</v>
@@ -15744,7 +15741,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="B43" t="s">
         <v>26</v>
@@ -15753,7 +15750,7 @@
         <v>57</v>
       </c>
       <c r="D43" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>32</v>
@@ -15767,7 +15764,7 @@
         <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>32</v>
@@ -15781,7 +15778,7 @@
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>27</v>
@@ -15801,7 +15798,7 @@
         <v>56</v>
       </c>
       <c r="D47" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>32</v>
@@ -15815,7 +15812,7 @@
         <v>57</v>
       </c>
       <c r="D48" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>32</v>
@@ -15829,7 +15826,7 @@
         <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>32</v>
@@ -15857,7 +15854,7 @@
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>32</v>
@@ -15871,7 +15868,7 @@
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>27</v>
@@ -15894,17 +15891,17 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -15929,7 +15926,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -15938,7 +15935,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -15954,13 +15951,13 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -15982,7 +15979,7 @@
         <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>32</v>
@@ -16010,7 +16007,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>32</v>
@@ -16038,7 +16035,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>32</v>
@@ -16088,18 +16085,18 @@
   </sheetPr>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -16124,7 +16121,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -16133,7 +16130,7 @@
         <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -16149,13 +16146,13 @@
         <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -16179,7 +16176,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -16188,7 +16185,7 @@
         <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>27</v>
@@ -16208,13 +16205,13 @@
         <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -16222,7 +16219,7 @@
         <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>32</v>
@@ -16256,7 +16253,7 @@
         <v>303</v>
       </c>
       <c r="F11" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -16267,7 +16264,7 @@
         <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>32</v>
@@ -16281,7 +16278,7 @@
         <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>32</v>
@@ -16295,13 +16292,13 @@
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -16309,7 +16306,7 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>32</v>
@@ -16323,7 +16320,7 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>32</v>
@@ -16351,7 +16348,7 @@
         <v>121</v>
       </c>
       <c r="D19" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>27</v>
@@ -16362,7 +16359,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>690</v>
+        <v>815</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -16371,7 +16368,7 @@
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>27</v>
@@ -16382,7 +16379,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -16391,7 +16388,7 @@
         <v>57</v>
       </c>
       <c r="D23" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>32</v>
@@ -16425,7 +16422,7 @@
         <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>32</v>
@@ -16439,7 +16436,7 @@
         <v>57</v>
       </c>
       <c r="D27" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>32</v>
@@ -16467,7 +16464,7 @@
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>32</v>
@@ -16481,7 +16478,7 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>32</v>
@@ -16495,7 +16492,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>32</v>
@@ -16509,7 +16506,7 @@
         <v>121</v>
       </c>
       <c r="D32" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>27</v>
@@ -16531,18 +16528,18 @@
   </sheetPr>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -16576,7 +16573,7 @@
         <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -16592,7 +16589,7 @@
         <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
@@ -16608,7 +16605,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>32</v>
@@ -16640,13 +16637,13 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -16655,7 +16652,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -16680,13 +16677,13 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -16694,7 +16691,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -16703,7 +16700,7 @@
         <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>32</v>
@@ -16717,13 +16714,13 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>303</v>
       </c>
       <c r="F12" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -16737,7 +16734,7 @@
         <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>32</v>
@@ -16757,12 +16754,12 @@
         <v>303</v>
       </c>
       <c r="F15" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B17" t="s">
         <v>77</v>
@@ -16771,13 +16768,13 @@
         <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -16785,7 +16782,7 @@
         <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>32</v>
@@ -16799,7 +16796,7 @@
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>27</v>
@@ -16816,7 +16813,7 @@
         <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>32</v>
@@ -16830,13 +16827,13 @@
         <v>57</v>
       </c>
       <c r="D22" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F22" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -16872,13 +16869,13 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -16911,7 +16908,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -16920,7 +16917,7 @@
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>32</v>
@@ -16934,7 +16931,7 @@
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>32</v>
@@ -16948,7 +16945,7 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>32</v>
@@ -16962,7 +16959,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>32</v>
@@ -16976,13 +16973,13 @@
         <v>121</v>
       </c>
       <c r="D33" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F33" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -17010,13 +17007,13 @@
         <v>57</v>
       </c>
       <c r="D36" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F36" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -17024,7 +17021,7 @@
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>32</v>
@@ -17038,7 +17035,7 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>32</v>
@@ -17052,7 +17049,7 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>32</v>
@@ -17066,7 +17063,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>32</v>
@@ -17080,7 +17077,7 @@
         <v>121</v>
       </c>
       <c r="D41" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>27</v>
@@ -17102,18 +17099,18 @@
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -17138,7 +17135,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -17147,7 +17144,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -17163,7 +17160,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
@@ -17179,7 +17176,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>32</v>
@@ -17195,7 +17192,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>32</v>
@@ -17211,7 +17208,7 @@
         <v>121</v>
       </c>
       <c r="D6" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>32</v>
@@ -17239,7 +17236,7 @@
         <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>32</v>
@@ -17255,7 +17252,7 @@
         <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>32</v>
@@ -17271,13 +17268,13 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -17286,32 +17283,32 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
       </c>
       <c r="D12" t="s">
+        <v>716</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
         <v>718</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="D13" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -17319,16 +17316,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D15" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>32</v>
@@ -17339,7 +17336,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D16" t="s">
         <v>60</v>
@@ -17356,18 +17353,18 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F17" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -17376,13 +17373,13 @@
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -17390,13 +17387,13 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F20" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -17410,7 +17407,7 @@
         <v>56</v>
       </c>
       <c r="D22" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>32</v>
@@ -17424,7 +17421,7 @@
         <v>57</v>
       </c>
       <c r="D23" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>32</v>
@@ -17438,13 +17435,13 @@
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -17452,13 +17449,13 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -17491,7 +17488,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B29" t="s">
         <v>77</v>
@@ -17500,13 +17497,13 @@
         <v>56</v>
       </c>
       <c r="D29" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F29" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -17520,7 +17517,7 @@
         <v>303</v>
       </c>
       <c r="F30" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
   </sheetData>
@@ -17536,18 +17533,18 @@
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -17572,16 +17569,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>735</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -17592,7 +17589,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>745</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
         <v>521</v>
@@ -17609,13 +17606,13 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -17623,13 +17620,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>303</v>
       </c>
       <c r="F5" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -17643,7 +17640,7 @@
         <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>32</v>
@@ -17657,7 +17654,7 @@
         <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>32</v>
@@ -17671,7 +17668,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>32</v>
@@ -17685,13 +17682,13 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -17713,7 +17710,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>27</v>
@@ -17733,7 +17730,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>27</v>
@@ -17744,7 +17741,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B16" t="s">
         <v>77</v>
@@ -17753,7 +17750,7 @@
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>32</v>
@@ -17767,7 +17764,7 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>27</v>
@@ -17787,13 +17784,13 @@
         <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -17801,13 +17798,13 @@
         <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F20" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -17815,7 +17812,7 @@
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>32</v>
@@ -17829,7 +17826,7 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>27</v>
@@ -17849,13 +17846,13 @@
         <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F24" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
   </sheetData>
@@ -17877,12 +17874,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -17916,18 +17913,18 @@
         <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -17936,7 +17933,7 @@
         <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>32</v>
@@ -17950,7 +17947,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>27</v>
@@ -17961,7 +17958,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -17970,7 +17967,7 @@
         <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>27</v>
@@ -17990,7 +17987,7 @@
         <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>32</v>
@@ -18004,13 +18001,13 @@
         <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -18018,13 +18015,13 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
   </sheetData>
@@ -18041,39 +18038,39 @@
   </sheetPr>
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>725</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -18699,7 +18696,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="B31" s="6">
         <f>AVERAGE(B2:B29)</f>
@@ -18745,17 +18742,17 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -18780,7 +18777,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -18848,7 +18845,7 @@
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
@@ -18944,7 +18941,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B16" t="s">
         <v>33</v>
@@ -19019,17 +19016,17 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -19054,7 +19051,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -19192,7 +19189,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -19240,7 +19237,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -19440,7 +19437,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B33" t="s">
         <v>90</v>
@@ -19511,7 +19508,7 @@
         <v>57</v>
       </c>
       <c r="D38" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>32</v>
@@ -19632,7 +19629,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B49" t="s">
         <v>26</v>
@@ -19693,17 +19690,17 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57:F59"/>
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -19728,7 +19725,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -19886,7 +19883,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -19976,7 +19973,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -20210,7 +20207,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="B41" t="s">
         <v>77</v>
@@ -20407,7 +20404,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B57" t="s">
         <v>26</v>
@@ -20455,7 +20452,7 @@
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B61" t="s">
         <v>26</v>
@@ -20487,17 +20484,17 @@
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:F56"/>
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -20708,7 +20705,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -20770,7 +20767,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -20813,12 +20810,12 @@
         <v>27</v>
       </c>
       <c r="F24" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B26" t="s">
         <v>77</v>
@@ -20928,7 +20925,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B35" t="s">
         <v>26</v>
@@ -21004,7 +21001,7 @@
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B41" t="s">
         <v>26</v>
@@ -21230,17 +21227,17 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54:F57"/>
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -21265,7 +21262,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -21389,7 +21386,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -21460,7 +21457,7 @@
         <v>230</v>
       </c>
       <c r="F16" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -21479,7 +21476,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -21741,7 +21738,7 @@
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B40" t="s">
         <v>26</v>
@@ -21978,7 +21975,7 @@
         <v>230</v>
       </c>
       <c r="F57" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
   </sheetData>
@@ -21995,17 +21992,17 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62:F65"/>
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -22030,7 +22027,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -22140,7 +22137,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -22230,7 +22227,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B18" t="s">
         <v>77</v>
@@ -22321,7 +22318,7 @@
         <v>230</v>
       </c>
       <c r="F24" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -22852,7 +22849,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="B67" t="s">
         <v>33</v>
@@ -22867,7 +22864,7 @@
         <v>32</v>
       </c>
       <c r="F67" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -22914,7 +22911,7 @@
     </row>
     <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B72" t="s">
         <v>26</v>
@@ -22988,17 +22985,17 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:F26"/>
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -23193,7 +23190,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -23283,7 +23280,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B22" t="s">
         <v>77</v>
@@ -23359,7 +23356,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>

--- a/Tennis/WTA Tour/Serena Williams.xlsx
+++ b/Tennis/WTA Tour/Serena Williams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="423" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85D61B75-0512-4220-87DF-D209D710BC70}"/>
+  <xr:revisionPtr revIDLastSave="424" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{641B438F-EDA6-463C-859B-782921242F9A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="22" activeTab="30" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="22" activeTab="28" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1995" sheetId="29" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4820" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4820" uniqueCount="815">
   <si>
     <t>Semifinal</t>
   </si>
@@ -2400,9 +2400,6 @@
   </si>
   <si>
     <t>WALKOVER</t>
-  </si>
-  <si>
-    <t>NATIONAL BANK OPEN</t>
   </si>
   <si>
     <t>STUTTGART OPEN</t>
@@ -5172,7 +5169,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7394548D-F12D-4EC5-A523-6F2377EF6E3B}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5243,6 +5240,10 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5583,7 +5584,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B2" t="s">
         <v>33</v>
@@ -5740,7 +5741,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B9" t="s">
         <v>77</v>
@@ -5788,7 +5789,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B13" t="s">
         <v>77</v>
@@ -6326,7 +6327,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B56" t="s">
         <v>26</v>
@@ -6834,7 +6835,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>779</v>
+        <v>803</v>
       </c>
       <c r="B32" t="s">
         <v>26</v>
@@ -7045,7 +7046,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -7534,7 +7535,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B21" t="s">
         <v>77</v>
@@ -7847,7 +7848,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B47" t="s">
         <v>26</v>
@@ -8272,7 +8273,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B20" t="s">
         <v>77</v>
@@ -8810,7 +8811,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B63" t="s">
         <v>26</v>
@@ -9332,7 +9333,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B36" t="s">
         <v>77</v>
@@ -9580,7 +9581,7 @@
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B56" t="s">
         <v>26</v>
@@ -9614,7 +9615,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>779</v>
+        <v>803</v>
       </c>
       <c r="B59" t="s">
         <v>26</v>
@@ -10166,7 +10167,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B20" t="s">
         <v>77</v>
@@ -10237,7 +10238,7 @@
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>32</v>
@@ -10285,7 +10286,7 @@
         <v>56</v>
       </c>
       <c r="D29" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>32</v>
@@ -10599,7 +10600,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>779</v>
+        <v>803</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -10689,7 +10690,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -10788,7 +10789,7 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>32</v>
@@ -10973,7 +10974,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>27</v>
@@ -11074,7 +11075,7 @@
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B19" t="s">
         <v>77</v>
@@ -11179,7 +11180,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B28" t="s">
         <v>77</v>
@@ -11202,7 +11203,7 @@
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>32</v>
@@ -11622,7 +11623,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B63" t="s">
         <v>26</v>
@@ -11707,7 +11708,7 @@
         <v>6</v>
       </c>
       <c r="D69" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>32</v>
@@ -11963,7 +11964,7 @@
         <v>121</v>
       </c>
       <c r="D6" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>32</v>
@@ -12059,7 +12060,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>32</v>
@@ -12216,7 +12217,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B27" t="s">
         <v>77</v>
@@ -12320,7 +12321,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B36" t="s">
         <v>77</v>
@@ -12652,7 +12653,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B62" t="s">
         <v>77</v>
@@ -12728,7 +12729,7 @@
     </row>
     <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B68" t="s">
         <v>26</v>
@@ -12804,7 +12805,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B74" t="s">
         <v>26</v>
@@ -12813,7 +12814,7 @@
         <v>6</v>
       </c>
       <c r="D74" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>32</v>
@@ -13398,7 +13399,7 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>32</v>
@@ -13527,7 +13528,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B23" t="s">
         <v>77</v>
@@ -13547,7 +13548,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B25" t="s">
         <v>77</v>
@@ -13829,7 +13830,7 @@
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>779</v>
+        <v>803</v>
       </c>
       <c r="B48" t="s">
         <v>26</v>
@@ -13891,7 +13892,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B53" t="s">
         <v>26</v>
@@ -14046,7 +14047,7 @@
         <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>32</v>
@@ -14190,7 +14191,7 @@
         <v>238</v>
       </c>
       <c r="D76" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>32</v>
@@ -14397,7 +14398,7 @@
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -14591,7 +14592,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B28" t="s">
         <v>77</v>
@@ -14676,7 +14677,7 @@
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>32</v>
@@ -14940,7 +14941,7 @@
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>779</v>
+        <v>803</v>
       </c>
       <c r="B56" t="s">
         <v>26</v>
@@ -15002,7 +15003,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B61" t="s">
         <v>26</v>
@@ -15319,7 +15320,7 @@
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -15702,7 +15703,7 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>32</v>
@@ -15750,7 +15751,7 @@
         <v>57</v>
       </c>
       <c r="D43" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>32</v>
@@ -15798,7 +15799,7 @@
         <v>56</v>
       </c>
       <c r="D47" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>32</v>
@@ -16121,7 +16122,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -16359,7 +16360,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -16379,7 +16380,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -16388,7 +16389,7 @@
         <v>57</v>
       </c>
       <c r="D23" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>32</v>
@@ -16528,8 +16529,8 @@
   </sheetPr>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16652,7 +16653,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -16869,7 +16870,7 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>32</v>
@@ -16908,7 +16909,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>779</v>
+        <v>803</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -17099,7 +17100,7 @@
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
@@ -17364,7 +17365,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -17393,7 +17394,7 @@
         <v>27</v>
       </c>
       <c r="F20" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -17455,7 +17456,7 @@
         <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -17578,7 +17579,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -17913,18 +17914,18 @@
         <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -17933,7 +17934,7 @@
         <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>32</v>
@@ -17958,7 +17959,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -17967,7 +17968,7 @@
         <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>27</v>
@@ -17987,7 +17988,7 @@
         <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>32</v>
@@ -18001,13 +18002,13 @@
         <v>57</v>
       </c>
       <c r="D10" t="s">
+        <v>808</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
         <v>809</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -18015,13 +18016,13 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
   </sheetData>
@@ -18038,8 +18039,8 @@
   </sheetPr>
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18058,10 +18059,10 @@
         <v>722</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>783</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>784</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>723</v>
@@ -18696,7 +18697,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B31" s="6">
         <f>AVERAGE(B2:B29)</f>
@@ -18777,7 +18778,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -18845,7 +18846,7 @@
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
@@ -18941,7 +18942,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B16" t="s">
         <v>33</v>
@@ -19189,7 +19190,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -19629,7 +19630,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B49" t="s">
         <v>26</v>
@@ -19883,7 +19884,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -20452,7 +20453,7 @@
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B61" t="s">
         <v>26</v>
@@ -20705,7 +20706,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -20815,7 +20816,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B26" t="s">
         <v>77</v>
@@ -20925,7 +20926,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B35" t="s">
         <v>26</v>
@@ -21001,7 +21002,7 @@
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>779</v>
+        <v>803</v>
       </c>
       <c r="B41" t="s">
         <v>26</v>
@@ -21386,7 +21387,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -21738,7 +21739,7 @@
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>779</v>
+        <v>803</v>
       </c>
       <c r="B40" t="s">
         <v>26</v>
@@ -22227,7 +22228,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B18" t="s">
         <v>77</v>
@@ -23280,7 +23281,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B22" t="s">
         <v>77</v>

--- a/Tennis/WTA Tour/Serena Williams.xlsx
+++ b/Tennis/WTA Tour/Serena Williams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="424" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{641B438F-EDA6-463C-859B-782921242F9A}"/>
+  <xr:revisionPtr revIDLastSave="425" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2637B3A-78C5-4876-A3F5-E12F9C29723E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="22" activeTab="28" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="20" activeTab="20" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1995" sheetId="29" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <sheet name="2020" sheetId="27" r:id="rId26"/>
     <sheet name="2021" sheetId="33" r:id="rId27"/>
     <sheet name="2022" sheetId="28" r:id="rId28"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId29"/>
+    <sheet name="Stats" sheetId="1" r:id="rId29"/>
     <sheet name="Wins-Losses" sheetId="34" r:id="rId30"/>
     <sheet name="Winning Percentile Range" sheetId="35" r:id="rId31"/>
   </sheets>
@@ -2713,7 +2713,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$D$1</c:f>
+              <c:f>Stats!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2734,7 +2734,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$29</c:f>
+              <c:f>Stats!$A$2:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -2827,7 +2827,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$29</c:f>
+              <c:f>Stats!$D$2:$D$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -2929,7 +2929,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$E$1</c:f>
+              <c:f>Stats!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2950,7 +2950,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$29</c:f>
+              <c:f>Stats!$A$2:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -3043,7 +3043,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$29</c:f>
+              <c:f>Stats!$E$2:$E$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -3526,7 +3526,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$F$1</c:f>
+              <c:f>Stats!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3575,7 +3575,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$29</c:f>
+              <c:f>Stats!$A$2:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -3668,7 +3668,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$29</c:f>
+              <c:f>Stats!$F$2:$F$29</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="28"/>
@@ -14241,8 +14241,8 @@
   </sheetPr>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A19" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15180,8 +15180,8 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18039,7 +18039,7 @@
   </sheetPr>
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/WTA Tour/Serena Williams.xlsx
+++ b/Tennis/WTA Tour/Serena Williams.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="427" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DDBE08A-F75E-4795-931D-1BFC1ECD5440}"/>
+  <xr:revisionPtr revIDLastSave="429" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C20A5289-C8A7-4A54-861F-C8783C6989EF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="20" activeTab="27" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -5242,10 +5242,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5549,7 +5545,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5616,7 +5612,7 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6436,7 +6432,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6963,7 +6959,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7258,7 +7254,7 @@
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8010,7 +8006,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8878,7 +8874,7 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9904,7 +9900,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10393,7 +10389,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10840,7 +10836,7 @@
   <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11864,7 +11860,7 @@
   <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13164,7 +13160,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13231,7 +13227,7 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14242,7 +14238,7 @@
   <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15181,7 +15177,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15892,7 +15888,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16087,7 +16083,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16530,7 +16526,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17101,7 +17097,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17535,7 +17531,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17870,7 +17866,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18040,7 +18036,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18743,7 +18739,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19017,7 +19013,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19691,7 +19687,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20485,7 +20481,7 @@
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21228,7 +21224,7 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21993,7 +21989,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22986,7 +22982,7 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tennis/WTA Tour/Serena Williams.xlsx
+++ b/Tennis/WTA Tour/Serena Williams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="433" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15A62719-160E-463C-8E3F-DDE8056DF910}"/>
+  <xr:revisionPtr revIDLastSave="459" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B98B5D0-3F65-45B1-B702-A3206025C56E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="26" activeTab="28" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="5" activeTab="27" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1995" sheetId="29" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <sheet name="2014" sheetId="20" r:id="rId20"/>
     <sheet name="2015" sheetId="22" r:id="rId21"/>
     <sheet name="2016" sheetId="23" r:id="rId22"/>
-    <sheet name="2017" sheetId="24" r:id="rId23"/>
+    <sheet name="2017" sheetId="36" r:id="rId23"/>
     <sheet name="2018" sheetId="25" r:id="rId24"/>
     <sheet name="2019" sheetId="26" r:id="rId25"/>
     <sheet name="2020" sheetId="27" r:id="rId26"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4820" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4820" uniqueCount="814">
   <si>
     <t>Semifinal</t>
   </si>
@@ -2261,12 +2261,6 @@
     <t>Bernarda Pera (USA)</t>
   </si>
   <si>
-    <t>First Round</t>
-  </si>
-  <si>
-    <t>Second Round</t>
-  </si>
-  <si>
     <t>Shelby Rogers (USA)</t>
   </si>
   <si>
@@ -2486,9 +2480,6 @@
     <t>Emma Raducanu (GREAT BRITAIN)</t>
   </si>
   <si>
-    <t>Danka Kovinic (MONTENEGRO)</t>
-  </si>
-  <si>
     <t>Anett Kontaveit (ESTONIA)</t>
   </si>
   <si>
@@ -2511,6 +2502,9 @@
   </si>
   <si>
     <t>Bojana Jovanovski (SERBIA)</t>
+  </si>
+  <si>
+    <t>Danka Kovinić (MONTENEGRO)</t>
   </si>
 </sst>
 </file>
@@ -5175,7 +5169,8 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -5183,7 +5178,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8564880" cy="5821680"/>
+    <xdr:ext cx="8582025" cy="5838825"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5216,7 +5211,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8656320" cy="6278880"/>
+    <xdr:ext cx="8667750" cy="6296025"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5246,9 +5241,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5286,7 +5281,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5392,7 +5387,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5534,7 +5529,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5583,7 +5578,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B2" t="s">
         <v>33</v>
@@ -5592,7 +5587,7 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>27</v>
@@ -5740,7 +5735,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B9" t="s">
         <v>77</v>
@@ -5788,7 +5783,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B13" t="s">
         <v>77</v>
@@ -5817,7 +5812,7 @@
         <v>303</v>
       </c>
       <c r="F14" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -6183,7 +6178,7 @@
         <v>303</v>
       </c>
       <c r="F43" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -6326,7 +6321,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B56" t="s">
         <v>26</v>
@@ -6346,7 +6341,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B58" t="s">
         <v>26</v>
@@ -6423,7 +6418,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="51" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6603,12 +6598,12 @@
         <v>303</v>
       </c>
       <c r="F11" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -6834,7 +6829,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B32" t="s">
         <v>26</v>
@@ -6863,7 +6858,7 @@
         <v>303</v>
       </c>
       <c r="F33" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -6950,7 +6945,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="80" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7045,7 +7040,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -7245,7 +7240,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7292,7 +7287,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -7534,7 +7529,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B21" t="s">
         <v>77</v>
@@ -7554,7 +7549,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -7847,7 +7842,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B47" t="s">
         <v>26</v>
@@ -7977,7 +7972,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B58" t="s">
         <v>26</v>
@@ -7997,7 +7992,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="55" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8053,7 +8048,7 @@
         <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -8272,7 +8267,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B20" t="s">
         <v>77</v>
@@ -8439,7 +8434,7 @@
         <v>303</v>
       </c>
       <c r="F32" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -8492,7 +8487,7 @@
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B38" t="s">
         <v>90</v>
@@ -8644,7 +8639,7 @@
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B50" t="s">
         <v>26</v>
@@ -8757,7 +8752,7 @@
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>32</v>
@@ -8810,7 +8805,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B63" t="s">
         <v>26</v>
@@ -8830,7 +8825,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B65" t="s">
         <v>26</v>
@@ -8865,7 +8860,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="48" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8912,7 +8907,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -9135,12 +9130,12 @@
         <v>303</v>
       </c>
       <c r="F18" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -9332,7 +9327,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B36" t="s">
         <v>77</v>
@@ -9451,7 +9446,7 @@
         <v>57</v>
       </c>
       <c r="D45" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>32</v>
@@ -9580,7 +9575,7 @@
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B56" t="s">
         <v>26</v>
@@ -9614,7 +9609,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B59" t="s">
         <v>26</v>
@@ -9814,7 +9809,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B75" t="s">
         <v>26</v>
@@ -9891,7 +9886,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="40" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9938,7 +9933,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -10166,7 +10161,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B20" t="s">
         <v>77</v>
@@ -10237,7 +10232,7 @@
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>32</v>
@@ -10285,7 +10280,7 @@
         <v>56</v>
       </c>
       <c r="D29" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>32</v>
@@ -10380,7 +10375,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="92" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10427,7 +10422,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B2" t="s">
         <v>90</v>
@@ -10599,7 +10594,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -10689,7 +10684,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -10718,7 +10713,7 @@
         <v>303</v>
       </c>
       <c r="F24" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -10732,7 +10727,7 @@
         <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>32</v>
@@ -10788,7 +10783,7 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>32</v>
@@ -10827,7 +10822,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10897,7 +10892,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
@@ -10917,7 +10912,7 @@
         <v>303</v>
       </c>
       <c r="F4" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -10973,7 +10968,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>27</v>
@@ -10984,7 +10979,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -11074,7 +11069,7 @@
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B19" t="s">
         <v>77</v>
@@ -11151,7 +11146,7 @@
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B25" t="s">
         <v>77</v>
@@ -11179,7 +11174,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B28" t="s">
         <v>77</v>
@@ -11202,7 +11197,7 @@
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>32</v>
@@ -11341,7 +11336,7 @@
         <v>303</v>
       </c>
       <c r="F39" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11403,7 +11398,7 @@
         <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>32</v>
@@ -11532,7 +11527,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B56" t="s">
         <v>90</v>
@@ -11622,7 +11617,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B63" t="s">
         <v>26</v>
@@ -11707,7 +11702,7 @@
         <v>6</v>
       </c>
       <c r="D69" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>32</v>
@@ -11721,7 +11716,7 @@
         <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>32</v>
@@ -11774,7 +11769,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B75" t="s">
         <v>26</v>
@@ -11851,7 +11846,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="40" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11955,7 +11950,7 @@
         <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -11963,7 +11958,7 @@
         <v>121</v>
       </c>
       <c r="D6" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>32</v>
@@ -11983,7 +11978,7 @@
         <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>32</v>
@@ -12059,7 +12054,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>32</v>
@@ -12216,7 +12211,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B27" t="s">
         <v>77</v>
@@ -12292,7 +12287,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B33" t="s">
         <v>26</v>
@@ -12320,7 +12315,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B36" t="s">
         <v>77</v>
@@ -12652,7 +12647,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B62" t="s">
         <v>77</v>
@@ -12728,7 +12723,7 @@
     </row>
     <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B68" t="s">
         <v>26</v>
@@ -12804,7 +12799,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B74" t="s">
         <v>26</v>
@@ -12813,7 +12808,7 @@
         <v>6</v>
       </c>
       <c r="D74" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>32</v>
@@ -13074,7 +13069,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B95" t="s">
         <v>26</v>
@@ -13151,7 +13146,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="32" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13198,22 +13193,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
   </sheetData>
@@ -13389,7 +13384,7 @@
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -13398,7 +13393,7 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>32</v>
@@ -13527,7 +13522,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B23" t="s">
         <v>77</v>
@@ -13547,7 +13542,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B25" t="s">
         <v>77</v>
@@ -13604,7 +13599,7 @@
         <v>303</v>
       </c>
       <c r="F28" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13829,7 +13824,7 @@
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B48" t="s">
         <v>26</v>
@@ -13891,7 +13886,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B53" t="s">
         <v>26</v>
@@ -14046,7 +14041,7 @@
         <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>32</v>
@@ -14071,7 +14066,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B67" t="s">
         <v>26</v>
@@ -14086,7 +14081,7 @@
         <v>27</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -14148,12 +14143,12 @@
         <v>303</v>
       </c>
       <c r="F72" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B74" t="s">
         <v>26</v>
@@ -14190,7 +14185,7 @@
         <v>238</v>
       </c>
       <c r="D76" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>32</v>
@@ -14229,7 +14224,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="40" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14380,7 +14375,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B10" t="s">
         <v>77</v>
@@ -14397,7 +14392,7 @@
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -14468,7 +14463,7 @@
         <v>303</v>
       </c>
       <c r="F16" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -14563,7 +14558,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B25" t="s">
         <v>77</v>
@@ -14591,7 +14586,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B28" t="s">
         <v>77</v>
@@ -14676,7 +14671,7 @@
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>32</v>
@@ -14696,12 +14691,12 @@
         <v>303</v>
       </c>
       <c r="F35" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B37" t="s">
         <v>77</v>
@@ -14710,7 +14705,7 @@
         <v>56</v>
       </c>
       <c r="D37" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>32</v>
@@ -14935,12 +14930,12 @@
         <v>303</v>
       </c>
       <c r="F54" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B56" t="s">
         <v>26</v>
@@ -15002,7 +14997,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B61" t="s">
         <v>26</v>
@@ -15168,7 +15163,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="45" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15179,7 +15174,7 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -15319,7 +15314,7 @@
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -15702,7 +15697,7 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>32</v>
@@ -15741,7 +15736,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B43" t="s">
         <v>26</v>
@@ -15750,7 +15745,7 @@
         <v>57</v>
       </c>
       <c r="D43" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>32</v>
@@ -15798,7 +15793,7 @@
         <v>56</v>
       </c>
       <c r="D47" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>32</v>
@@ -15879,12 +15874,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="61" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA157B85-789A-4B3B-93E6-FB1A98358C0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564ACC5C-4A00-4A8C-B59A-B7646F14AD9D}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -15894,13 +15889,13 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15917,7 +15912,7 @@
       <c r="D1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -15965,7 +15960,6 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -16030,7 +16024,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -16074,7 +16068,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16085,7 +16079,7 @@
   </sheetPr>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -16121,7 +16115,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -16253,7 +16247,7 @@
         <v>303</v>
       </c>
       <c r="F11" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -16359,7 +16353,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -16379,7 +16373,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -16388,7 +16382,7 @@
         <v>57</v>
       </c>
       <c r="D23" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>32</v>
@@ -16517,7 +16511,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16528,7 +16522,7 @@
   </sheetPr>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -16652,7 +16646,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -16720,7 +16714,7 @@
         <v>303</v>
       </c>
       <c r="F12" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -16754,12 +16748,12 @@
         <v>303</v>
       </c>
       <c r="F15" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B17" t="s">
         <v>77</v>
@@ -16869,7 +16863,7 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>32</v>
@@ -16908,7 +16902,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -17088,7 +17082,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="78" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17107,7 +17101,7 @@
   <cols>
     <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
@@ -17268,7 +17262,7 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>27</v>
@@ -17283,7 +17277,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -17322,7 +17316,7 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>732</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
         <v>731</v>
@@ -17336,7 +17330,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>733</v>
+        <v>4</v>
       </c>
       <c r="D16" t="s">
         <v>60</v>
@@ -17353,18 +17347,18 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F17" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -17379,7 +17373,7 @@
         <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -17387,13 +17381,13 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F20" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -17407,7 +17401,7 @@
         <v>56</v>
       </c>
       <c r="D22" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>32</v>
@@ -17421,7 +17415,7 @@
         <v>57</v>
       </c>
       <c r="D23" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>32</v>
@@ -17441,7 +17435,7 @@
         <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -17449,13 +17443,13 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -17488,7 +17482,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B29" t="s">
         <v>77</v>
@@ -17497,7 +17491,7 @@
         <v>56</v>
       </c>
       <c r="D29" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>32</v>
@@ -17517,12 +17511,12 @@
         <v>303</v>
       </c>
       <c r="F30" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17569,7 +17563,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -17578,7 +17572,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -17606,13 +17600,13 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -17626,7 +17620,7 @@
         <v>303</v>
       </c>
       <c r="F5" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -17654,7 +17648,7 @@
         <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>32</v>
@@ -17682,7 +17676,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>32</v>
@@ -17730,7 +17724,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>27</v>
@@ -17741,7 +17735,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B16" t="s">
         <v>77</v>
@@ -17750,7 +17744,7 @@
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>32</v>
@@ -17764,7 +17758,7 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>27</v>
@@ -17790,7 +17784,7 @@
         <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -17798,13 +17792,13 @@
         <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F20" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -17812,7 +17806,7 @@
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>32</v>
@@ -17826,7 +17820,7 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>27</v>
@@ -17846,18 +17840,18 @@
         <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F24" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17913,18 +17907,18 @@
         <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -17933,7 +17927,7 @@
         <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>32</v>
@@ -17958,7 +17952,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -17967,7 +17961,7 @@
         <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>27</v>
@@ -17987,7 +17981,7 @@
         <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>32</v>
@@ -18001,13 +17995,13 @@
         <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -18015,19 +18009,19 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -18058,10 +18052,10 @@
         <v>722</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>723</v>
@@ -18696,7 +18690,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B31" s="6">
         <f>AVERAGE(B2:B29)</f>
@@ -18777,7 +18771,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -18845,7 +18839,7 @@
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
@@ -18941,7 +18935,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B16" t="s">
         <v>33</v>
@@ -19051,7 +19045,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -19189,7 +19183,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -19437,7 +19431,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B33" t="s">
         <v>90</v>
@@ -19629,7 +19623,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B49" t="s">
         <v>26</v>
@@ -19725,7 +19719,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -19883,7 +19877,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -20207,7 +20201,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B41" t="s">
         <v>77</v>
@@ -20452,7 +20446,7 @@
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B61" t="s">
         <v>26</v>
@@ -20472,7 +20466,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="56" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="52" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -20705,7 +20699,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -20815,7 +20809,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B26" t="s">
         <v>77</v>
@@ -20925,7 +20919,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B35" t="s">
         <v>26</v>
@@ -21001,7 +20995,7 @@
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B41" t="s">
         <v>26</v>
@@ -21215,7 +21209,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="57" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -21262,7 +21256,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -21386,7 +21380,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -21457,7 +21451,7 @@
         <v>230</v>
       </c>
       <c r="F16" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -21738,7 +21732,7 @@
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B40" t="s">
         <v>26</v>
@@ -21975,12 +21969,12 @@
         <v>230</v>
       </c>
       <c r="F57" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="56" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -22027,7 +22021,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -22227,7 +22221,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B18" t="s">
         <v>77</v>
@@ -22318,7 +22312,7 @@
         <v>230</v>
       </c>
       <c r="F24" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -22849,7 +22843,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B67" t="s">
         <v>33</v>
@@ -22973,7 +22967,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="42" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -23280,7 +23274,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B22" t="s">
         <v>77</v>
@@ -23356,7 +23350,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -23641,6 +23635,6 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="65" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tennis/WTA Tour/Serena Williams.xlsx
+++ b/Tennis/WTA Tour/Serena Williams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="459" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B98B5D0-3F65-45B1-B702-A3206025C56E}"/>
+  <xr:revisionPtr revIDLastSave="462" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1AF8184-0EC9-4F68-BA9C-6A8BD948C475}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="5" activeTab="27" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15345" firstSheet="5" activeTab="27" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1995" sheetId="29" r:id="rId1"/>
@@ -1748,9 +1748,6 @@
     <t>Garbiñe Muguruza (SPAIN)</t>
   </si>
   <si>
-    <t>QATAR TOTAL OPEN</t>
-  </si>
-  <si>
     <t>7-6(6) 2-6 6-3</t>
   </si>
   <si>
@@ -2309,9 +2306,6 @@
     <t>WIMBLEDEON</t>
   </si>
   <si>
-    <t>DUBAI TENNIS CHAMPIONSHIPS</t>
-  </si>
-  <si>
     <t>OLYMPICS</t>
   </si>
   <si>
@@ -2505,6 +2499,12 @@
   </si>
   <si>
     <t>Danka Kovinić (MONTENEGRO)</t>
+  </si>
+  <si>
+    <t>DUBAI OPEN</t>
+  </si>
+  <si>
+    <t>QATAR OPEN</t>
   </si>
 </sst>
 </file>
@@ -5578,7 +5578,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B2" t="s">
         <v>33</v>
@@ -5587,7 +5587,7 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>27</v>
@@ -5735,7 +5735,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B9" t="s">
         <v>77</v>
@@ -5783,7 +5783,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B13" t="s">
         <v>77</v>
@@ -5812,7 +5812,7 @@
         <v>303</v>
       </c>
       <c r="F14" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -6178,7 +6178,7 @@
         <v>303</v>
       </c>
       <c r="F43" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -6321,7 +6321,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B56" t="s">
         <v>26</v>
@@ -6341,7 +6341,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B58" t="s">
         <v>26</v>
@@ -6578,7 +6578,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>32</v>
@@ -6598,12 +6598,12 @@
         <v>303</v>
       </c>
       <c r="F11" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>748</v>
+        <v>812</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -6660,7 +6660,7 @@
         <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>32</v>
@@ -6674,7 +6674,7 @@
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>32</v>
@@ -6708,7 +6708,7 @@
         <v>27</v>
       </c>
       <c r="F20" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -6829,7 +6829,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B32" t="s">
         <v>26</v>
@@ -6858,7 +6858,7 @@
         <v>303</v>
       </c>
       <c r="F33" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -7040,7 +7040,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -7287,7 +7287,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -7529,7 +7529,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B21" t="s">
         <v>77</v>
@@ -7549,7 +7549,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -7842,7 +7842,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B47" t="s">
         <v>26</v>
@@ -7972,7 +7972,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B58" t="s">
         <v>26</v>
@@ -8048,7 +8048,7 @@
         <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -8186,7 +8186,7 @@
         <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>32</v>
@@ -8267,7 +8267,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B20" t="s">
         <v>77</v>
@@ -8434,7 +8434,7 @@
         <v>303</v>
       </c>
       <c r="F32" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -8487,7 +8487,7 @@
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B38" t="s">
         <v>90</v>
@@ -8639,7 +8639,7 @@
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B50" t="s">
         <v>26</v>
@@ -8752,7 +8752,7 @@
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>32</v>
@@ -8805,7 +8805,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B63" t="s">
         <v>26</v>
@@ -8825,7 +8825,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B65" t="s">
         <v>26</v>
@@ -8907,7 +8907,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -9130,12 +9130,12 @@
         <v>303</v>
       </c>
       <c r="F18" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>748</v>
+        <v>812</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -9327,7 +9327,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B36" t="s">
         <v>77</v>
@@ -9446,7 +9446,7 @@
         <v>57</v>
       </c>
       <c r="D45" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>32</v>
@@ -9575,7 +9575,7 @@
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B56" t="s">
         <v>26</v>
@@ -9609,7 +9609,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B59" t="s">
         <v>26</v>
@@ -9809,7 +9809,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B75" t="s">
         <v>26</v>
@@ -9933,7 +9933,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -10161,7 +10161,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B20" t="s">
         <v>77</v>
@@ -10232,7 +10232,7 @@
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>32</v>
@@ -10280,7 +10280,7 @@
         <v>56</v>
       </c>
       <c r="D29" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>32</v>
@@ -10422,7 +10422,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B2" t="s">
         <v>90</v>
@@ -10594,7 +10594,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -10684,7 +10684,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -10713,7 +10713,7 @@
         <v>303</v>
       </c>
       <c r="F24" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -10727,7 +10727,7 @@
         <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>32</v>
@@ -10783,7 +10783,7 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>32</v>
@@ -10892,7 +10892,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
@@ -10912,7 +10912,7 @@
         <v>303</v>
       </c>
       <c r="F4" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -10968,7 +10968,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>27</v>
@@ -10979,7 +10979,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -11069,7 +11069,7 @@
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B19" t="s">
         <v>77</v>
@@ -11146,7 +11146,7 @@
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B25" t="s">
         <v>77</v>
@@ -11174,7 +11174,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B28" t="s">
         <v>77</v>
@@ -11197,7 +11197,7 @@
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>32</v>
@@ -11336,7 +11336,7 @@
         <v>303</v>
       </c>
       <c r="F39" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11398,7 +11398,7 @@
         <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>32</v>
@@ -11527,7 +11527,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B56" t="s">
         <v>90</v>
@@ -11617,7 +11617,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B63" t="s">
         <v>26</v>
@@ -11702,7 +11702,7 @@
         <v>6</v>
       </c>
       <c r="D69" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>32</v>
@@ -11716,7 +11716,7 @@
         <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>32</v>
@@ -11769,7 +11769,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B75" t="s">
         <v>26</v>
@@ -11950,7 +11950,7 @@
         <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -11958,7 +11958,7 @@
         <v>121</v>
       </c>
       <c r="D6" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>32</v>
@@ -11978,7 +11978,7 @@
         <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>32</v>
@@ -12045,7 +12045,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>561</v>
+        <v>813</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -12054,7 +12054,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>32</v>
@@ -12088,7 +12088,7 @@
         <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -12116,7 +12116,7 @@
         <v>27</v>
       </c>
       <c r="F18" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -12164,7 +12164,7 @@
         <v>32</v>
       </c>
       <c r="F22" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -12206,12 +12206,12 @@
         <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B27" t="s">
         <v>77</v>
@@ -12220,7 +12220,7 @@
         <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>32</v>
@@ -12234,7 +12234,7 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>32</v>
@@ -12282,18 +12282,18 @@
         <v>32</v>
       </c>
       <c r="F31" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B33" t="s">
         <v>26</v>
       </c>
       <c r="D33" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>32</v>
@@ -12315,7 +12315,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B36" t="s">
         <v>77</v>
@@ -12324,7 +12324,7 @@
         <v>57</v>
       </c>
       <c r="D36" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>32</v>
@@ -12366,7 +12366,7 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>32</v>
@@ -12380,7 +12380,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>32</v>
@@ -12414,7 +12414,7 @@
         <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>32</v>
@@ -12442,7 +12442,7 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>32</v>
@@ -12456,7 +12456,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>32</v>
@@ -12490,7 +12490,7 @@
         <v>56</v>
       </c>
       <c r="D49" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>32</v>
@@ -12504,7 +12504,7 @@
         <v>57</v>
       </c>
       <c r="D50" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>32</v>
@@ -12560,7 +12560,7 @@
         <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>32</v>
@@ -12594,7 +12594,7 @@
         <v>56</v>
       </c>
       <c r="D57" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>32</v>
@@ -12608,7 +12608,7 @@
         <v>57</v>
       </c>
       <c r="D58" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>32</v>
@@ -12622,7 +12622,7 @@
         <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>32</v>
@@ -12647,7 +12647,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B62" t="s">
         <v>77</v>
@@ -12656,7 +12656,7 @@
         <v>6</v>
       </c>
       <c r="D62" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>32</v>
@@ -12670,7 +12670,7 @@
         <v>4</v>
       </c>
       <c r="D63" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>32</v>
@@ -12712,7 +12712,7 @@
         <v>121</v>
       </c>
       <c r="D66" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>32</v>
@@ -12723,7 +12723,7 @@
     </row>
     <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B68" t="s">
         <v>26</v>
@@ -12746,7 +12746,7 @@
         <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>32</v>
@@ -12760,7 +12760,7 @@
         <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>32</v>
@@ -12780,7 +12780,7 @@
         <v>32</v>
       </c>
       <c r="F71" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -12799,7 +12799,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B74" t="s">
         <v>26</v>
@@ -12808,7 +12808,7 @@
         <v>6</v>
       </c>
       <c r="D74" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>32</v>
@@ -12822,7 +12822,7 @@
         <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>32</v>
@@ -12836,7 +12836,7 @@
         <v>2</v>
       </c>
       <c r="D76" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>32</v>
@@ -12856,7 +12856,7 @@
         <v>32</v>
       </c>
       <c r="F77" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -12870,7 +12870,7 @@
         <v>27</v>
       </c>
       <c r="F78" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -12912,7 +12912,7 @@
         <v>6</v>
       </c>
       <c r="D82" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>32</v>
@@ -12926,7 +12926,7 @@
         <v>4</v>
       </c>
       <c r="D83" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>32</v>
@@ -12940,7 +12940,7 @@
         <v>2</v>
       </c>
       <c r="D84" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>32</v>
@@ -12974,7 +12974,7 @@
         <v>32</v>
       </c>
       <c r="F86" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -13022,7 +13022,7 @@
         <v>32</v>
       </c>
       <c r="F90" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -13069,7 +13069,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B95" t="s">
         <v>26</v>
@@ -13126,7 +13126,7 @@
         <v>32</v>
       </c>
       <c r="F98" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="99" spans="3:6" x14ac:dyDescent="0.25">
@@ -13193,22 +13193,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B2" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C2" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D2" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E2" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
   </sheetData>
@@ -13230,7 +13230,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
@@ -13331,7 +13331,7 @@
         <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>32</v>
@@ -13345,7 +13345,7 @@
         <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>32</v>
@@ -13384,7 +13384,7 @@
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>748</v>
+        <v>812</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -13393,13 +13393,13 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -13447,7 +13447,7 @@
         <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -13455,7 +13455,7 @@
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>32</v>
@@ -13522,7 +13522,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B23" t="s">
         <v>77</v>
@@ -13531,7 +13531,7 @@
         <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>27</v>
@@ -13542,7 +13542,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B25" t="s">
         <v>77</v>
@@ -13551,7 +13551,7 @@
         <v>57</v>
       </c>
       <c r="D25" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>32</v>
@@ -13579,7 +13579,7 @@
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>32</v>
@@ -13599,7 +13599,7 @@
         <v>303</v>
       </c>
       <c r="F28" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13661,7 +13661,7 @@
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -13669,7 +13669,7 @@
         <v>121</v>
       </c>
       <c r="D34" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>32</v>
@@ -13689,7 +13689,7 @@
         <v>56</v>
       </c>
       <c r="D36" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>32</v>
@@ -13723,7 +13723,7 @@
         <v>56</v>
       </c>
       <c r="D39" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>32</v>
@@ -13771,7 +13771,7 @@
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>32</v>
@@ -13791,7 +13791,7 @@
         <v>32</v>
       </c>
       <c r="F44" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -13819,12 +13819,12 @@
         <v>32</v>
       </c>
       <c r="F46" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B48" t="s">
         <v>26</v>
@@ -13867,7 +13867,7 @@
         <v>32</v>
       </c>
       <c r="F50" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -13881,12 +13881,12 @@
         <v>27</v>
       </c>
       <c r="F51" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B53" t="s">
         <v>26</v>
@@ -13901,7 +13901,7 @@
         <v>32</v>
       </c>
       <c r="F53" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -13943,7 +13943,7 @@
         <v>32</v>
       </c>
       <c r="F56" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -13971,7 +13971,7 @@
         <v>56</v>
       </c>
       <c r="D59" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>32</v>
@@ -13985,7 +13985,7 @@
         <v>57</v>
       </c>
       <c r="D60" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>32</v>
@@ -13999,7 +13999,7 @@
         <v>6</v>
       </c>
       <c r="D61" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>32</v>
@@ -14013,7 +14013,7 @@
         <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>32</v>
@@ -14041,7 +14041,7 @@
         <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>32</v>
@@ -14066,7 +14066,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B67" t="s">
         <v>26</v>
@@ -14081,7 +14081,7 @@
         <v>27</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -14095,7 +14095,7 @@
         <v>57</v>
       </c>
       <c r="D69" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>32</v>
@@ -14143,12 +14143,12 @@
         <v>303</v>
       </c>
       <c r="F72" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B74" t="s">
         <v>26</v>
@@ -14185,7 +14185,7 @@
         <v>238</v>
       </c>
       <c r="D76" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>32</v>
@@ -14205,7 +14205,7 @@
         <v>32</v>
       </c>
       <c r="F77" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -14280,7 +14280,7 @@
         <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -14350,7 +14350,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>32</v>
@@ -14364,7 +14364,7 @@
         <v>121</v>
       </c>
       <c r="D8" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>32</v>
@@ -14375,13 +14375,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B10" t="s">
         <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>32</v>
@@ -14392,7 +14392,7 @@
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -14401,13 +14401,13 @@
         <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -14415,7 +14415,7 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>32</v>
@@ -14435,7 +14435,7 @@
         <v>32</v>
       </c>
       <c r="F14" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -14457,13 +14457,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>303</v>
       </c>
       <c r="F16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -14477,7 +14477,7 @@
         <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>32</v>
@@ -14491,7 +14491,7 @@
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>32</v>
@@ -14505,7 +14505,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>32</v>
@@ -14525,7 +14525,7 @@
         <v>32</v>
       </c>
       <c r="F21" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -14533,7 +14533,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>32</v>
@@ -14547,7 +14547,7 @@
         <v>121</v>
       </c>
       <c r="D23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>32</v>
@@ -14558,7 +14558,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B25" t="s">
         <v>77</v>
@@ -14570,12 +14570,12 @@
         <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>32</v>
@@ -14586,7 +14586,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B28" t="s">
         <v>77</v>
@@ -14595,7 +14595,7 @@
         <v>57</v>
       </c>
       <c r="D28" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>32</v>
@@ -14629,7 +14629,7 @@
         <v>32</v>
       </c>
       <c r="F30" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -14637,7 +14637,7 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>32</v>
@@ -14671,7 +14671,7 @@
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>32</v>
@@ -14685,18 +14685,18 @@
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>303</v>
       </c>
       <c r="F35" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B37" t="s">
         <v>77</v>
@@ -14705,7 +14705,7 @@
         <v>56</v>
       </c>
       <c r="D37" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>32</v>
@@ -14719,13 +14719,13 @@
         <v>57</v>
       </c>
       <c r="D38" t="s">
+        <v>633</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" t="s">
         <v>634</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F38" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -14781,7 +14781,7 @@
         <v>32</v>
       </c>
       <c r="F42" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -14795,7 +14795,7 @@
         <v>32</v>
       </c>
       <c r="F43" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -14809,7 +14809,7 @@
         <v>56</v>
       </c>
       <c r="D45" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>32</v>
@@ -14823,7 +14823,7 @@
         <v>57</v>
       </c>
       <c r="D46" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>32</v>
@@ -14837,7 +14837,7 @@
         <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>32</v>
@@ -14879,7 +14879,7 @@
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>32</v>
@@ -14904,7 +14904,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B53" t="s">
         <v>77</v>
@@ -14913,7 +14913,7 @@
         <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>32</v>
@@ -14930,12 +14930,12 @@
         <v>303</v>
       </c>
       <c r="F54" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B56" t="s">
         <v>26</v>
@@ -14958,7 +14958,7 @@
         <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>32</v>
@@ -14986,7 +14986,7 @@
         <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>27</v>
@@ -14997,7 +14997,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B61" t="s">
         <v>26</v>
@@ -15020,7 +15020,7 @@
         <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>32</v>
@@ -15082,13 +15082,13 @@
         <v>56</v>
       </c>
       <c r="D67" t="s">
+        <v>642</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F67" t="s">
         <v>643</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F67" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -15096,13 +15096,13 @@
         <v>57</v>
       </c>
       <c r="D68" t="s">
+        <v>644</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F68" t="s">
         <v>645</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F68" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -15116,7 +15116,7 @@
         <v>32</v>
       </c>
       <c r="F69" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -15124,7 +15124,7 @@
         <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>32</v>
@@ -15144,7 +15144,7 @@
         <v>32</v>
       </c>
       <c r="F71" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -15219,7 +15219,7 @@
         <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -15233,7 +15233,7 @@
         <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
@@ -15247,7 +15247,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>32</v>
@@ -15261,7 +15261,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>32</v>
@@ -15309,12 +15309,12 @@
         <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -15323,7 +15323,7 @@
         <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>32</v>
@@ -15337,13 +15337,13 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
+        <v>652</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
         <v>653</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -15351,7 +15351,7 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>32</v>
@@ -15365,7 +15365,7 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>32</v>
@@ -15385,7 +15385,7 @@
         <v>32</v>
       </c>
       <c r="F14" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -15413,13 +15413,13 @@
         <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -15427,7 +15427,7 @@
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>32</v>
@@ -15441,13 +15441,13 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F19" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -15461,7 +15461,7 @@
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>32</v>
@@ -15475,13 +15475,13 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F22" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -15489,7 +15489,7 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>32</v>
@@ -15503,7 +15503,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>32</v>
@@ -15517,13 +15517,13 @@
         <v>121</v>
       </c>
       <c r="D25" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -15537,7 +15537,7 @@
         <v>56</v>
       </c>
       <c r="D27" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>32</v>
@@ -15551,7 +15551,7 @@
         <v>57</v>
       </c>
       <c r="D28" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>32</v>
@@ -15565,13 +15565,13 @@
         <v>6</v>
       </c>
       <c r="D29" t="s">
+        <v>665</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" t="s">
         <v>666</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F29" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -15579,7 +15579,7 @@
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>32</v>
@@ -15593,13 +15593,13 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F31" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -15607,13 +15607,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="s">
+        <v>669</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" t="s">
         <v>670</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F32" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -15641,7 +15641,7 @@
         <v>56</v>
       </c>
       <c r="D35" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>32</v>
@@ -15655,13 +15655,13 @@
         <v>57</v>
       </c>
       <c r="D36" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F36" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -15669,7 +15669,7 @@
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>32</v>
@@ -15683,7 +15683,7 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>32</v>
@@ -15697,7 +15697,7 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>32</v>
@@ -15736,7 +15736,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B43" t="s">
         <v>26</v>
@@ -15745,7 +15745,7 @@
         <v>57</v>
       </c>
       <c r="D43" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>32</v>
@@ -15759,7 +15759,7 @@
         <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>32</v>
@@ -15773,7 +15773,7 @@
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>27</v>
@@ -15793,7 +15793,7 @@
         <v>56</v>
       </c>
       <c r="D47" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>32</v>
@@ -15807,7 +15807,7 @@
         <v>57</v>
       </c>
       <c r="D48" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>32</v>
@@ -15821,7 +15821,7 @@
         <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>32</v>
@@ -15849,7 +15849,7 @@
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>32</v>
@@ -15863,7 +15863,7 @@
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>27</v>
@@ -15921,7 +15921,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -15930,7 +15930,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -15946,13 +15946,13 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -15973,7 +15973,7 @@
         <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>32</v>
@@ -16029,7 +16029,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>32</v>
@@ -16115,7 +16115,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -16124,7 +16124,7 @@
         <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -16140,13 +16140,13 @@
         <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -16179,7 +16179,7 @@
         <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>27</v>
@@ -16199,13 +16199,13 @@
         <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -16213,7 +16213,7 @@
         <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>32</v>
@@ -16247,7 +16247,7 @@
         <v>303</v>
       </c>
       <c r="F11" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -16258,7 +16258,7 @@
         <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>32</v>
@@ -16272,7 +16272,7 @@
         <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>32</v>
@@ -16286,13 +16286,13 @@
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -16300,7 +16300,7 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>32</v>
@@ -16314,7 +16314,7 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>32</v>
@@ -16353,7 +16353,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -16362,7 +16362,7 @@
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>27</v>
@@ -16373,7 +16373,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -16382,7 +16382,7 @@
         <v>57</v>
       </c>
       <c r="D23" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>32</v>
@@ -16416,7 +16416,7 @@
         <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>32</v>
@@ -16430,7 +16430,7 @@
         <v>57</v>
       </c>
       <c r="D27" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>32</v>
@@ -16458,7 +16458,7 @@
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>32</v>
@@ -16472,7 +16472,7 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>32</v>
@@ -16486,7 +16486,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>32</v>
@@ -16500,7 +16500,7 @@
         <v>121</v>
       </c>
       <c r="D32" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>27</v>
@@ -16567,7 +16567,7 @@
         <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -16583,7 +16583,7 @@
         <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
@@ -16599,7 +16599,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>32</v>
@@ -16631,13 +16631,13 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -16646,7 +16646,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -16671,13 +16671,13 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -16694,7 +16694,7 @@
         <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>32</v>
@@ -16708,13 +16708,13 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>303</v>
       </c>
       <c r="F12" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -16728,7 +16728,7 @@
         <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>32</v>
@@ -16748,12 +16748,12 @@
         <v>303</v>
       </c>
       <c r="F15" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B17" t="s">
         <v>77</v>
@@ -16762,13 +16762,13 @@
         <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -16776,7 +16776,7 @@
         <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>32</v>
@@ -16790,7 +16790,7 @@
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>27</v>
@@ -16807,7 +16807,7 @@
         <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>32</v>
@@ -16821,13 +16821,13 @@
         <v>57</v>
       </c>
       <c r="D22" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F22" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -16863,13 +16863,13 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -16902,7 +16902,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -16911,7 +16911,7 @@
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>32</v>
@@ -16925,7 +16925,7 @@
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>32</v>
@@ -16939,7 +16939,7 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>32</v>
@@ -16953,7 +16953,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>32</v>
@@ -16967,13 +16967,13 @@
         <v>121</v>
       </c>
       <c r="D33" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F33" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -17001,13 +17001,13 @@
         <v>57</v>
       </c>
       <c r="D36" t="s">
+        <v>709</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" t="s">
         <v>710</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F36" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -17015,7 +17015,7 @@
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>32</v>
@@ -17029,7 +17029,7 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>32</v>
@@ -17043,7 +17043,7 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>32</v>
@@ -17057,7 +17057,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>32</v>
@@ -17071,7 +17071,7 @@
         <v>121</v>
       </c>
       <c r="D41" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>27</v>
@@ -17129,7 +17129,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -17138,7 +17138,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -17154,7 +17154,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
@@ -17170,7 +17170,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>32</v>
@@ -17186,7 +17186,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>32</v>
@@ -17202,7 +17202,7 @@
         <v>121</v>
       </c>
       <c r="D6" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>32</v>
@@ -17230,7 +17230,7 @@
         <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>32</v>
@@ -17246,7 +17246,7 @@
         <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>32</v>
@@ -17262,13 +17262,13 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -17277,32 +17277,32 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="D13" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -17310,7 +17310,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -17319,7 +17319,7 @@
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>32</v>
@@ -17347,18 +17347,18 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F17" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -17367,13 +17367,13 @@
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -17381,13 +17381,13 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F20" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -17401,7 +17401,7 @@
         <v>56</v>
       </c>
       <c r="D22" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>32</v>
@@ -17415,7 +17415,7 @@
         <v>57</v>
       </c>
       <c r="D23" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>32</v>
@@ -17429,13 +17429,13 @@
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -17443,13 +17443,13 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -17482,7 +17482,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B29" t="s">
         <v>77</v>
@@ -17491,13 +17491,13 @@
         <v>56</v>
       </c>
       <c r="D29" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F29" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -17511,7 +17511,7 @@
         <v>303</v>
       </c>
       <c r="F30" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
   </sheetData>
@@ -17563,7 +17563,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -17572,7 +17572,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -17600,13 +17600,13 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
+        <v>740</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
         <v>741</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -17614,13 +17614,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>303</v>
       </c>
       <c r="F5" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -17634,7 +17634,7 @@
         <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>32</v>
@@ -17648,7 +17648,7 @@
         <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>32</v>
@@ -17662,7 +17662,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>32</v>
@@ -17676,13 +17676,13 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -17704,7 +17704,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>27</v>
@@ -17724,7 +17724,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>27</v>
@@ -17735,7 +17735,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B16" t="s">
         <v>77</v>
@@ -17744,7 +17744,7 @@
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>32</v>
@@ -17758,7 +17758,7 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>27</v>
@@ -17778,13 +17778,13 @@
         <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -17792,13 +17792,13 @@
         <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F20" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -17806,7 +17806,7 @@
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>32</v>
@@ -17820,7 +17820,7 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>27</v>
@@ -17840,13 +17840,13 @@
         <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F24" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
   </sheetData>
@@ -17907,18 +17907,18 @@
         <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -17927,7 +17927,7 @@
         <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>32</v>
@@ -17941,7 +17941,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>27</v>
@@ -17952,7 +17952,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -17961,7 +17961,7 @@
         <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>27</v>
@@ -17981,7 +17981,7 @@
         <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>32</v>
@@ -17995,13 +17995,13 @@
         <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -18009,13 +18009,13 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
   </sheetData>
@@ -18049,22 +18049,22 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>724</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -18690,7 +18690,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B31" s="6">
         <f>AVERAGE(B2:B29)</f>
@@ -18771,7 +18771,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -18839,7 +18839,7 @@
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
@@ -18935,7 +18935,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B16" t="s">
         <v>33</v>
@@ -19045,7 +19045,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -19183,7 +19183,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -19431,7 +19431,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B33" t="s">
         <v>90</v>
@@ -19502,7 +19502,7 @@
         <v>57</v>
       </c>
       <c r="D38" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>32</v>
@@ -19623,7 +19623,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B49" t="s">
         <v>26</v>
@@ -19719,7 +19719,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -19877,7 +19877,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -20201,7 +20201,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B41" t="s">
         <v>77</v>
@@ -20398,7 +20398,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B57" t="s">
         <v>26</v>
@@ -20446,7 +20446,7 @@
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B61" t="s">
         <v>26</v>
@@ -20699,7 +20699,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -20804,12 +20804,12 @@
         <v>27</v>
       </c>
       <c r="F24" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B26" t="s">
         <v>77</v>
@@ -20919,7 +20919,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B35" t="s">
         <v>26</v>
@@ -20995,7 +20995,7 @@
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B41" t="s">
         <v>26</v>
@@ -21256,7 +21256,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -21380,7 +21380,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -21451,7 +21451,7 @@
         <v>230</v>
       </c>
       <c r="F16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -21732,7 +21732,7 @@
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B40" t="s">
         <v>26</v>
@@ -21969,7 +21969,7 @@
         <v>230</v>
       </c>
       <c r="F57" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
   </sheetData>
@@ -22021,7 +22021,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -22221,7 +22221,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B18" t="s">
         <v>77</v>
@@ -22312,7 +22312,7 @@
         <v>230</v>
       </c>
       <c r="F24" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -22843,7 +22843,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B67" t="s">
         <v>33</v>
@@ -22858,7 +22858,7 @@
         <v>32</v>
       </c>
       <c r="F67" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -22905,7 +22905,7 @@
     </row>
     <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B72" t="s">
         <v>26</v>
@@ -23274,7 +23274,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B22" t="s">
         <v>77</v>
@@ -23350,7 +23350,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>

--- a/Tennis/WTA Tour/Serena Williams.xlsx
+++ b/Tennis/WTA Tour/Serena Williams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="462" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1AF8184-0EC9-4F68-BA9C-6A8BD948C475}"/>
+  <xr:revisionPtr revIDLastSave="471" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43D46FEB-9047-49EB-BD2A-97F3023BC061}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15345" firstSheet="5" activeTab="27" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="28800" windowHeight="15285" firstSheet="15" activeTab="28" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1995" sheetId="29" r:id="rId1"/>
@@ -42,8 +42,6 @@
     <sheet name="2021" sheetId="33" r:id="rId27"/>
     <sheet name="2022" sheetId="28" r:id="rId28"/>
     <sheet name="Stats" sheetId="1" r:id="rId29"/>
-    <sheet name="Wins-Losses" sheetId="34" r:id="rId30"/>
-    <sheet name="Winning Percentile Range" sheetId="35" r:id="rId31"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2917,7 +2915,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1D74-4F95-A0C1-CDAFF36A944F}"/>
+              <c16:uniqueId val="{00000000-5AC9-4ABC-AAEB-3260B54D62C4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3133,7 +3131,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1D74-4F95-A0C1-CDAFF36A944F}"/>
+              <c16:uniqueId val="{00000001-5AC9-4ABC-AAEB-3260B54D62C4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3435,6 +3433,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -3759,7 +3762,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CBDB-46A5-AB80-E6A02F5F5F06}"/>
+              <c16:uniqueId val="{00000001-2491-4B62-BC4E-EE2A4A9679BF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4061,6 +4064,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -5150,47 +5158,31 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{207F744F-61CD-4575-A5D1-332BE404724A}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7394548D-F12D-4EC5-A523-6F2377EF6E3B}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB59302D-F9D8-292E-7D59-1820824F1C6A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{146D3593-8BE7-8A93-340C-D6E6C0CF2726}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5203,27 +5195,30 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6296025"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D16AF790-C235-C398-001B-86A588BA08FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9F3D388-9F7F-1A60-B971-C6E1E2E8D982}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5231,13 +5226,17 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5542,7 +5541,7 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -5609,7 +5608,7 @@
   </sheetPr>
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -6429,7 +6428,7 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -6956,7 +6955,7 @@
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -7251,7 +7250,7 @@
   </sheetPr>
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -8003,7 +8002,7 @@
   </sheetPr>
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+    <sheetView topLeftCell="A51" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -8871,7 +8870,7 @@
   </sheetPr>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -9897,7 +9896,7 @@
   </sheetPr>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -10386,7 +10385,7 @@
   </sheetPr>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -10833,7 +10832,7 @@
   </sheetPr>
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+    <sheetView topLeftCell="A54" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -11857,7 +11856,7 @@
   </sheetPr>
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -13157,7 +13156,7 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -13224,7 +13223,7 @@
   </sheetPr>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+    <sheetView topLeftCell="A60" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -14235,7 +14234,7 @@
   </sheetPr>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -15174,7 +15173,7 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -15885,7 +15884,7 @@
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -16079,7 +16078,7 @@
   </sheetPr>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -16522,7 +16521,7 @@
   </sheetPr>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -17093,7 +17092,7 @@
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -17527,7 +17526,7 @@
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -17862,7 +17861,7 @@
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -18033,7 +18032,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18725,6 +18724,7 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -18735,7 +18735,7 @@
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -19009,7 +19009,7 @@
   </sheetPr>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -19683,7 +19683,7 @@
   </sheetPr>
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -20477,7 +20477,7 @@
   </sheetPr>
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -21220,7 +21220,7 @@
   </sheetPr>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -21985,7 +21985,7 @@
   </sheetPr>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+    <sheetView topLeftCell="A50" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -22978,7 +22978,7 @@
   </sheetPr>
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/WTA Tour/Serena Williams.xlsx
+++ b/Tennis/WTA Tour/Serena Williams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="471" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43D46FEB-9047-49EB-BD2A-97F3023BC061}"/>
+  <xr:revisionPtr revIDLastSave="476" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{297768A2-A260-4AFE-9629-85D482E0E305}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="28800" windowHeight="15285" firstSheet="15" activeTab="28" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15285" firstSheet="15" activeTab="21" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="1995" sheetId="29" r:id="rId1"/>
@@ -1974,9 +1974,6 @@
     <t>Tímea Babos (HUNGARY)</t>
   </si>
   <si>
-    <t>Margarita Gasparyan (RUSSIA)</t>
-  </si>
-  <si>
     <t>Heather Watson (GREAT BRITAIN)</t>
   </si>
   <si>
@@ -2013,9 +2010,6 @@
     <t>Su-Wei Hsieh (CHINESE TAIPEI)</t>
   </si>
   <si>
-    <t>Daria Kasatkina (RUSSIA)</t>
-  </si>
-  <si>
     <t>Laura Siegemund (GERMANY)</t>
   </si>
   <si>
@@ -2271,9 +2265,6 @@
     <t>7-6(6) 3-6 7-6(0)</t>
   </si>
   <si>
-    <t>Margarita Gasparyan (RUSSIA)</t>
-  </si>
-  <si>
     <t>2-6 6-2 6-2</t>
   </si>
   <si>
@@ -2503,6 +2494,15 @@
   </si>
   <si>
     <t>QATAR OPEN</t>
+  </si>
+  <si>
+    <t>Daria Kasatkina (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>Margarita Betova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>Margarita Betova (RUSSIA)</t>
   </si>
 </sst>
 </file>
@@ -5542,7 +5542,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5577,7 +5577,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B2" t="s">
         <v>33</v>
@@ -5586,7 +5586,7 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>27</v>
@@ -5609,7 +5609,7 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5734,7 +5734,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B9" t="s">
         <v>77</v>
@@ -5782,7 +5782,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B13" t="s">
         <v>77</v>
@@ -5811,7 +5811,7 @@
         <v>303</v>
       </c>
       <c r="F14" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -6177,7 +6177,7 @@
         <v>303</v>
       </c>
       <c r="F43" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -6320,7 +6320,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="B56" t="s">
         <v>26</v>
@@ -6340,7 +6340,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B58" t="s">
         <v>26</v>
@@ -6429,7 +6429,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6577,7 +6577,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>32</v>
@@ -6597,12 +6597,12 @@
         <v>303</v>
       </c>
       <c r="F11" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -6828,7 +6828,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B32" t="s">
         <v>26</v>
@@ -6857,7 +6857,7 @@
         <v>303</v>
       </c>
       <c r="F33" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -6956,7 +6956,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7039,7 +7039,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -7251,7 +7251,7 @@
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7286,7 +7286,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -7528,7 +7528,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B21" t="s">
         <v>77</v>
@@ -7548,7 +7548,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -7841,7 +7841,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B47" t="s">
         <v>26</v>
@@ -7971,7 +7971,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B58" t="s">
         <v>26</v>
@@ -8003,7 +8003,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8047,7 +8047,7 @@
         <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -8185,7 +8185,7 @@
         <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>32</v>
@@ -8266,7 +8266,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B20" t="s">
         <v>77</v>
@@ -8433,7 +8433,7 @@
         <v>303</v>
       </c>
       <c r="F32" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -8486,7 +8486,7 @@
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B38" t="s">
         <v>90</v>
@@ -8638,7 +8638,7 @@
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="B50" t="s">
         <v>26</v>
@@ -8751,7 +8751,7 @@
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>32</v>
@@ -8804,7 +8804,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B63" t="s">
         <v>26</v>
@@ -8824,7 +8824,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B65" t="s">
         <v>26</v>
@@ -8871,7 +8871,7 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8906,7 +8906,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -9129,12 +9129,12 @@
         <v>303</v>
       </c>
       <c r="F18" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -9326,7 +9326,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B36" t="s">
         <v>77</v>
@@ -9445,7 +9445,7 @@
         <v>57</v>
       </c>
       <c r="D45" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>32</v>
@@ -9574,7 +9574,7 @@
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B56" t="s">
         <v>26</v>
@@ -9608,7 +9608,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B59" t="s">
         <v>26</v>
@@ -9808,7 +9808,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B75" t="s">
         <v>26</v>
@@ -9897,7 +9897,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9932,7 +9932,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -10160,7 +10160,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B20" t="s">
         <v>77</v>
@@ -10231,7 +10231,7 @@
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>32</v>
@@ -10279,7 +10279,7 @@
         <v>56</v>
       </c>
       <c r="D29" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>32</v>
@@ -10386,7 +10386,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10421,7 +10421,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="B2" t="s">
         <v>90</v>
@@ -10593,7 +10593,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -10683,7 +10683,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -10712,7 +10712,7 @@
         <v>303</v>
       </c>
       <c r="F24" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -10726,7 +10726,7 @@
         <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>32</v>
@@ -10782,7 +10782,7 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>32</v>
@@ -10833,7 +10833,7 @@
   <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10891,7 +10891,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
@@ -10911,7 +10911,7 @@
         <v>303</v>
       </c>
       <c r="F4" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -10967,7 +10967,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>27</v>
@@ -10978,7 +10978,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -11068,7 +11068,7 @@
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B19" t="s">
         <v>77</v>
@@ -11145,7 +11145,7 @@
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B25" t="s">
         <v>77</v>
@@ -11173,7 +11173,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B28" t="s">
         <v>77</v>
@@ -11196,7 +11196,7 @@
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>32</v>
@@ -11335,7 +11335,7 @@
         <v>303</v>
       </c>
       <c r="F39" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11397,7 +11397,7 @@
         <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>32</v>
@@ -11526,7 +11526,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="B56" t="s">
         <v>90</v>
@@ -11616,7 +11616,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B63" t="s">
         <v>26</v>
@@ -11701,7 +11701,7 @@
         <v>6</v>
       </c>
       <c r="D69" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>32</v>
@@ -11715,7 +11715,7 @@
         <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>32</v>
@@ -11768,7 +11768,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B75" t="s">
         <v>26</v>
@@ -11857,7 +11857,7 @@
   <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11949,7 +11949,7 @@
         <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -11957,7 +11957,7 @@
         <v>121</v>
       </c>
       <c r="D6" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>32</v>
@@ -11977,7 +11977,7 @@
         <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>32</v>
@@ -12044,7 +12044,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -12053,7 +12053,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>32</v>
@@ -12210,7 +12210,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B27" t="s">
         <v>77</v>
@@ -12286,7 +12286,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B33" t="s">
         <v>26</v>
@@ -12314,7 +12314,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B36" t="s">
         <v>77</v>
@@ -12646,7 +12646,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="B62" t="s">
         <v>77</v>
@@ -12722,7 +12722,7 @@
     </row>
     <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B68" t="s">
         <v>26</v>
@@ -12798,7 +12798,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B74" t="s">
         <v>26</v>
@@ -12807,7 +12807,7 @@
         <v>6</v>
       </c>
       <c r="D74" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>32</v>
@@ -13068,7 +13068,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B95" t="s">
         <v>26</v>
@@ -13157,7 +13157,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13192,22 +13192,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="B2" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C2" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="D2" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="E2" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
   </sheetData>
@@ -13224,7 +13224,7 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13383,7 +13383,7 @@
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -13392,7 +13392,7 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>32</v>
@@ -13521,7 +13521,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B23" t="s">
         <v>77</v>
@@ -13541,7 +13541,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B25" t="s">
         <v>77</v>
@@ -13598,7 +13598,7 @@
         <v>303</v>
       </c>
       <c r="F28" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13823,7 +13823,7 @@
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B48" t="s">
         <v>26</v>
@@ -13885,7 +13885,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B53" t="s">
         <v>26</v>
@@ -14040,7 +14040,7 @@
         <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>32</v>
@@ -14065,7 +14065,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B67" t="s">
         <v>26</v>
@@ -14080,7 +14080,7 @@
         <v>27</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -14142,12 +14142,12 @@
         <v>303</v>
       </c>
       <c r="F72" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B74" t="s">
         <v>26</v>
@@ -14184,7 +14184,7 @@
         <v>238</v>
       </c>
       <c r="D76" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>32</v>
@@ -14235,7 +14235,7 @@
   <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14374,7 +14374,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B10" t="s">
         <v>77</v>
@@ -14391,7 +14391,7 @@
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -14462,7 +14462,7 @@
         <v>303</v>
       </c>
       <c r="F16" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -14557,7 +14557,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B25" t="s">
         <v>77</v>
@@ -14585,7 +14585,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B28" t="s">
         <v>77</v>
@@ -14670,7 +14670,7 @@
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>32</v>
@@ -14690,12 +14690,12 @@
         <v>303</v>
       </c>
       <c r="F35" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B37" t="s">
         <v>77</v>
@@ -14704,7 +14704,7 @@
         <v>56</v>
       </c>
       <c r="D37" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>32</v>
@@ -14808,7 +14808,7 @@
         <v>56</v>
       </c>
       <c r="D45" t="s">
-        <v>637</v>
+        <v>812</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>32</v>
@@ -14836,7 +14836,7 @@
         <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>32</v>
@@ -14912,7 +14912,7 @@
         <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>32</v>
@@ -14929,12 +14929,12 @@
         <v>303</v>
       </c>
       <c r="F54" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B56" t="s">
         <v>26</v>
@@ -14957,7 +14957,7 @@
         <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>32</v>
@@ -14996,7 +14996,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B61" t="s">
         <v>26</v>
@@ -15019,7 +15019,7 @@
         <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>32</v>
@@ -15081,13 +15081,13 @@
         <v>56</v>
       </c>
       <c r="D67" t="s">
+        <v>641</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F67" t="s">
         <v>642</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F67" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -15095,13 +15095,13 @@
         <v>57</v>
       </c>
       <c r="D68" t="s">
+        <v>643</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F68" t="s">
         <v>644</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F68" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -15115,7 +15115,7 @@
         <v>32</v>
       </c>
       <c r="F69" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -15143,7 +15143,7 @@
         <v>32</v>
       </c>
       <c r="F71" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -15173,8 +15173,8 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15232,7 +15232,7 @@
         <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
@@ -15246,7 +15246,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>650</v>
+        <v>811</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>32</v>
@@ -15260,7 +15260,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>637</v>
+        <v>812</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>32</v>
@@ -15308,12 +15308,12 @@
         <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -15322,7 +15322,7 @@
         <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>32</v>
@@ -15336,13 +15336,13 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -15350,7 +15350,7 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>32</v>
@@ -15384,7 +15384,7 @@
         <v>32</v>
       </c>
       <c r="F14" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -15418,7 +15418,7 @@
         <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -15426,7 +15426,7 @@
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>32</v>
@@ -15446,7 +15446,7 @@
         <v>27</v>
       </c>
       <c r="F19" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -15480,7 +15480,7 @@
         <v>32</v>
       </c>
       <c r="F22" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -15502,7 +15502,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>32</v>
@@ -15522,7 +15522,7 @@
         <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -15550,7 +15550,7 @@
         <v>57</v>
       </c>
       <c r="D28" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>32</v>
@@ -15564,13 +15564,13 @@
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F29" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -15578,7 +15578,7 @@
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>32</v>
@@ -15592,13 +15592,13 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F31" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -15606,13 +15606,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F32" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -15640,7 +15640,7 @@
         <v>56</v>
       </c>
       <c r="D35" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>32</v>
@@ -15660,7 +15660,7 @@
         <v>32</v>
       </c>
       <c r="F36" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -15668,7 +15668,7 @@
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>32</v>
@@ -15696,7 +15696,7 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>32</v>
@@ -15735,7 +15735,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="B43" t="s">
         <v>26</v>
@@ -15744,7 +15744,7 @@
         <v>57</v>
       </c>
       <c r="D43" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>32</v>
@@ -15758,7 +15758,7 @@
         <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>32</v>
@@ -15772,7 +15772,7 @@
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>27</v>
@@ -15792,7 +15792,7 @@
         <v>56</v>
       </c>
       <c r="D47" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>32</v>
@@ -15806,7 +15806,7 @@
         <v>57</v>
       </c>
       <c r="D48" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>32</v>
@@ -15885,7 +15885,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15920,7 +15920,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -15929,7 +15929,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -15945,13 +15945,13 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -15972,7 +15972,7 @@
         <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>32</v>
@@ -16028,7 +16028,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>32</v>
@@ -16079,7 +16079,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16114,7 +16114,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -16123,7 +16123,7 @@
         <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -16139,13 +16139,13 @@
         <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -16178,7 +16178,7 @@
         <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>27</v>
@@ -16198,13 +16198,13 @@
         <v>56</v>
       </c>
       <c r="D8" t="s">
+        <v>679</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
         <v>681</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -16212,7 +16212,7 @@
         <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>32</v>
@@ -16246,7 +16246,7 @@
         <v>303</v>
       </c>
       <c r="F11" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -16257,7 +16257,7 @@
         <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>32</v>
@@ -16271,7 +16271,7 @@
         <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>32</v>
@@ -16285,13 +16285,13 @@
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -16299,7 +16299,7 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>32</v>
@@ -16352,7 +16352,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -16361,7 +16361,7 @@
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>27</v>
@@ -16372,7 +16372,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -16381,7 +16381,7 @@
         <v>57</v>
       </c>
       <c r="D23" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>32</v>
@@ -16415,7 +16415,7 @@
         <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>32</v>
@@ -16429,7 +16429,7 @@
         <v>57</v>
       </c>
       <c r="D27" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>32</v>
@@ -16485,7 +16485,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>32</v>
@@ -16499,7 +16499,7 @@
         <v>121</v>
       </c>
       <c r="D32" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>27</v>
@@ -16522,7 +16522,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16566,7 +16566,7 @@
         <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -16582,7 +16582,7 @@
         <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
@@ -16598,7 +16598,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>32</v>
@@ -16636,7 +16636,7 @@
         <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -16645,7 +16645,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -16670,13 +16670,13 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -16693,7 +16693,7 @@
         <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>32</v>
@@ -16707,13 +16707,13 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>303</v>
       </c>
       <c r="F12" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -16727,7 +16727,7 @@
         <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>32</v>
@@ -16747,12 +16747,12 @@
         <v>303</v>
       </c>
       <c r="F15" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B17" t="s">
         <v>77</v>
@@ -16761,13 +16761,13 @@
         <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -16775,7 +16775,7 @@
         <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>32</v>
@@ -16789,7 +16789,7 @@
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>27</v>
@@ -16806,7 +16806,7 @@
         <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>32</v>
@@ -16820,7 +16820,7 @@
         <v>57</v>
       </c>
       <c r="D22" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>32</v>
@@ -16862,13 +16862,13 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -16901,7 +16901,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -16910,7 +16910,7 @@
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>32</v>
@@ -16924,7 +16924,7 @@
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>32</v>
@@ -16938,7 +16938,7 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>32</v>
@@ -16952,7 +16952,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>32</v>
@@ -16966,13 +16966,13 @@
         <v>121</v>
       </c>
       <c r="D33" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F33" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -17000,13 +17000,13 @@
         <v>57</v>
       </c>
       <c r="D36" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F36" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -17014,7 +17014,7 @@
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>32</v>
@@ -17028,7 +17028,7 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>32</v>
@@ -17042,7 +17042,7 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>32</v>
@@ -17056,7 +17056,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>32</v>
@@ -17070,7 +17070,7 @@
         <v>121</v>
       </c>
       <c r="D41" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>27</v>
@@ -17093,7 +17093,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17128,7 +17128,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -17169,7 +17169,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>32</v>
@@ -17185,7 +17185,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>32</v>
@@ -17201,7 +17201,7 @@
         <v>121</v>
       </c>
       <c r="D6" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>32</v>
@@ -17229,7 +17229,7 @@
         <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>32</v>
@@ -17245,7 +17245,7 @@
         <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>32</v>
@@ -17261,13 +17261,13 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -17276,32 +17276,32 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
       </c>
       <c r="D12" t="s">
+        <v>713</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
         <v>715</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="D13" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -17309,7 +17309,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -17318,7 +17318,7 @@
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>32</v>
@@ -17346,18 +17346,18 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F17" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -17366,13 +17366,13 @@
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -17380,13 +17380,13 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F20" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -17400,7 +17400,7 @@
         <v>56</v>
       </c>
       <c r="D22" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>32</v>
@@ -17414,7 +17414,7 @@
         <v>57</v>
       </c>
       <c r="D23" t="s">
-        <v>736</v>
+        <v>813</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>32</v>
@@ -17434,7 +17434,7 @@
         <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -17442,13 +17442,13 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -17481,7 +17481,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B29" t="s">
         <v>77</v>
@@ -17490,13 +17490,13 @@
         <v>56</v>
       </c>
       <c r="D29" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F29" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -17510,7 +17510,7 @@
         <v>303</v>
       </c>
       <c r="F30" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
   </sheetData>
@@ -17527,7 +17527,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17562,7 +17562,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -17571,7 +17571,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -17599,13 +17599,13 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -17613,13 +17613,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>303</v>
       </c>
       <c r="F5" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -17633,7 +17633,7 @@
         <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>32</v>
@@ -17647,7 +17647,7 @@
         <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>32</v>
@@ -17661,7 +17661,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>32</v>
@@ -17675,7 +17675,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>32</v>
@@ -17703,7 +17703,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>27</v>
@@ -17723,7 +17723,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>27</v>
@@ -17734,7 +17734,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="B16" t="s">
         <v>77</v>
@@ -17743,7 +17743,7 @@
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>32</v>
@@ -17757,7 +17757,7 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>27</v>
@@ -17777,13 +17777,13 @@
         <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -17791,13 +17791,13 @@
         <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F20" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -17805,7 +17805,7 @@
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>32</v>
@@ -17819,7 +17819,7 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>27</v>
@@ -17839,13 +17839,13 @@
         <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F24" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
   </sheetData>
@@ -17862,7 +17862,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17906,18 +17906,18 @@
         <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -17926,7 +17926,7 @@
         <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>32</v>
@@ -17940,7 +17940,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>27</v>
@@ -17951,7 +17951,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -17960,7 +17960,7 @@
         <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>27</v>
@@ -17980,7 +17980,7 @@
         <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>32</v>
@@ -17994,13 +17994,13 @@
         <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -18008,13 +18008,13 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
   </sheetData>
@@ -18031,8 +18031,8 @@
   </sheetPr>
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18048,22 +18048,22 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>722</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -18689,7 +18689,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="B31" s="6">
         <f>AVERAGE(B2:B29)</f>
@@ -18736,7 +18736,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18771,7 +18771,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -18839,7 +18839,7 @@
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
@@ -18935,7 +18935,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="B16" t="s">
         <v>33</v>
@@ -19010,7 +19010,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19045,7 +19045,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -19183,7 +19183,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -19431,7 +19431,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="B33" t="s">
         <v>90</v>
@@ -19502,7 +19502,7 @@
         <v>57</v>
       </c>
       <c r="D38" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>32</v>
@@ -19623,7 +19623,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B49" t="s">
         <v>26</v>
@@ -19684,7 +19684,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19719,7 +19719,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -19877,7 +19877,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -20201,7 +20201,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B41" t="s">
         <v>77</v>
@@ -20446,7 +20446,7 @@
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B61" t="s">
         <v>26</v>
@@ -20478,7 +20478,7 @@
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20699,7 +20699,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -20809,7 +20809,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B26" t="s">
         <v>77</v>
@@ -20919,7 +20919,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="B35" t="s">
         <v>26</v>
@@ -20995,7 +20995,7 @@
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B41" t="s">
         <v>26</v>
@@ -21221,7 +21221,7 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21256,7 +21256,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -21380,7 +21380,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -21451,7 +21451,7 @@
         <v>230</v>
       </c>
       <c r="F16" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -21732,7 +21732,7 @@
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B40" t="s">
         <v>26</v>
@@ -21969,7 +21969,7 @@
         <v>230</v>
       </c>
       <c r="F57" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
   </sheetData>
@@ -21986,7 +21986,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22021,7 +22021,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -22221,7 +22221,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B18" t="s">
         <v>77</v>
@@ -22312,7 +22312,7 @@
         <v>230</v>
       </c>
       <c r="F24" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -22843,7 +22843,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B67" t="s">
         <v>33</v>
@@ -22979,7 +22979,7 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23274,7 +23274,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B22" t="s">
         <v>77</v>
@@ -23350,7 +23350,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
